--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>101</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
+          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1241808977.html</t>
+          <t>/news,002812,1242334166.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份11月01日获深股通增持151.94万股</t>
+          <t>恩捷股份11月02日被深股通减持13.79万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-03 07:46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1241800478.html</t>
+          <t>/news,002812,1242324363.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-01 08:56</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1241305789.html</t>
+          <t>/news,002812,1241808977.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份10月31日获深股通增持31.47万股</t>
+          <t>恩捷股份11月01日获深股通增持151.94万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1241296330.html</t>
+          <t>/news,002812,1241800478.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10-31 15:53</t>
+          <t>11-01 08:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1241142162.html</t>
+          <t>/news,002812,1241305789.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创近1年半新低</t>
+          <t>恩捷股份10月31日获深股通增持31.47万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10-31 15:37</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1241137253.html</t>
+          <t>/news,002812,1241296330.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
+          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-31 09:06</t>
+          <t>10-31 15:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1240799779.html</t>
+          <t>/news,002812,1241142162.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
+          <t>恩捷股份股价连续3日创近1年半新低</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-30 15:06</t>
+          <t>10-31 15:37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1240712387.html</t>
+          <t>/news,002812,1241137253.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
+          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 09:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1240706325.html</t>
+          <t>/news,002812,1240799779.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份10月28日被深股通减持212.13万股</t>
+          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 15:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1240600830.html</t>
+          <t>/news,002812,1240712387.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-28 15:37</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1240441086.html</t>
+          <t>/news,002812,1240706325.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
+          <t>恩捷股份10月28日被深股通减持212.13万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,179 +829,179 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-28 09:17</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1240064888.html</t>
+          <t>/news,002812,1240600830.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份10月27日获深股通增持70.47万股</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-28 07:52</t>
+          <t>10-28 15:37</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1240048276.html</t>
+          <t>/news,002812,1240441086.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-27 16:38</t>
+          <t>10-28 09:17</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1239877267.html</t>
+          <t>/news,002812,1240064888.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
+          <t>恩捷股份10月27日获深股通增持70.47万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-27 11:41</t>
+          <t>10-28 07:52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1239684583.html</t>
+          <t>/news,002812,1240048276.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>582</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-27 16:38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1239506812.html</t>
+          <t>/news,002812,1239877267.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份10月26日获深股通增持63.5万股</t>
+          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-27 08:00</t>
+          <t>10-27 11:41</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1239499169.html</t>
+          <t>/news,002812,1239684583.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,39 +1011,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
+          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-26 21:20</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1239433633.html</t>
+          <t>/news,002812,1239506812.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
+          <t>恩捷股份10月26日获深股通增持63.5万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-26 20:18</t>
+          <t>10-27 08:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1239425504.html</t>
+          <t>/news,002812,1239499169.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
+          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,93 +1085,93 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-26 19:47</t>
+          <t>10-26 21:20</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1239404625.html</t>
+          <t>/news,002812,1239433633.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-26 18:41</t>
+          <t>10-26 20:18</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1239382483.html</t>
+          <t>/news,002812,1239425504.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
+          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-26 18:01</t>
+          <t>10-26 19:47</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1239370579.html</t>
+          <t>/news,002812,1239404625.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
+          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-26 17:54</t>
+          <t>10-26 18:41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1239368070.html</t>
+          <t>/news,002812,1239382483.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
+          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-26 17:20</t>
+          <t>10-26 18:01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1239358684.html</t>
+          <t>/news,002812,1239370579.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>115</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
+          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 08:52</t>
+          <t>10-26 17:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1238978757.html</t>
+          <t>/news,002812,1239368070.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份10月25日获深股通增持111.11万股</t>
+          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 07:54</t>
+          <t>10-26 17:20</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1238969559.html</t>
+          <t>/news,002812,1239358684.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
+          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-25 17:05</t>
+          <t>10-26 08:52</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1238820247.html</t>
+          <t>/news,002812,1238978757.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份10月25日获深股通增持111.11万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-25 16:19</t>
+          <t>10-26 07:54</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1238806506.html</t>
+          <t>/news,002812,1238969559.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
+          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 17:05</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1238806454.html</t>
+          <t>/news,002812,1238820247.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,44 +1395,44 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
+          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:19</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1238806427.html</t>
+          <t>/news,002812,1238806506.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
+          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1238805953.html</t>
+          <t>/news,002812,1238806454.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
+          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 16:14</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1238805146.html</t>
+          <t>/news,002812,1238806427.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
+          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 16:12</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1238804639.html</t>
+          <t>/news,002812,1238805953.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
+          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 16:02</t>
+          <t>10-25 16:14</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1238802882.html</t>
+          <t>/news,002812,1238805146.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 15:38</t>
+          <t>10-25 16:12</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1238795238.html</t>
+          <t>/news,002812,1238804639.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
+          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 13:56</t>
+          <t>10-25 16:02</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1238722975.html</t>
+          <t>/news,002812,1238802882.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 13:39</t>
+          <t>10-25 15:38</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1238707578.html</t>
+          <t>/news,002812,1238795238.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
+          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 13:56</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1238458860.html</t>
+          <t>/news,002812,1238722975.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,39 +1683,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>恩捷股份10月24日被深股通减持39.44万股</t>
+          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 13:39</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1238448464.html</t>
+          <t>/news,002812,1238707578.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
+          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 00:19</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1238425939.html</t>
+          <t>/news,002812,1238458860.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>恩捷股份前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份10月24日被深股通减持39.44万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-24 22:33</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1238407697.html</t>
+          <t>/news,002812,1238448464.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>644</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
+          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-24 22:20</t>
+          <t>10-25 00:19</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1238402873.html</t>
+          <t>/news,002812,1238425939.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
+          <t>恩捷股份前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-24 21:04</t>
+          <t>10-24 22:33</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1238376002.html</t>
+          <t>/news,002812,1238407697.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
+          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-24 20:51</t>
+          <t>10-24 22:20</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1238373563.html</t>
+          <t>/news,002812,1238402873.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1442</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-24 20:50</t>
+          <t>10-24 21:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1238372200.html</t>
+          <t>/news,002812,1238376002.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-24 20:48</t>
+          <t>10-24 20:51</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1238373053.html</t>
+          <t>/news,002812,1238373563.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>1442</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
+          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-24 20:44</t>
+          <t>10-24 20:50</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1238372589.html</t>
+          <t>/news,002812,1238372200.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,61 +1971,61 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-24 20:41</t>
+          <t>10-24 20:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1238369774.html</t>
+          <t>/news,002812,1238373053.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-24 15:36</t>
+          <t>10-24 20:44</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1238284359.html</t>
+          <t>/news,002812,1238372589.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,61 +2035,61 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
+          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-24 09:02</t>
+          <t>10-24 20:41</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1237924671.html</t>
+          <t>/news,002812,1238369774.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-23 15:04</t>
+          <t>10-24 15:36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1237863487.html</t>
+          <t>/news,002812,1238284359.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,61 +2099,61 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
+          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 09:02</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1237860128.html</t>
+          <t>/news,002812,1237924671.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>恩捷股份10月21日被深股通减持92.73万股</t>
+          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-23 15:04</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1237797052.html</t>
+          <t>/news,002812,1237863487.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,39 +2163,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾16个月新低</t>
+          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-21 15:36</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1237686636.html</t>
+          <t>/news,002812,1237860128.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
+          <t>恩捷股份10月21日被深股通减持92.73万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-21 08:52</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1237356934.html</t>
+          <t>/news,002812,1237797052.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份10月20日被深股通减持301.75万股</t>
+          <t>恩捷股份股价连续2日创逾16个月新低</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-21 15:36</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1237346909.html</t>
+          <t>/news,002812,1237686636.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾16个月新低</t>
+          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-21 08:52</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1237206349.html</t>
+          <t>/news,002812,1237356934.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
+          <t>恩捷股份10月20日被深股通减持301.75万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-20 08:51</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1236896497.html</t>
+          <t>/news,002812,1237346909.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份10月19日获深股通增持31.88万股</t>
+          <t>恩捷股份股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-20 07:49</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1236888926.html</t>
+          <t>/news,002812,1237206349.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
+          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-19 18:00</t>
+          <t>10-20 08:51</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1236766194.html</t>
+          <t>/news,002812,1236896497.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2381.71万元，融资余额13.18亿元（10-18）</t>
+          <t>恩捷股份10月19日获深股通增持31.88万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-19 09:04</t>
+          <t>10-20 07:49</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1236449457.html</t>
+          <t>/news,002812,1236888926.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>856</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份10月18日获深股通增持28.36万股</t>
+          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-19 07:47</t>
+          <t>10-19 18:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1236439308.html</t>
+          <t>/news,002812,1236766194.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入9528.27万元，两市排名第11（10-17）</t>
+          <t>恩捷股份：融资净偿还2381.71万元，融资余额13.18亿元（10-18）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-18 08:56</t>
+          <t>10-19 09:04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1236049457.html</t>
+          <t>/news,002812,1236449457.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份10月17日被深股通减持125.6万股</t>
+          <t>恩捷股份10月18日获深股通增持28.36万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-18 07:50</t>
+          <t>10-19 07:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1236042211.html</t>
+          <t>/news,002812,1236439308.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3088.02万元，融资余额12.47亿元（10-14）</t>
+          <t>恩捷股份：融资净买入9528.27万元，两市排名第11（10-17）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,83 +2525,83 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-17 08:51</t>
+          <t>10-18 08:56</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1235652116.html</t>
+          <t>/news,002812,1236049457.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入1069.45万元，居电池板块第十二</t>
+          <t>恩捷股份10月17日被深股通减持125.6万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-18 07:50</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1235580167.html</t>
+          <t>/news,002812,1236042211.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.06亿元，周内减持市值两市排名第十</t>
+          <t>恩捷股份：融资净买入3088.02万元，融资余额12.47亿元（10-14）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-17 08:51</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1235575535.html</t>
+          <t>/news,002812,1235652116.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,71 +2611,71 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份10月14日被深股通减持128.34万股</t>
+          <t>恩捷股份本周融资净买入1069.45万元，居电池板块第十二</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1235512356.html</t>
+          <t>/news,002812,1235580167.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还756.5万元，融资余额12.16亿元（10-13）</t>
+          <t>恩捷股份本周被深股通减持6.06亿元，周内减持市值两市排名第十</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-14 08:46</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1235089655.html</t>
+          <t>/news,002812,1235575535.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份10月13日被深股通减持35.74万股</t>
+          <t>恩捷股份10月14日被深股通减持128.34万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,115 +2685,115 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-14 07:49</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1235082093.html</t>
+          <t>/news,002812,1235512356.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>恩捷股份：融资净偿还756.5万元，融资余额12.16亿元（10-13）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-13 16:48</t>
+          <t>10-14 08:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1234932330.html</t>
+          <t>/news,002812,1235089655.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>华金证券维持恩捷股份买入评级 预计2022年净利润同比增长73.31%</t>
+          <t>恩捷股份10月13日被深股通减持35.74万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-13 16:32</t>
+          <t>10-14 07:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1234928944.html</t>
+          <t>/news,002812,1235082093.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>604</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华金证券给予恩捷股份买入评级 业绩符合预期 锂电隔膜量增利稳</t>
+          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-13 16:32</t>
+          <t>10-13 16:48</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1234929192.html</t>
+          <t>/news,002812,1234932330.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入1410.31万元，融资余额12.23亿元（10-12）</t>
+          <t>华金证券维持恩捷股份买入评级 预计2022年净利润同比增长73.31%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-13 08:51</t>
+          <t>10-13 16:32</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1234653885.html</t>
+          <t>/news,002812,1234928944.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份10月12日被深股通减持34.19万股</t>
+          <t>华金证券给予恩捷股份买入评级 业绩符合预期 锂电隔膜量增利稳</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-13 08:03</t>
+          <t>10-13 16:32</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1234647858.html</t>
+          <t>/news,002812,1234929192.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还468.67万元，融资余额12.09亿元（10-11）</t>
+          <t>恩捷股份：融资净买入1410.31万元，融资余额12.23亿元（10-12）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-12 08:57</t>
+          <t>10-13 08:51</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1234220233.html</t>
+          <t>/news,002812,1234653885.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>光大证券维持恩捷股份增持评级 预计2022年净利润同比增长72.98%</t>
+          <t>恩捷股份10月12日被深股通减持34.19万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-12 08:53</t>
+          <t>10-13 08:03</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1234219450.html</t>
+          <t>/news,002812,1234647858.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份10月11日被深股通减持45.26万股</t>
+          <t>恩捷股份：融资净偿还468.67万元，融资余额12.09亿元（10-11）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-12 08:57</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1234212960.html</t>
+          <t>/news,002812,1234220233.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交847.4万元，折价2.72%（10-11）</t>
+          <t>光大证券维持恩捷股份增持评级 预计2022年净利润同比增长72.98%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-11 18:00</t>
+          <t>10-12 08:53</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1234108451.html</t>
+          <t>/news,002812,1234219450.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
+          <t>恩捷股份10月11日被深股通减持45.26万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-11 11:03</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1233957678.html</t>
+          <t>/news,002812,1234212960.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
+          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1242334166.html</t>
+          <t>/news,002812,1242828085.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份11月02日被深股通减持13.79万股</t>
+          <t>恩捷股份11月03日被深股通减持32.02万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-03 07:46</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1242324363.html</t>
+          <t>/news,002812,1242816837.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
+          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1241808977.html</t>
+          <t>/news,002812,1242334166.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份11月01日获深股通增持151.94万股</t>
+          <t>恩捷股份11月02日被深股通减持13.79万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-03 07:46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1241800478.html</t>
+          <t>/news,002812,1242324363.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-01 08:56</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1241305789.html</t>
+          <t>/news,002812,1241808977.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份10月31日获深股通增持31.47万股</t>
+          <t>恩捷股份11月01日获深股通增持151.94万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1241296330.html</t>
+          <t>/news,002812,1241800478.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-31 15:53</t>
+          <t>11-01 08:56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1241142162.html</t>
+          <t>/news,002812,1241305789.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创近1年半新低</t>
+          <t>恩捷股份10月31日获深股通增持31.47万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-31 15:37</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1241137253.html</t>
+          <t>/news,002812,1241296330.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
+          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-31 09:06</t>
+          <t>10-31 15:53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1240799779.html</t>
+          <t>/news,002812,1241142162.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
+          <t>恩捷股份股价连续3日创近1年半新低</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-30 15:06</t>
+          <t>10-31 15:37</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1240712387.html</t>
+          <t>/news,002812,1241137253.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
+          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 09:06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1240706325.html</t>
+          <t>/news,002812,1240799779.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份10月28日被深股通减持212.13万股</t>
+          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 15:06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1240600830.html</t>
+          <t>/news,002812,1240712387.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-28 15:37</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1240441086.html</t>
+          <t>/news,002812,1240706325.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
+          <t>恩捷股份10月28日被深股通减持212.13万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,179 +893,179 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-28 09:17</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1240064888.html</t>
+          <t>/news,002812,1240600830.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份10月27日获深股通增持70.47万股</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-28 07:52</t>
+          <t>10-28 15:37</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1240048276.html</t>
+          <t>/news,002812,1240441086.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-27 16:38</t>
+          <t>10-28 09:17</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1239877267.html</t>
+          <t>/news,002812,1240064888.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
+          <t>恩捷股份10月27日获深股通增持70.47万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-27 11:41</t>
+          <t>10-28 07:52</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1239684583.html</t>
+          <t>/news,002812,1240048276.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-27 16:38</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1239506812.html</t>
+          <t>/news,002812,1239877267.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份10月26日获深股通增持63.5万股</t>
+          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-27 08:00</t>
+          <t>10-27 11:41</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1239499169.html</t>
+          <t>/news,002812,1239684583.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,39 +1075,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
+          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-26 21:20</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1239433633.html</t>
+          <t>/news,002812,1239506812.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
+          <t>恩捷股份10月26日获深股通增持63.5万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-26 20:18</t>
+          <t>10-27 08:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1239425504.html</t>
+          <t>/news,002812,1239499169.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
+          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,93 +1149,93 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-26 19:47</t>
+          <t>10-26 21:20</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1239404625.html</t>
+          <t>/news,002812,1239433633.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-26 18:41</t>
+          <t>10-26 20:18</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1239382483.html</t>
+          <t>/news,002812,1239425504.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
+          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-26 18:01</t>
+          <t>10-26 19:47</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1239370579.html</t>
+          <t>/news,002812,1239404625.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
+          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 17:54</t>
+          <t>10-26 18:41</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1239368070.html</t>
+          <t>/news,002812,1239382483.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
+          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 17:20</t>
+          <t>10-26 18:01</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1239358684.html</t>
+          <t>/news,002812,1239370579.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>115</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
+          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 08:52</t>
+          <t>10-26 17:54</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1238978757.html</t>
+          <t>/news,002812,1239368070.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份10月25日获深股通增持111.11万股</t>
+          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 07:54</t>
+          <t>10-26 17:20</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1238969559.html</t>
+          <t>/news,002812,1239358684.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
+          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 17:05</t>
+          <t>10-26 08:52</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1238820247.html</t>
+          <t>/news,002812,1238978757.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份10月25日获深股通增持111.11万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 16:19</t>
+          <t>10-26 07:54</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1238806506.html</t>
+          <t>/news,002812,1238969559.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
+          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 17:05</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1238806454.html</t>
+          <t>/news,002812,1238820247.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,44 +1459,44 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
+          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:19</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1238806427.html</t>
+          <t>/news,002812,1238806506.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
+          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1506,14 +1506,14 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1238805953.html</t>
+          <t>/news,002812,1238806454.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
+          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 16:14</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1238805146.html</t>
+          <t>/news,002812,1238806427.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
+          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 16:12</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1238804639.html</t>
+          <t>/news,002812,1238805953.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
+          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 16:02</t>
+          <t>10-25 16:14</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1238802882.html</t>
+          <t>/news,002812,1238805146.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 15:38</t>
+          <t>10-25 16:12</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1238795238.html</t>
+          <t>/news,002812,1238804639.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
+          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 13:56</t>
+          <t>10-25 16:02</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1238722975.html</t>
+          <t>/news,002812,1238802882.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,39 +1683,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 13:39</t>
+          <t>10-25 15:38</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1238707578.html</t>
+          <t>/news,002812,1238795238.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
+          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 13:56</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1238458860.html</t>
+          <t>/news,002812,1238722975.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,39 +1747,39 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>恩捷股份10月24日被深股通减持39.44万股</t>
+          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 13:39</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1238448464.html</t>
+          <t>/news,002812,1238707578.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
+          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 00:19</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1238425939.html</t>
+          <t>/news,002812,1238458860.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>恩捷股份前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份10月24日被深股通减持39.44万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-24 22:33</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1238407697.html</t>
+          <t>/news,002812,1238448464.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
+          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-24 22:20</t>
+          <t>10-25 00:19</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1238402873.html</t>
+          <t>/news,002812,1238425939.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
+          <t>恩捷股份前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-24 21:04</t>
+          <t>10-24 22:33</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1238376002.html</t>
+          <t>/news,002812,1238407697.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>468</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
+          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-24 20:51</t>
+          <t>10-24 22:20</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1238373563.html</t>
+          <t>/news,002812,1238402873.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1442</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-24 20:50</t>
+          <t>10-24 21:04</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1238372200.html</t>
+          <t>/news,002812,1238376002.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-24 20:48</t>
+          <t>10-24 20:51</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1238373053.html</t>
+          <t>/news,002812,1238373563.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
+          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-24 20:44</t>
+          <t>10-24 20:50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1238372589.html</t>
+          <t>/news,002812,1238372200.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,61 +2035,61 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-24 20:41</t>
+          <t>10-24 20:48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1238369774.html</t>
+          <t>/news,002812,1238373053.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-24 15:36</t>
+          <t>10-24 20:44</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1238284359.html</t>
+          <t>/news,002812,1238372589.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,61 +2099,61 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
+          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-24 09:02</t>
+          <t>10-24 20:41</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1237924671.html</t>
+          <t>/news,002812,1238369774.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-23 15:04</t>
+          <t>10-24 15:36</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1237863487.html</t>
+          <t>/news,002812,1238284359.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,61 +2163,61 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
+          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 09:02</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1237860128.html</t>
+          <t>/news,002812,1237924671.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恩捷股份10月21日被深股通减持92.73万股</t>
+          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-23 15:04</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1237797052.html</t>
+          <t>/news,002812,1237863487.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾16个月新低</t>
+          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-21 15:36</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1237686636.html</t>
+          <t>/news,002812,1237860128.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
+          <t>恩捷股份10月21日被深股通减持92.73万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-21 08:52</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1237356934.html</t>
+          <t>/news,002812,1237797052.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份10月20日被深股通减持301.75万股</t>
+          <t>恩捷股份股价连续2日创逾16个月新低</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-21 15:36</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1237346909.html</t>
+          <t>/news,002812,1237686636.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾16个月新低</t>
+          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-21 08:52</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1237206349.html</t>
+          <t>/news,002812,1237356934.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
+          <t>恩捷股份10月20日被深股通减持301.75万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-20 08:51</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1236896497.html</t>
+          <t>/news,002812,1237346909.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份10月19日获深股通增持31.88万股</t>
+          <t>恩捷股份股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-20 07:49</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1236888926.html</t>
+          <t>/news,002812,1237206349.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
+          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-19 18:00</t>
+          <t>10-20 08:51</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1236766194.html</t>
+          <t>/news,002812,1236896497.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2381.71万元，融资余额13.18亿元（10-18）</t>
+          <t>恩捷股份10月19日获深股通增持31.88万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-19 09:04</t>
+          <t>10-20 07:49</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1236449457.html</t>
+          <t>/news,002812,1236888926.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>856</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份10月18日获深股通增持28.36万股</t>
+          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-19 07:47</t>
+          <t>10-19 18:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1236439308.html</t>
+          <t>/news,002812,1236766194.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入9528.27万元，两市排名第11（10-17）</t>
+          <t>恩捷股份：融资净偿还2381.71万元，融资余额13.18亿元（10-18）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-18 08:56</t>
+          <t>10-19 09:04</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1236049457.html</t>
+          <t>/news,002812,1236449457.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份10月17日被深股通减持125.6万股</t>
+          <t>恩捷股份10月18日获深股通增持28.36万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-18 07:50</t>
+          <t>10-19 07:47</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1236042211.html</t>
+          <t>/news,002812,1236439308.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3088.02万元，融资余额12.47亿元（10-14）</t>
+          <t>恩捷股份：融资净买入9528.27万元，两市排名第11（10-17）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,83 +2589,83 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-17 08:51</t>
+          <t>10-18 08:56</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1235652116.html</t>
+          <t>/news,002812,1236049457.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入1069.45万元，居电池板块第十二</t>
+          <t>恩捷股份10月17日被深股通减持125.6万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-18 07:50</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1235580167.html</t>
+          <t>/news,002812,1236042211.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.06亿元，周内减持市值两市排名第十</t>
+          <t>恩捷股份：融资净买入3088.02万元，融资余额12.47亿元（10-14）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-17 08:51</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1235575535.html</t>
+          <t>/news,002812,1235652116.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,71 +2675,71 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份10月14日被深股通减持128.34万股</t>
+          <t>恩捷股份本周融资净买入1069.45万元，居电池板块第十二</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1235512356.html</t>
+          <t>/news,002812,1235580167.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还756.5万元，融资余额12.16亿元（10-13）</t>
+          <t>恩捷股份本周被深股通减持6.06亿元，周内减持市值两市排名第十</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-14 08:46</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1235089655.html</t>
+          <t>/news,002812,1235575535.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份10月13日被深股通减持35.74万股</t>
+          <t>恩捷股份10月14日被深股通减持128.34万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,115 +2749,115 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-14 07:49</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1235082093.html</t>
+          <t>/news,002812,1235512356.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>恩捷股份：融资净偿还756.5万元，融资余额12.16亿元（10-13）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-13 16:48</t>
+          <t>10-14 08:46</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1234932330.html</t>
+          <t>/news,002812,1235089655.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华金证券维持恩捷股份买入评级 预计2022年净利润同比增长73.31%</t>
+          <t>恩捷股份10月13日被深股通减持35.74万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-13 16:32</t>
+          <t>10-14 07:49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1234928944.html</t>
+          <t>/news,002812,1235082093.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>华金证券给予恩捷股份买入评级 业绩符合预期 锂电隔膜量增利稳</t>
+          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-13 16:32</t>
+          <t>10-13 16:48</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1234929192.html</t>
+          <t>/news,002812,1234932330.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入1410.31万元，融资余额12.23亿元（10-12）</t>
+          <t>华金证券维持恩捷股份买入评级 预计2022年净利润同比增长73.31%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-13 08:51</t>
+          <t>10-13 16:32</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1234653885.html</t>
+          <t>/news,002812,1234928944.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份10月12日被深股通减持34.19万股</t>
+          <t>华金证券给予恩捷股份买入评级 业绩符合预期 锂电隔膜量增利稳</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-13 08:03</t>
+          <t>10-13 16:32</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1234647858.html</t>
+          <t>/news,002812,1234929192.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还468.67万元，融资余额12.09亿元（10-11）</t>
+          <t>恩捷股份：融资净买入1410.31万元，融资余额12.23亿元（10-12）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-12 08:57</t>
+          <t>10-13 08:51</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1234220233.html</t>
+          <t>/news,002812,1234653885.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>光大证券维持恩捷股份增持评级 预计2022年净利润同比增长72.98%</t>
+          <t>恩捷股份10月12日被深股通减持34.19万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-12 08:53</t>
+          <t>10-13 08:03</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1234219450.html</t>
+          <t>/news,002812,1234647858.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>恩捷股份10月11日被深股通减持45.26万股</t>
+          <t>恩捷股份：融资净偿还468.67万元，融资余额12.09亿元（10-11）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-12 08:57</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1234212960.html</t>
+          <t>/news,002812,1234220233.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
+          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1242828085.html</t>
+          <t>/news,002812,1243512204.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份11月03日被深股通减持32.02万股</t>
+          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1242816837.html</t>
+          <t>/news,002812,1243410172.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
+          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-06 14:04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1242334166.html</t>
+          <t>/news,002812,1243404380.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份11月02日被深股通减持13.79万股</t>
+          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-03 07:46</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1242324363.html</t>
+          <t>/news,002812,1242828085.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
+          <t>恩捷股份11月03日被深股通减持32.02万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1241808977.html</t>
+          <t>/news,002812,1242816837.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份11月01日获深股通增持151.94万股</t>
+          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1241800478.html</t>
+          <t>/news,002812,1242334166.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
+          <t>恩捷股份11月02日被深股通减持13.79万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 08:56</t>
+          <t>11-03 07:46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1241305789.html</t>
+          <t>/news,002812,1242324363.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份10月31日获深股通增持31.47万股</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1241296330.html</t>
+          <t>/news,002812,1241808977.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
+          <t>恩捷股份11月01日获深股通增持151.94万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-31 15:53</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1241142162.html</t>
+          <t>/news,002812,1241800478.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创近1年半新低</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-31 15:37</t>
+          <t>11-01 08:56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1241137253.html</t>
+          <t>/news,002812,1241305789.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
+          <t>恩捷股份10月31日获深股通增持31.47万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-31 09:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1240799779.html</t>
+          <t>/news,002812,1241296330.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
+          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-30 15:06</t>
+          <t>10-31 15:53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1240712387.html</t>
+          <t>/news,002812,1241142162.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
+          <t>恩捷股份股价连续3日创近1年半新低</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 15:37</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1240706325.html</t>
+          <t>/news,002812,1241137253.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份10月28日被深股通减持212.13万股</t>
+          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-31 09:06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1240600830.html</t>
+          <t>/news,002812,1240799779.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-28 15:37</t>
+          <t>10-30 15:06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1240441086.html</t>
+          <t>/news,002812,1240712387.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,39 +947,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
+          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-28 09:17</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1240064888.html</t>
+          <t>/news,002812,1240706325.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份10月27日获深股通增持70.47万股</t>
+          <t>恩捷股份10月28日被深股通减持212.13万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-28 07:52</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1240048276.html</t>
+          <t>/news,002812,1240600830.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,61 +1021,61 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-27 16:38</t>
+          <t>10-28 15:37</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1239877267.html</t>
+          <t>/news,002812,1240441086.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
+          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-27 11:41</t>
+          <t>10-28 09:17</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1239684583.html</t>
+          <t>/news,002812,1240064888.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
+          <t>恩捷股份10月27日获深股通增持70.47万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,61 +1085,61 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-28 07:52</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1239506812.html</t>
+          <t>/news,002812,1240048276.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份10月26日获深股通增持63.5万股</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-27 08:00</t>
+          <t>10-27 16:38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1239499169.html</t>
+          <t>/news,002812,1239877267.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
+          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-26 21:20</t>
+          <t>10-27 11:41</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1239433633.html</t>
+          <t>/news,002812,1239684583.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
+          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-26 20:18</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1239425504.html</t>
+          <t>/news,002812,1239506812.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,39 +1203,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
+          <t>恩捷股份10月26日获深股通增持63.5万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-26 19:47</t>
+          <t>10-27 08:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1239404625.html</t>
+          <t>/news,002812,1239499169.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 18:41</t>
+          <t>10-26 21:20</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1239382483.html</t>
+          <t>/news,002812,1239433633.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
+          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 18:01</t>
+          <t>10-26 20:18</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1239370579.html</t>
+          <t>/news,002812,1239425504.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
+          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,61 +1309,61 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 17:54</t>
+          <t>10-26 19:47</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1239368070.html</t>
+          <t>/news,002812,1239404625.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
+          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 17:20</t>
+          <t>10-26 18:41</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1239358684.html</t>
+          <t>/news,002812,1239382483.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
+          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 08:52</t>
+          <t>10-26 18:01</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1238978757.html</t>
+          <t>/news,002812,1239370579.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>恩捷股份10月25日获深股通增持111.11万股</t>
+          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 07:54</t>
+          <t>10-26 17:54</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1238969559.html</t>
+          <t>/news,002812,1239368070.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
+          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 17:05</t>
+          <t>10-26 17:20</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1238820247.html</t>
+          <t>/news,002812,1239358684.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 16:19</t>
+          <t>10-26 08:52</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1238806506.html</t>
+          <t>/news,002812,1238978757.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
+          <t>恩捷股份10月25日获深股通增持111.11万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-26 07:54</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1238806454.html</t>
+          <t>/news,002812,1238969559.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
+          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 17:05</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1238806427.html</t>
+          <t>/news,002812,1238820247.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
+          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,51 +1565,51 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:19</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1238805953.html</t>
+          <t>/news,002812,1238806506.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
+          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 16:14</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1238805146.html</t>
+          <t>/news,002812,1238806454.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
+          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 16:12</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1238804639.html</t>
+          <t>/news,002812,1238806427.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
+          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 16:02</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1238802882.html</t>
+          <t>/news,002812,1238805953.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,61 +1683,61 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 15:38</t>
+          <t>10-25 16:14</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1238795238.html</t>
+          <t>/news,002812,1238805146.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
+          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 13:56</t>
+          <t>10-25 16:12</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1238722975.html</t>
+          <t>/news,002812,1238804639.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
+          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 13:39</t>
+          <t>10-25 16:02</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1238707578.html</t>
+          <t>/news,002812,1238802882.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 15:38</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1238458860.html</t>
+          <t>/news,002812,1238795238.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>恩捷股份10月24日被深股通减持39.44万股</t>
+          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,61 +1821,61 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 13:56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1238448464.html</t>
+          <t>/news,002812,1238722975.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
+          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 00:19</t>
+          <t>10-25 13:39</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1238425939.html</t>
+          <t>/news,002812,1238707578.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恩捷股份前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-24 22:33</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1238407697.html</t>
+          <t>/news,002812,1238458860.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
+          <t>恩捷股份10月24日被深股通减持39.44万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-24 22:20</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1238402873.html</t>
+          <t>/news,002812,1238448464.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>667</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
+          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-24 21:04</t>
+          <t>10-25 00:19</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1238376002.html</t>
+          <t>/news,002812,1238425939.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
+          <t>恩捷股份前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-24 20:51</t>
+          <t>10-24 22:33</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1238373563.html</t>
+          <t>/news,002812,1238407697.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-24 20:50</t>
+          <t>10-24 22:20</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1238372200.html</t>
+          <t>/news,002812,1238402873.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-24 20:48</t>
+          <t>10-24 21:04</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1238373053.html</t>
+          <t>/news,002812,1238376002.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
+          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,83 +2077,83 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-24 20:44</t>
+          <t>10-24 20:51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1238372589.html</t>
+          <t>/news,002812,1238373563.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>1446</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-24 20:41</t>
+          <t>10-24 20:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1238369774.html</t>
+          <t>/news,002812,1238372200.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-24 15:36</t>
+          <t>10-24 20:48</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1238284359.html</t>
+          <t>/news,002812,1238373053.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
+          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-24 09:02</t>
+          <t>10-24 20:44</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1237924671.html</t>
+          <t>/news,002812,1238372589.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,71 +2195,71 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
+          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-23 15:04</t>
+          <t>10-24 20:41</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1237863487.html</t>
+          <t>/news,002812,1238369774.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 15:36</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1237860128.html</t>
+          <t>/news,002812,1238284359.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份10月21日被深股通减持92.73万股</t>
+          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-24 09:02</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1237797052.html</t>
+          <t>/news,002812,1237924671.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,29 +2291,29 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾16个月新低</t>
+          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-21 15:36</t>
+          <t>10-23 15:04</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1237686636.html</t>
+          <t>/news,002812,1237863487.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
+          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-21 08:52</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1237356934.html</t>
+          <t>/news,002812,1237860128.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份10月20日被深股通减持301.75万股</t>
+          <t>恩捷股份10月21日被深股通减持92.73万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1237346909.html</t>
+          <t>/news,002812,1237797052.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾16个月新低</t>
+          <t>恩捷股份股价连续2日创逾16个月新低</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-21 15:36</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1237206349.html</t>
+          <t>/news,002812,1237686636.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
+          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-20 08:51</t>
+          <t>10-21 08:52</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1236896497.html</t>
+          <t>/news,002812,1237356934.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份10月19日获深股通增持31.88万股</t>
+          <t>恩捷股份10月20日被深股通减持301.75万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,51 +2461,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-20 07:49</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1236888926.html</t>
+          <t>/news,002812,1237346909.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
+          <t>恩捷股份股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-19 18:00</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1236766194.html</t>
+          <t>/news,002812,1237206349.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2381.71万元，融资余额13.18亿元（10-18）</t>
+          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-19 09:04</t>
+          <t>10-20 08:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1236449457.html</t>
+          <t>/news,002812,1236896497.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份10月18日获深股通增持28.36万股</t>
+          <t>恩捷股份10月19日获深股通增持31.88万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-19 07:47</t>
+          <t>10-20 07:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1236439308.html</t>
+          <t>/news,002812,1236888926.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>857</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入9528.27万元，两市排名第11（10-17）</t>
+          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-18 08:56</t>
+          <t>10-19 18:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1236049457.html</t>
+          <t>/news,002812,1236766194.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份10月17日被深股通减持125.6万股</t>
+          <t>恩捷股份：融资净偿还2381.71万元，融资余额13.18亿元（10-18）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-18 07:50</t>
+          <t>10-19 09:04</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1236042211.html</t>
+          <t>/news,002812,1236449457.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3088.02万元，融资余额12.47亿元（10-14）</t>
+          <t>恩捷股份10月18日获深股通增持28.36万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-17 08:51</t>
+          <t>10-19 07:47</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1235652116.html</t>
+          <t>/news,002812,1236439308.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入1069.45万元，居电池板块第十二</t>
+          <t>恩捷股份：融资净买入9528.27万元，两市排名第11（10-17）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-18 08:56</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1235580167.html</t>
+          <t>/news,002812,1236049457.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.06亿元，周内减持市值两市排名第十</t>
+          <t>恩捷股份10月17日被深股通减持125.6万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-18 07:50</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1235575535.html</t>
+          <t>/news,002812,1236042211.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份10月14日被深股通减持128.34万股</t>
+          <t>恩捷股份：融资净买入3088.02万元，融资余额12.47亿元（10-14）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-17 08:51</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1235512356.html</t>
+          <t>/news,002812,1235652116.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,93 +2771,93 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还756.5万元，融资余额12.16亿元（10-13）</t>
+          <t>恩捷股份本周融资净买入1069.45万元，居电池板块第十二</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-14 08:46</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1235089655.html</t>
+          <t>/news,002812,1235580167.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份10月13日被深股通减持35.74万股</t>
+          <t>恩捷股份本周被深股通减持6.06亿元，周内减持市值两市排名第十</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-14 07:49</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1235082093.html</t>
+          <t>/news,002812,1235575535.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>恩捷股份10月14日被深股通减持128.34万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-13 16:48</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1234932330.html</t>
+          <t>/news,002812,1235512356.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>华金证券维持恩捷股份买入评级 预计2022年净利润同比增长73.31%</t>
+          <t>恩捷股份：融资净偿还756.5万元，融资余额12.16亿元（10-13）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-13 16:32</t>
+          <t>10-14 08:46</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1234928944.html</t>
+          <t>/news,002812,1235089655.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华金证券给予恩捷股份买入评级 业绩符合预期 锂电隔膜量增利稳</t>
+          <t>恩捷股份10月13日被深股通减持35.74万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,93 +2909,93 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-13 16:32</t>
+          <t>10-14 07:49</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1234929192.html</t>
+          <t>/news,002812,1235082093.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>609</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入1410.31万元，融资余额12.23亿元（10-12）</t>
+          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-13 08:51</t>
+          <t>10-13 16:48</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1234653885.html</t>
+          <t>/news,002812,1234932330.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份10月12日被深股通减持34.19万股</t>
+          <t>华金证券维持恩捷股份买入评级 预计2022年净利润同比增长73.31%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-13 08:03</t>
+          <t>10-13 16:32</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1234647858.html</t>
+          <t>/news,002812,1234928944.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还468.67万元，融资余额12.09亿元（10-11）</t>
+          <t>华金证券给予恩捷股份买入评级 业绩符合预期 锂电隔膜量增利稳</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-12 08:57</t>
+          <t>10-13 16:32</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1234220233.html</t>
+          <t>/news,002812,1234929192.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
+          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 08:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1243512204.html</t>
+          <t>/news,002812,1243982722.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
+          <t>恩捷股份11月07日被深股通减持28.15万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1243410172.html</t>
+          <t>/news,002812,1243975913.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
+          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-06 14:04</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1243404380.html</t>
+          <t>/news,002812,1243512204.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,61 +563,61 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
+          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1242828085.html</t>
+          <t>/news,002812,1243410172.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份11月03日被深股通减持32.02万股</t>
+          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 14:04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1242816837.html</t>
+          <t>/news,002812,1243404380.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
+          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1242334166.html</t>
+          <t>/news,002812,1242828085.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份11月02日被深股通减持13.79万股</t>
+          <t>恩捷股份11月03日被深股通减持32.02万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-03 07:46</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1242324363.html</t>
+          <t>/news,002812,1242816837.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
+          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1241808977.html</t>
+          <t>/news,002812,1242334166.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份11月01日获深股通增持151.94万股</t>
+          <t>恩捷股份11月02日被深股通减持13.79万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-03 07:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1241800478.html</t>
+          <t>/news,002812,1242324363.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-01 08:56</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1241305789.html</t>
+          <t>/news,002812,1241808977.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份10月31日获深股通增持31.47万股</t>
+          <t>恩捷股份11月01日获深股通增持151.94万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1241296330.html</t>
+          <t>/news,002812,1241800478.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-31 15:53</t>
+          <t>11-01 08:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1241142162.html</t>
+          <t>/news,002812,1241305789.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创近1年半新低</t>
+          <t>恩捷股份10月31日获深股通增持31.47万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-31 15:37</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1241137253.html</t>
+          <t>/news,002812,1241296330.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
+          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-31 09:06</t>
+          <t>10-31 15:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1240799779.html</t>
+          <t>/news,002812,1241142162.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
+          <t>恩捷股份股价连续3日创近1年半新低</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-30 15:06</t>
+          <t>10-31 15:37</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1240712387.html</t>
+          <t>/news,002812,1241137253.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
+          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 09:06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1240706325.html</t>
+          <t>/news,002812,1240799779.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份10月28日被深股通减持212.13万股</t>
+          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 15:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1240600830.html</t>
+          <t>/news,002812,1240712387.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-28 15:37</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1240441086.html</t>
+          <t>/news,002812,1240706325.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
+          <t>恩捷股份10月28日被深股通减持212.13万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,179 +1053,179 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-28 09:17</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1240064888.html</t>
+          <t>/news,002812,1240600830.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份10月27日获深股通增持70.47万股</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-28 07:52</t>
+          <t>10-28 15:37</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1240048276.html</t>
+          <t>/news,002812,1240441086.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-27 16:38</t>
+          <t>10-28 09:17</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1239877267.html</t>
+          <t>/news,002812,1240064888.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
+          <t>恩捷股份10月27日获深股通增持70.47万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-27 11:41</t>
+          <t>10-28 07:52</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1239684583.html</t>
+          <t>/news,002812,1240048276.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-27 16:38</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1239506812.html</t>
+          <t>/news,002812,1239877267.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份10月26日获深股通增持63.5万股</t>
+          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-27 08:00</t>
+          <t>10-27 11:41</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1239499169.html</t>
+          <t>/news,002812,1239684583.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
+          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 21:20</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1239433633.html</t>
+          <t>/news,002812,1239506812.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
+          <t>恩捷股份10月26日获深股通增持63.5万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 20:18</t>
+          <t>10-27 08:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1239425504.html</t>
+          <t>/news,002812,1239499169.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
+          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,93 +1309,93 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 19:47</t>
+          <t>10-26 21:20</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1239404625.html</t>
+          <t>/news,002812,1239433633.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 18:41</t>
+          <t>10-26 20:18</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1239382483.html</t>
+          <t>/news,002812,1239425504.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
+          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 18:01</t>
+          <t>10-26 19:47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1239370579.html</t>
+          <t>/news,002812,1239404625.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
+          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 17:54</t>
+          <t>10-26 18:41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1239368070.html</t>
+          <t>/news,002812,1239382483.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
+          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 17:20</t>
+          <t>10-26 18:01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1239358684.html</t>
+          <t>/news,002812,1239370579.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
+          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 08:52</t>
+          <t>10-26 17:54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1238978757.html</t>
+          <t>/news,002812,1239368070.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>恩捷股份10月25日获深股通增持111.11万股</t>
+          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 07:54</t>
+          <t>10-26 17:20</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1238969559.html</t>
+          <t>/news,002812,1239358684.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
+          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 17:05</t>
+          <t>10-26 08:52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1238820247.html</t>
+          <t>/news,002812,1238978757.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份10月25日获深股通增持111.11万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 16:19</t>
+          <t>10-26 07:54</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1238806506.html</t>
+          <t>/news,002812,1238969559.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
+          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 17:05</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1238806454.html</t>
+          <t>/news,002812,1238820247.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,44 +1619,44 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
+          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:19</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1238806427.html</t>
+          <t>/news,002812,1238806506.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
+          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1666,14 +1666,14 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1238805953.html</t>
+          <t>/news,002812,1238806454.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
+          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 16:14</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1238805146.html</t>
+          <t>/news,002812,1238806427.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
+          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 16:12</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1238804639.html</t>
+          <t>/news,002812,1238805953.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
+          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 16:02</t>
+          <t>10-25 16:14</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1238802882.html</t>
+          <t>/news,002812,1238805146.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 15:38</t>
+          <t>10-25 16:12</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1238795238.html</t>
+          <t>/news,002812,1238804639.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
+          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 13:56</t>
+          <t>10-25 16:02</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1238722975.html</t>
+          <t>/news,002812,1238802882.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 13:39</t>
+          <t>10-25 15:38</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1238707578.html</t>
+          <t>/news,002812,1238795238.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
+          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 13:56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1238458860.html</t>
+          <t>/news,002812,1238722975.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,39 +1907,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>恩捷股份10月24日被深股通减持39.44万股</t>
+          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 13:39</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1238448464.html</t>
+          <t>/news,002812,1238707578.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
+          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 00:19</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1238425939.html</t>
+          <t>/news,002812,1238458860.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恩捷股份前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份10月24日被深股通减持39.44万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-24 22:33</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1238407697.html</t>
+          <t>/news,002812,1238448464.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
+          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-24 22:20</t>
+          <t>10-25 00:19</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1238402873.html</t>
+          <t>/news,002812,1238425939.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
+          <t>恩捷股份前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-24 21:04</t>
+          <t>10-24 22:33</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1238376002.html</t>
+          <t>/news,002812,1238407697.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
+          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-24 20:51</t>
+          <t>10-24 22:20</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1238373563.html</t>
+          <t>/news,002812,1238402873.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-24 20:50</t>
+          <t>10-24 21:04</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1238372200.html</t>
+          <t>/news,002812,1238376002.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>517</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-24 20:48</t>
+          <t>10-24 20:51</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1238373053.html</t>
+          <t>/news,002812,1238373563.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>1448</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
+          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-24 20:44</t>
+          <t>10-24 20:50</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1238372589.html</t>
+          <t>/news,002812,1238372200.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,61 +2195,61 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-24 20:41</t>
+          <t>10-24 20:48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1238369774.html</t>
+          <t>/news,002812,1238373053.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-24 15:36</t>
+          <t>10-24 20:44</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1238284359.html</t>
+          <t>/news,002812,1238372589.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,61 +2259,61 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
+          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-24 09:02</t>
+          <t>10-24 20:41</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1237924671.html</t>
+          <t>/news,002812,1238369774.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-23 15:04</t>
+          <t>10-24 15:36</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1237863487.html</t>
+          <t>/news,002812,1238284359.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,61 +2323,61 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
+          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 09:02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1237860128.html</t>
+          <t>/news,002812,1237924671.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份10月21日被深股通减持92.73万股</t>
+          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-23 15:04</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1237797052.html</t>
+          <t>/news,002812,1237863487.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾16个月新低</t>
+          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-21 15:36</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1237686636.html</t>
+          <t>/news,002812,1237860128.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
+          <t>恩捷股份10月21日被深股通减持92.73万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-21 08:52</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1237356934.html</t>
+          <t>/news,002812,1237797052.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份10月20日被深股通减持301.75万股</t>
+          <t>恩捷股份股价连续2日创逾16个月新低</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-21 15:36</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1237346909.html</t>
+          <t>/news,002812,1237686636.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾16个月新低</t>
+          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-21 08:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1237206349.html</t>
+          <t>/news,002812,1237356934.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
+          <t>恩捷股份10月20日被深股通减持301.75万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-20 08:51</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1236896497.html</t>
+          <t>/news,002812,1237346909.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份10月19日获深股通增持31.88万股</t>
+          <t>恩捷股份股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-20 07:49</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1236888926.html</t>
+          <t>/news,002812,1237206349.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
+          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-19 18:00</t>
+          <t>10-20 08:51</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1236766194.html</t>
+          <t>/news,002812,1236896497.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2381.71万元，融资余额13.18亿元（10-18）</t>
+          <t>恩捷股份10月19日获深股通增持31.88万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 09:04</t>
+          <t>10-20 07:49</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1236449457.html</t>
+          <t>/news,002812,1236888926.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份10月18日获深股通增持28.36万股</t>
+          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-19 07:47</t>
+          <t>10-19 18:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1236439308.html</t>
+          <t>/news,002812,1236766194.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入9528.27万元，两市排名第11（10-17）</t>
+          <t>恩捷股份：融资净偿还2381.71万元，融资余额13.18亿元（10-18）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-18 08:56</t>
+          <t>10-19 09:04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1236049457.html</t>
+          <t>/news,002812,1236449457.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份10月17日被深股通减持125.6万股</t>
+          <t>恩捷股份10月18日获深股通增持28.36万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-18 07:50</t>
+          <t>10-19 07:47</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1236042211.html</t>
+          <t>/news,002812,1236439308.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3088.02万元，融资余额12.47亿元（10-14）</t>
+          <t>恩捷股份：融资净买入9528.27万元，两市排名第11（10-17）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,83 +2749,83 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-17 08:51</t>
+          <t>10-18 08:56</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1235652116.html</t>
+          <t>/news,002812,1236049457.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入1069.45万元，居电池板块第十二</t>
+          <t>恩捷股份10月17日被深股通减持125.6万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-18 07:50</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1235580167.html</t>
+          <t>/news,002812,1236042211.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.06亿元，周内减持市值两市排名第十</t>
+          <t>恩捷股份：融资净买入3088.02万元，融资余额12.47亿元（10-14）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-17 08:51</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1235575535.html</t>
+          <t>/news,002812,1235652116.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,71 +2835,71 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份10月14日被深股通减持128.34万股</t>
+          <t>恩捷股份本周融资净买入1069.45万元，居电池板块第十二</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1235512356.html</t>
+          <t>/news,002812,1235580167.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还756.5万元，融资余额12.16亿元（10-13）</t>
+          <t>恩捷股份本周被深股通减持6.06亿元，周内减持市值两市排名第十</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-14 08:46</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1235089655.html</t>
+          <t>/news,002812,1235575535.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份10月13日被深股通减持35.74万股</t>
+          <t>恩捷股份10月14日被深股通减持128.34万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,108 +2909,108 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-14 07:49</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1235082093.html</t>
+          <t>/news,002812,1235512356.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>恩捷股份：融资净偿还756.5万元，融资余额12.16亿元（10-13）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-13 16:48</t>
+          <t>10-14 08:46</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1234932330.html</t>
+          <t>/news,002812,1235089655.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华金证券维持恩捷股份买入评级 预计2022年净利润同比增长73.31%</t>
+          <t>恩捷股份10月13日被深股通减持35.74万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-13 16:32</t>
+          <t>10-14 07:49</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1234928944.html</t>
+          <t>/news,002812,1235082093.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>609</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华金证券给予恩捷股份买入评级 业绩符合预期 锂电隔膜量增利稳</t>
+          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-13 16:32</t>
+          <t>10-13 16:48</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1234929192.html</t>
+          <t>/news,002812,1234932330.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1321,7 +1321,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1385,7 +1385,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1481,7 +1481,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1993,7 +1993,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2057,7 +2057,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2089,7 +2089,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>517</t>
+          <t>518</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2153,7 +2153,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1448</t>
+          <t>1449</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2313,7 +2313,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
+          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 08:47</t>
+          <t>11-09 13:21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1243982722.html</t>
+          <t>/news,002812,1244648859.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份11月07日被深股通减持28.15万股</t>
+          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 07:57</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1243975913.html</t>
+          <t>/news,002812,1244438627.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
+          <t>恩捷股份11月08日被深股通减持47.92万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1243512204.html</t>
+          <t>/news,002812,1244425352.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
+          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 08:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1243410172.html</t>
+          <t>/news,002812,1243982722.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
+          <t>恩捷股份11月07日被深股通减持28.15万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-06 14:04</t>
+          <t>11-08 07:57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1243404380.html</t>
+          <t>/news,002812,1243975913.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
+          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,51 +637,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1242828085.html</t>
+          <t>/news,002812,1243512204.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份11月03日被深股通减持32.02万股</t>
+          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1242816837.html</t>
+          <t>/news,002812,1243410172.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
+          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-06 14:04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1242334166.html</t>
+          <t>/news,002812,1243404380.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份11月02日被深股通减持13.79万股</t>
+          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 07:46</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1242324363.html</t>
+          <t>/news,002812,1242828085.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
+          <t>恩捷股份11月03日被深股通减持32.02万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1241808977.html</t>
+          <t>/news,002812,1242816837.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份11月01日获深股通增持151.94万股</t>
+          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1241800478.html</t>
+          <t>/news,002812,1242334166.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
+          <t>恩捷股份11月02日被深股通减持13.79万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-01 08:56</t>
+          <t>11-03 07:46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1241305789.html</t>
+          <t>/news,002812,1242324363.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份10月31日获深股通增持31.47万股</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1241296330.html</t>
+          <t>/news,002812,1241808977.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
+          <t>恩捷股份11月01日获深股通增持151.94万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-31 15:53</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1241142162.html</t>
+          <t>/news,002812,1241800478.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创近1年半新低</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-31 15:37</t>
+          <t>11-01 08:56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1241137253.html</t>
+          <t>/news,002812,1241305789.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
+          <t>恩捷股份10月31日获深股通增持31.47万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-31 09:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1240799779.html</t>
+          <t>/news,002812,1241296330.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
+          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-30 15:06</t>
+          <t>10-31 15:53</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1240712387.html</t>
+          <t>/news,002812,1241142162.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
+          <t>恩捷股份股价连续3日创近1年半新低</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 15:37</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1240706325.html</t>
+          <t>/news,002812,1241137253.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份10月28日被深股通减持212.13万股</t>
+          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-31 09:06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1240600830.html</t>
+          <t>/news,002812,1240799779.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-28 15:37</t>
+          <t>10-30 15:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1240441086.html</t>
+          <t>/news,002812,1240712387.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
+          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-28 09:17</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1240064888.html</t>
+          <t>/news,002812,1240706325.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份10月27日获深股通增持70.47万股</t>
+          <t>恩捷股份10月28日被深股通减持212.13万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 07:52</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1240048276.html</t>
+          <t>/news,002812,1240600830.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,61 +1181,61 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-27 16:38</t>
+          <t>10-28 15:37</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1239877267.html</t>
+          <t>/news,002812,1240441086.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
+          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-27 11:41</t>
+          <t>10-28 09:17</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1239684583.html</t>
+          <t>/news,002812,1240064888.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
+          <t>恩捷股份10月27日获深股通增持70.47万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,61 +1245,61 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-28 07:52</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1239506812.html</t>
+          <t>/news,002812,1240048276.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份10月26日获深股通增持63.5万股</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-27 08:00</t>
+          <t>10-27 16:38</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1239499169.html</t>
+          <t>/news,002812,1239877267.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
+          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 21:20</t>
+          <t>10-27 11:41</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1239433633.html</t>
+          <t>/news,002812,1239684583.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
+          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 20:18</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1239425504.html</t>
+          <t>/news,002812,1239506812.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,39 +1363,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
+          <t>恩捷股份10月26日获深股通增持63.5万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 19:47</t>
+          <t>10-27 08:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1239404625.html</t>
+          <t>/news,002812,1239499169.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 18:41</t>
+          <t>10-26 21:20</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1239382483.html</t>
+          <t>/news,002812,1239433633.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
+          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 18:01</t>
+          <t>10-26 20:18</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1239370579.html</t>
+          <t>/news,002812,1239425504.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
+          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,61 +1469,61 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 17:54</t>
+          <t>10-26 19:47</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1239368070.html</t>
+          <t>/news,002812,1239404625.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
+          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 17:20</t>
+          <t>10-26 18:41</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1239358684.html</t>
+          <t>/news,002812,1239382483.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
+          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 08:52</t>
+          <t>10-26 18:01</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1238978757.html</t>
+          <t>/news,002812,1239370579.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恩捷股份10月25日获深股通增持111.11万股</t>
+          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 07:54</t>
+          <t>10-26 17:54</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1238969559.html</t>
+          <t>/news,002812,1239368070.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
+          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 17:05</t>
+          <t>10-26 17:20</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1238820247.html</t>
+          <t>/news,002812,1239358684.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 16:19</t>
+          <t>10-26 08:52</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1238806506.html</t>
+          <t>/news,002812,1238978757.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
+          <t>恩捷股份10月25日获深股通增持111.11万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-26 07:54</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1238806454.html</t>
+          <t>/news,002812,1238969559.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>678</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
+          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 17:05</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1238806427.html</t>
+          <t>/news,002812,1238820247.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
+          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:19</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1238805953.html</t>
+          <t>/news,002812,1238806506.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
+          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 16:14</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1238805146.html</t>
+          <t>/news,002812,1238806454.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
+          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 16:12</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1238804639.html</t>
+          <t>/news,002812,1238806427.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
+          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 16:02</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1238802882.html</t>
+          <t>/news,002812,1238805953.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,61 +1843,61 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 15:38</t>
+          <t>10-25 16:14</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1238795238.html</t>
+          <t>/news,002812,1238805146.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
+          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 13:56</t>
+          <t>10-25 16:12</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1238722975.html</t>
+          <t>/news,002812,1238804639.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
+          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 13:39</t>
+          <t>10-25 16:02</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1238707578.html</t>
+          <t>/news,002812,1238802882.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 15:38</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1238458860.html</t>
+          <t>/news,002812,1238795238.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恩捷股份10月24日被深股通减持39.44万股</t>
+          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 13:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1238448464.html</t>
+          <t>/news,002812,1238722975.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
+          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 00:19</t>
+          <t>10-25 13:39</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1238425939.html</t>
+          <t>/news,002812,1238707578.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-24 22:33</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1238407697.html</t>
+          <t>/news,002812,1238458860.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
+          <t>恩捷股份10月24日被深股通减持39.44万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-24 22:20</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1238402873.html</t>
+          <t>/news,002812,1238448464.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
+          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-24 21:04</t>
+          <t>10-25 00:19</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1238376002.html</t>
+          <t>/news,002812,1238425939.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
+          <t>恩捷股份前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-24 20:51</t>
+          <t>10-24 22:33</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1238373563.html</t>
+          <t>/news,002812,1238407697.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1449</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-24 20:50</t>
+          <t>10-24 22:20</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1238372200.html</t>
+          <t>/news,002812,1238402873.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-24 20:48</t>
+          <t>10-24 21:04</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1238373053.html</t>
+          <t>/news,002812,1238376002.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
+          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,83 +2237,83 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-24 20:44</t>
+          <t>10-24 20:51</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1238372589.html</t>
+          <t>/news,002812,1238373563.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-24 20:41</t>
+          <t>10-24 20:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1238369774.html</t>
+          <t>/news,002812,1238372200.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-24 15:36</t>
+          <t>10-24 20:48</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1238284359.html</t>
+          <t>/news,002812,1238373053.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
+          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-24 09:02</t>
+          <t>10-24 20:44</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1237924671.html</t>
+          <t>/news,002812,1238372589.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,71 +2355,71 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
+          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-23 15:04</t>
+          <t>10-24 20:41</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1237863487.html</t>
+          <t>/news,002812,1238369774.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 15:36</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1237860128.html</t>
+          <t>/news,002812,1238284359.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份10月21日被深股通减持92.73万股</t>
+          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-24 09:02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1237797052.html</t>
+          <t>/news,002812,1237924671.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾16个月新低</t>
+          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-21 15:36</t>
+          <t>10-23 15:04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1237686636.html</t>
+          <t>/news,002812,1237863487.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
+          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-21 08:52</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1237356934.html</t>
+          <t>/news,002812,1237860128.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份10月20日被深股通减持301.75万股</t>
+          <t>恩捷股份10月21日被深股通减持92.73万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1237346909.html</t>
+          <t>/news,002812,1237797052.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾16个月新低</t>
+          <t>恩捷股份股价连续2日创逾16个月新低</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-21 15:36</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1237206349.html</t>
+          <t>/news,002812,1237686636.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
+          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-20 08:51</t>
+          <t>10-21 08:52</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1236896497.html</t>
+          <t>/news,002812,1237356934.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份10月19日获深股通增持31.88万股</t>
+          <t>恩捷股份10月20日被深股通减持301.75万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-20 07:49</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1236888926.html</t>
+          <t>/news,002812,1237346909.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
+          <t>恩捷股份股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-19 18:00</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1236766194.html</t>
+          <t>/news,002812,1237206349.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2381.71万元，融资余额13.18亿元（10-18）</t>
+          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-19 09:04</t>
+          <t>10-20 08:51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1236449457.html</t>
+          <t>/news,002812,1236896497.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份10月18日获深股通增持28.36万股</t>
+          <t>恩捷股份10月19日获深股通增持31.88万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-19 07:47</t>
+          <t>10-20 07:49</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1236439308.html</t>
+          <t>/news,002812,1236888926.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>859</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入9528.27万元，两市排名第11（10-17）</t>
+          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-18 08:56</t>
+          <t>10-19 18:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1236049457.html</t>
+          <t>/news,002812,1236766194.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>恩捷股份10月17日被深股通减持125.6万股</t>
+          <t>恩捷股份：融资净偿还2381.71万元，融资余额13.18亿元（10-18）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-18 07:50</t>
+          <t>10-19 09:04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1236042211.html</t>
+          <t>/news,002812,1236449457.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3088.02万元，融资余额12.47亿元（10-14）</t>
+          <t>恩捷股份10月18日获深股通增持28.36万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,51 +2813,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-17 08:51</t>
+          <t>10-19 07:47</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1235652116.html</t>
+          <t>/news,002812,1236439308.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入1069.45万元，居电池板块第十二</t>
+          <t>恩捷股份：融资净买入9528.27万元，两市排名第11（10-17）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-18 08:56</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1235580167.html</t>
+          <t>/news,002812,1236049457.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.06亿元，周内减持市值两市排名第十</t>
+          <t>恩捷股份10月17日被深股通减持125.6万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-18 07:50</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1235575535.html</t>
+          <t>/news,002812,1236042211.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份10月14日被深股通减持128.34万股</t>
+          <t>恩捷股份：融资净买入3088.02万元，融资余额12.47亿元（10-14）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-17 08:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1235512356.html</t>
+          <t>/news,002812,1235652116.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,86 +2931,86 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还756.5万元，融资余额12.16亿元（10-13）</t>
+          <t>恩捷股份本周融资净买入1069.45万元，居电池板块第十二</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-14 08:46</t>
+          <t>10-16 15:05</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1235089655.html</t>
+          <t>/news,002812,1235580167.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份10月13日被深股通减持35.74万股</t>
+          <t>恩捷股份本周被深股通减持6.06亿元，周内减持市值两市排名第十</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-14 07:49</t>
+          <t>10-16 14:04</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1235082093.html</t>
+          <t>/news,002812,1235575535.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>609</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>恩捷股份10月14日被深股通减持128.34万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-13 16:48</t>
+          <t>10-15 07:56</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1234932330.html</t>
+          <t>/news,002812,1235512356.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-09 13:21</t>
+          <t>11-10 08:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1244648859.html</t>
+          <t>/news,002812,1244899043.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
+          <t>恩捷股份11月09日获深股通增持32.67万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1244438627.html</t>
+          <t>/news,002812,1244889957.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>861</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份11月08日被深股通减持47.92万股</t>
+          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-09 13:34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1244425352.html</t>
+          <t>/news,002812,1244659718.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
+          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-08 08:47</t>
+          <t>11-09 13:21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1243982722.html</t>
+          <t>/news,002812,1244648859.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份11月07日被深股通减持28.15万股</t>
+          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-08 07:57</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1243975913.html</t>
+          <t>/news,002812,1244438627.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
+          <t>恩捷股份11月08日被深股通减持47.92万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1243512204.html</t>
+          <t>/news,002812,1244425352.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
+          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 08:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1243410172.html</t>
+          <t>/news,002812,1243982722.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
+          <t>恩捷股份11月07日被深股通减持28.15万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-06 14:04</t>
+          <t>11-08 07:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1243404380.html</t>
+          <t>/news,002812,1243975913.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
+          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,51 +733,51 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1242828085.html</t>
+          <t>/news,002812,1243512204.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份11月03日被深股通减持32.02万股</t>
+          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1242816837.html</t>
+          <t>/news,002812,1243410172.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
+          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-06 14:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1242334166.html</t>
+          <t>/news,002812,1243404380.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份11月02日被深股通减持13.79万股</t>
+          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 07:46</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1242324363.html</t>
+          <t>/news,002812,1242828085.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
+          <t>恩捷股份11月03日被深股通减持32.02万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1241808977.html</t>
+          <t>/news,002812,1242816837.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份11月01日获深股通增持151.94万股</t>
+          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1241800478.html</t>
+          <t>/news,002812,1242334166.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
+          <t>恩捷股份11月02日被深股通减持13.79万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-01 08:56</t>
+          <t>11-03 07:46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1241305789.html</t>
+          <t>/news,002812,1242324363.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份10月31日获深股通增持31.47万股</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1241296330.html</t>
+          <t>/news,002812,1241808977.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
+          <t>恩捷股份11月01日获深股通增持151.94万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-31 15:53</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1241142162.html</t>
+          <t>/news,002812,1241800478.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创近1年半新低</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-31 15:37</t>
+          <t>11-01 08:56</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1241137253.html</t>
+          <t>/news,002812,1241305789.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
+          <t>恩捷股份10月31日获深股通增持31.47万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-31 09:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1240799779.html</t>
+          <t>/news,002812,1241296330.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
+          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-30 15:06</t>
+          <t>10-31 15:53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1240712387.html</t>
+          <t>/news,002812,1241142162.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
+          <t>恩捷股份股价连续3日创近1年半新低</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 15:37</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1240706325.html</t>
+          <t>/news,002812,1241137253.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份10月28日被深股通减持212.13万股</t>
+          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-31 09:06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1240600830.html</t>
+          <t>/news,002812,1240799779.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 15:37</t>
+          <t>10-30 15:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1240441086.html</t>
+          <t>/news,002812,1240712387.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,39 +1203,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
+          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 09:17</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1240064888.html</t>
+          <t>/news,002812,1240706325.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恩捷股份10月27日获深股通增持70.47万股</t>
+          <t>恩捷股份10月28日被深股通减持212.13万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 07:52</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1240048276.html</t>
+          <t>/news,002812,1240600830.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,61 +1277,61 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-27 16:38</t>
+          <t>10-28 15:37</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1239877267.html</t>
+          <t>/news,002812,1240441086.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
+          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-27 11:41</t>
+          <t>10-28 09:17</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1239684583.html</t>
+          <t>/news,002812,1240064888.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
+          <t>恩捷股份10月27日获深股通增持70.47万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,61 +1341,61 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-28 07:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1239506812.html</t>
+          <t>/news,002812,1240048276.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份10月26日获深股通增持63.5万股</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-27 08:00</t>
+          <t>10-27 16:38</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1239499169.html</t>
+          <t>/news,002812,1239877267.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
+          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 21:20</t>
+          <t>10-27 11:41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1239433633.html</t>
+          <t>/news,002812,1239684583.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
+          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 20:18</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1239425504.html</t>
+          <t>/news,002812,1239506812.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
+          <t>恩捷股份10月26日获深股通增持63.5万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 19:47</t>
+          <t>10-27 08:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1239404625.html</t>
+          <t>/news,002812,1239499169.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 18:41</t>
+          <t>10-26 21:20</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1239382483.html</t>
+          <t>/news,002812,1239433633.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
+          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 18:01</t>
+          <t>10-26 20:18</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1239370579.html</t>
+          <t>/news,002812,1239425504.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
+          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 17:54</t>
+          <t>10-26 19:47</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1239368070.html</t>
+          <t>/news,002812,1239404625.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
+          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 17:20</t>
+          <t>10-26 18:41</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1239358684.html</t>
+          <t>/news,002812,1239382483.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
+          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 08:52</t>
+          <t>10-26 18:01</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1238978757.html</t>
+          <t>/news,002812,1239370579.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>恩捷股份10月25日获深股通增持111.11万股</t>
+          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 07:54</t>
+          <t>10-26 17:54</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1238969559.html</t>
+          <t>/news,002812,1239368070.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
+          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 17:05</t>
+          <t>10-26 17:20</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1238820247.html</t>
+          <t>/news,002812,1239358684.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 16:19</t>
+          <t>10-26 08:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1238806506.html</t>
+          <t>/news,002812,1238978757.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
+          <t>恩捷股份10月25日获深股通增持111.11万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-26 07:54</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1238806454.html</t>
+          <t>/news,002812,1238969559.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>679</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
+          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 17:05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1238806427.html</t>
+          <t>/news,002812,1238820247.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
+          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,51 +1821,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:19</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1238805953.html</t>
+          <t>/news,002812,1238806506.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
+          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 16:14</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1238805146.html</t>
+          <t>/news,002812,1238806454.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
+          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 16:12</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1238804639.html</t>
+          <t>/news,002812,1238806427.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
+          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 16:02</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1238802882.html</t>
+          <t>/news,002812,1238805953.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,61 +1939,61 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 15:38</t>
+          <t>10-25 16:14</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1238795238.html</t>
+          <t>/news,002812,1238805146.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
+          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 13:56</t>
+          <t>10-25 16:12</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1238722975.html</t>
+          <t>/news,002812,1238804639.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
+          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 13:39</t>
+          <t>10-25 16:02</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1238707578.html</t>
+          <t>/news,002812,1238802882.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 15:38</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1238458860.html</t>
+          <t>/news,002812,1238795238.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>恩捷股份10月24日被深股通减持39.44万股</t>
+          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 13:56</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1238448464.html</t>
+          <t>/news,002812,1238722975.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
+          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 00:19</t>
+          <t>10-25 13:39</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1238425939.html</t>
+          <t>/news,002812,1238707578.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>恩捷股份前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-24 22:33</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1238407697.html</t>
+          <t>/news,002812,1238458860.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
+          <t>恩捷股份10月24日被深股通减持39.44万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-24 22:20</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1238402873.html</t>
+          <t>/news,002812,1238448464.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>684</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
+          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-24 21:04</t>
+          <t>10-25 00:19</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1238376002.html</t>
+          <t>/news,002812,1238425939.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>470</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
+          <t>恩捷股份前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-24 20:51</t>
+          <t>10-24 22:33</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1238373563.html</t>
+          <t>/news,002812,1238407697.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-24 20:50</t>
+          <t>10-24 22:20</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1238372200.html</t>
+          <t>/news,002812,1238402873.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-24 20:48</t>
+          <t>10-24 21:04</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1238373053.html</t>
+          <t>/news,002812,1238376002.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
+          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,83 +2333,83 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-24 20:44</t>
+          <t>10-24 20:51</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1238372589.html</t>
+          <t>/news,002812,1238373563.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-24 20:41</t>
+          <t>10-24 20:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1238369774.html</t>
+          <t>/news,002812,1238372200.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-24 15:36</t>
+          <t>10-24 20:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1238284359.html</t>
+          <t>/news,002812,1238373053.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
+          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-24 09:02</t>
+          <t>10-24 20:44</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1237924671.html</t>
+          <t>/news,002812,1238372589.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,71 +2451,71 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
+          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-23 15:04</t>
+          <t>10-24 20:41</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1237863487.html</t>
+          <t>/news,002812,1238369774.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 15:36</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1237860128.html</t>
+          <t>/news,002812,1238284359.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份10月21日被深股通减持92.73万股</t>
+          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-24 09:02</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1237797052.html</t>
+          <t>/news,002812,1237924671.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾16个月新低</t>
+          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-21 15:36</t>
+          <t>10-23 15:04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1237686636.html</t>
+          <t>/news,002812,1237863487.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,39 +2579,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
+          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-21 08:52</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1237356934.html</t>
+          <t>/news,002812,1237860128.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份10月20日被深股通减持301.75万股</t>
+          <t>恩捷股份10月21日被深股通减持92.73万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1237346909.html</t>
+          <t>/news,002812,1237797052.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾16个月新低</t>
+          <t>恩捷股份股价连续2日创逾16个月新低</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-21 15:36</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1237206349.html</t>
+          <t>/news,002812,1237686636.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
+          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-20 08:51</t>
+          <t>10-21 08:52</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1236896497.html</t>
+          <t>/news,002812,1237356934.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份10月19日获深股通增持31.88万股</t>
+          <t>恩捷股份10月20日被深股通减持301.75万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-20 07:49</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1236888926.html</t>
+          <t>/news,002812,1237346909.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
+          <t>恩捷股份股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-19 18:00</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1236766194.html</t>
+          <t>/news,002812,1237206349.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2381.71万元，融资余额13.18亿元（10-18）</t>
+          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-19 09:04</t>
+          <t>10-20 08:51</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1236449457.html</t>
+          <t>/news,002812,1236896497.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份10月18日获深股通增持28.36万股</t>
+          <t>恩捷股份10月19日获深股通增持31.88万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-19 07:47</t>
+          <t>10-20 07:49</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1236439308.html</t>
+          <t>/news,002812,1236888926.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>860</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入9528.27万元，两市排名第11（10-17）</t>
+          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-18 08:56</t>
+          <t>10-19 18:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1236049457.html</t>
+          <t>/news,002812,1236766194.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份10月17日被深股通减持125.6万股</t>
+          <t>恩捷股份：融资净偿还2381.71万元，融资余额13.18亿元（10-18）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-18 07:50</t>
+          <t>10-19 09:04</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1236042211.html</t>
+          <t>/news,002812,1236449457.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3088.02万元，融资余额12.47亿元（10-14）</t>
+          <t>恩捷股份10月18日获深股通增持28.36万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-17 08:51</t>
+          <t>10-19 07:47</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1235652116.html</t>
+          <t>/news,002812,1236439308.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入1069.45万元，居电池板块第十二</t>
+          <t>恩捷股份：融资净买入9528.27万元，两市排名第11（10-17）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-16 15:05</t>
+          <t>10-18 08:56</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1235580167.html</t>
+          <t>/news,002812,1236049457.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.06亿元，周内减持市值两市排名第十</t>
+          <t>恩捷股份10月17日被深股通减持125.6万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-16 14:04</t>
+          <t>10-18 07:50</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1235575535.html</t>
+          <t>/news,002812,1236042211.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>恩捷股份10月14日被深股通减持128.34万股</t>
+          <t>恩捷股份：融资净买入3088.02万元，融资余额12.47亿元（10-14）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-15 07:56</t>
+          <t>10-17 08:51</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1235512356.html</t>
+          <t>/news,002812,1235652116.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
+          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-10 08:46</t>
+          <t>11-11 08:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1244899043.html</t>
+          <t>/news,002812,1245424052.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>430</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份11月09日获深股通增持32.67万股</t>
+          <t>大宗交易：恩捷股份成交4999.32万元，折价0.52%（11-10）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1244889957.html</t>
+          <t>/news,002812,1245274839.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
+          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 13:34</t>
+          <t>11-10 08:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1244659718.html</t>
+          <t>/news,002812,1244899043.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,39 +563,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份11月09日获深股通增持32.67万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-09 13:21</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1244648859.html</t>
+          <t>/news,002812,1244889957.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>937</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
+          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-09 13:34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1244438627.html</t>
+          <t>/news,002812,1244659718.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份11月08日被深股通减持47.92万股</t>
+          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-09 13:21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1244425352.html</t>
+          <t>/news,002812,1244648859.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
+          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-08 08:47</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1243982722.html</t>
+          <t>/news,002812,1244438627.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份11月07日被深股通减持28.15万股</t>
+          <t>恩捷股份11月08日被深股通减持47.92万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-08 07:57</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1243975913.html</t>
+          <t>/news,002812,1244425352.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
+          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 08:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1243512204.html</t>
+          <t>/news,002812,1243982722.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
+          <t>恩捷股份11月07日被深股通减持28.15万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1243410172.html</t>
+          <t>/news,002812,1243975913.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
+          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-06 14:04</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1243404380.html</t>
+          <t>/news,002812,1243512204.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,61 +819,61 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
+          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1242828085.html</t>
+          <t>/news,002812,1243410172.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份11月03日被深股通减持32.02万股</t>
+          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 14:04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1242816837.html</t>
+          <t>/news,002812,1243404380.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
+          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1242334166.html</t>
+          <t>/news,002812,1242828085.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份11月02日被深股通减持13.79万股</t>
+          <t>恩捷股份11月03日被深股通减持32.02万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 07:46</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1242324363.html</t>
+          <t>/news,002812,1242816837.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
+          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1241808977.html</t>
+          <t>/news,002812,1242334166.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份11月01日获深股通增持151.94万股</t>
+          <t>恩捷股份11月02日被深股通减持13.79万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-03 07:46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1241800478.html</t>
+          <t>/news,002812,1242324363.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 08:56</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1241305789.html</t>
+          <t>/news,002812,1241808977.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份10月31日获深股通增持31.47万股</t>
+          <t>恩捷股份11月01日获深股通增持151.94万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1241296330.html</t>
+          <t>/news,002812,1241800478.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 15:53</t>
+          <t>11-01 08:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1241142162.html</t>
+          <t>/news,002812,1241305789.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创近1年半新低</t>
+          <t>恩捷股份10月31日获深股通增持31.47万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 15:37</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1241137253.html</t>
+          <t>/news,002812,1241296330.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
+          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-31 09:06</t>
+          <t>10-31 15:53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1240799779.html</t>
+          <t>/news,002812,1241142162.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
+          <t>恩捷股份股价连续3日创近1年半新低</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-30 15:06</t>
+          <t>10-31 15:37</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1240712387.html</t>
+          <t>/news,002812,1241137253.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
+          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 09:06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1240706325.html</t>
+          <t>/news,002812,1240799779.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恩捷股份10月28日被深股通减持212.13万股</t>
+          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 15:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1240600830.html</t>
+          <t>/news,002812,1240712387.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 15:37</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1240441086.html</t>
+          <t>/news,002812,1240706325.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
+          <t>恩捷股份10月28日被深股通减持212.13万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,179 +1309,179 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 09:17</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1240064888.html</t>
+          <t>/news,002812,1240600830.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份10月27日获深股通增持70.47万股</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 07:52</t>
+          <t>10-28 15:37</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1240048276.html</t>
+          <t>/news,002812,1240441086.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-27 16:38</t>
+          <t>10-28 09:17</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1239877267.html</t>
+          <t>/news,002812,1240064888.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
+          <t>恩捷股份10月27日获深股通增持70.47万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-27 11:41</t>
+          <t>10-28 07:52</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1239684583.html</t>
+          <t>/news,002812,1240048276.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-27 16:38</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1239506812.html</t>
+          <t>/news,002812,1239877267.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恩捷股份10月26日获深股通增持63.5万股</t>
+          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-27 08:00</t>
+          <t>10-27 11:41</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1239499169.html</t>
+          <t>/news,002812,1239684583.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,39 +1491,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
+          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 21:20</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1239433633.html</t>
+          <t>/news,002812,1239506812.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
+          <t>恩捷股份10月26日获深股通增持63.5万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 20:18</t>
+          <t>10-27 08:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1239425504.html</t>
+          <t>/news,002812,1239499169.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
+          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,93 +1565,93 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 19:47</t>
+          <t>10-26 21:20</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1239404625.html</t>
+          <t>/news,002812,1239433633.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 18:41</t>
+          <t>10-26 20:18</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1239382483.html</t>
+          <t>/news,002812,1239425504.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
+          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 18:01</t>
+          <t>10-26 19:47</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1239370579.html</t>
+          <t>/news,002812,1239404625.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
+          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 17:54</t>
+          <t>10-26 18:41</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1239368070.html</t>
+          <t>/news,002812,1239382483.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
+          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 17:20</t>
+          <t>10-26 18:01</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1239358684.html</t>
+          <t>/news,002812,1239370579.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
+          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 08:52</t>
+          <t>10-26 17:54</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1238978757.html</t>
+          <t>/news,002812,1239368070.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>恩捷股份10月25日获深股通增持111.11万股</t>
+          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 07:54</t>
+          <t>10-26 17:20</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1238969559.html</t>
+          <t>/news,002812,1239358684.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
+          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 17:05</t>
+          <t>10-26 08:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1238820247.html</t>
+          <t>/news,002812,1238978757.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,39 +1811,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份10月25日获深股通增持111.11万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 16:19</t>
+          <t>10-26 07:54</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1238806506.html</t>
+          <t>/news,002812,1238969559.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>680</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
+          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 17:05</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1238806454.html</t>
+          <t>/news,002812,1238820247.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,44 +1875,44 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
+          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:19</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1238806427.html</t>
+          <t>/news,002812,1238806506.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
+          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1922,14 +1922,14 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1238805953.html</t>
+          <t>/news,002812,1238806454.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
+          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 16:14</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1238805146.html</t>
+          <t>/news,002812,1238806427.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
+          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 16:12</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1238804639.html</t>
+          <t>/news,002812,1238805953.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
+          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 16:02</t>
+          <t>10-25 16:14</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1238802882.html</t>
+          <t>/news,002812,1238805146.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 15:38</t>
+          <t>10-25 16:12</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1238795238.html</t>
+          <t>/news,002812,1238804639.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
+          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 13:56</t>
+          <t>10-25 16:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1238722975.html</t>
+          <t>/news,002812,1238802882.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 13:39</t>
+          <t>10-25 15:38</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1238707578.html</t>
+          <t>/news,002812,1238795238.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
+          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 13:56</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1238458860.html</t>
+          <t>/news,002812,1238722975.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,39 +2163,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>恩捷股份10月24日被深股通减持39.44万股</t>
+          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 13:39</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1238448464.html</t>
+          <t>/news,002812,1238707578.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
+          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 00:19</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1238425939.html</t>
+          <t>/news,002812,1238458860.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份10月24日被深股通减持39.44万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-24 22:33</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1238407697.html</t>
+          <t>/news,002812,1238448464.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
+          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-24 22:20</t>
+          <t>10-25 00:19</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1238402873.html</t>
+          <t>/news,002812,1238425939.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
+          <t>恩捷股份前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-24 21:04</t>
+          <t>10-24 22:33</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1238376002.html</t>
+          <t>/news,002812,1238407697.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
+          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-24 20:51</t>
+          <t>10-24 22:20</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1238373563.html</t>
+          <t>/news,002812,1238402873.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-24 20:50</t>
+          <t>10-24 21:04</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1238372200.html</t>
+          <t>/news,002812,1238376002.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-24 20:48</t>
+          <t>10-24 20:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1238373053.html</t>
+          <t>/news,002812,1238373563.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
+          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-24 20:44</t>
+          <t>10-24 20:50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1238372589.html</t>
+          <t>/news,002812,1238372200.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,61 +2451,61 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-24 20:41</t>
+          <t>10-24 20:48</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1238369774.html</t>
+          <t>/news,002812,1238373053.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-24 15:36</t>
+          <t>10-24 20:44</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1238284359.html</t>
+          <t>/news,002812,1238372589.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,61 +2515,61 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
+          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-24 09:02</t>
+          <t>10-24 20:41</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1237924671.html</t>
+          <t>/news,002812,1238369774.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-23 15:04</t>
+          <t>10-24 15:36</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1237863487.html</t>
+          <t>/news,002812,1238284359.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,61 +2579,61 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
+          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 09:02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1237860128.html</t>
+          <t>/news,002812,1237924671.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份10月21日被深股通减持92.73万股</t>
+          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-23 15:04</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1237797052.html</t>
+          <t>/news,002812,1237863487.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,39 +2643,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾16个月新低</t>
+          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-21 15:36</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1237686636.html</t>
+          <t>/news,002812,1237860128.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
+          <t>恩捷股份10月21日被深股通减持92.73万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,51 +2685,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-21 08:52</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1237356934.html</t>
+          <t>/news,002812,1237797052.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份10月20日被深股通减持301.75万股</t>
+          <t>恩捷股份股价连续2日创逾16个月新低</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-21 15:36</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1237346909.html</t>
+          <t>/news,002812,1237686636.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,39 +2739,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾16个月新低</t>
+          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-21 08:52</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1237206349.html</t>
+          <t>/news,002812,1237356934.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
+          <t>恩捷股份10月20日被深股通减持301.75万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-20 08:51</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1236896497.html</t>
+          <t>/news,002812,1237346909.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份10月19日获深股通增持31.88万股</t>
+          <t>恩捷股份股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-20 07:49</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1236888926.html</t>
+          <t>/news,002812,1237206349.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
+          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-19 18:00</t>
+          <t>10-20 08:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1236766194.html</t>
+          <t>/news,002812,1236896497.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2381.71万元，融资余额13.18亿元（10-18）</t>
+          <t>恩捷股份10月19日获深股通增持31.88万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-19 09:04</t>
+          <t>10-20 07:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1236449457.html</t>
+          <t>/news,002812,1236888926.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>862</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份10月18日获深股通增持28.36万股</t>
+          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-19 07:47</t>
+          <t>10-19 18:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1236439308.html</t>
+          <t>/news,002812,1236766194.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入9528.27万元，两市排名第11（10-17）</t>
+          <t>恩捷股份：融资净偿还2381.71万元，融资余额13.18亿元（10-18）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-18 08:56</t>
+          <t>10-19 09:04</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1236049457.html</t>
+          <t>/news,002812,1236449457.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份10月17日被深股通减持125.6万股</t>
+          <t>恩捷股份10月18日获深股通增持28.36万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-18 07:50</t>
+          <t>10-19 07:47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1236042211.html</t>
+          <t>/news,002812,1236439308.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3088.02万元，融资余额12.47亿元（10-14）</t>
+          <t>恩捷股份：融资净买入9528.27万元，两市排名第11（10-17）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-17 08:51</t>
+          <t>10-18 08:56</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1235652116.html</t>
+          <t>/news,002812,1236049457.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
+          <t>恩捷股份：连续4日融资净偿还累计4745.15万元（11-11）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-11 08:48</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1245424052.html</t>
+          <t>/news,002812,1246196418.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交4999.32万元，折价0.52%（11-10）</t>
+          <t>恩捷股份本周融资净偿还679.95万元，居电池板块第十一</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-13 15:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1245274839.html</t>
+          <t>/news,002812,1246099153.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
+          <t>恩捷股份本周深股通持股市值减少5471.57万元，居电池板块第十</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-10 08:46</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1244899043.html</t>
+          <t>/news,002812,1246094554.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份11月09日获深股通增持32.67万股</t>
+          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-11 08:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1244889957.html</t>
+          <t>/news,002812,1245424052.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
+          <t>大宗交易：恩捷股份成交4999.32万元，折价0.52%（11-10）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-09 13:34</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1244659718.html</t>
+          <t>/news,002812,1245274839.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-09 13:21</t>
+          <t>11-10 08:46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1244648859.html</t>
+          <t>/news,002812,1244899043.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
+          <t>恩捷股份11月09日获深股通增持32.67万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1244438627.html</t>
+          <t>/news,002812,1244889957.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>980</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份11月08日被深股通减持47.92万股</t>
+          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-09 13:34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1244425352.html</t>
+          <t>/news,002812,1244659718.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
+          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-08 08:47</t>
+          <t>11-09 13:21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1243982722.html</t>
+          <t>/news,002812,1244648859.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份11月07日被深股通减持28.15万股</t>
+          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-08 07:57</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1243975913.html</t>
+          <t>/news,002812,1244438627.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
+          <t>恩捷股份11月08日被深股通减持47.92万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1243512204.html</t>
+          <t>/news,002812,1244425352.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
+          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 08:47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1243410172.html</t>
+          <t>/news,002812,1243982722.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
+          <t>恩捷股份11月07日被深股通减持28.15万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-06 14:04</t>
+          <t>11-08 07:57</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1243404380.html</t>
+          <t>/news,002812,1243975913.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
+          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,51 +893,51 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1242828085.html</t>
+          <t>/news,002812,1243512204.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份11月03日被深股通减持32.02万股</t>
+          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1242816837.html</t>
+          <t>/news,002812,1243410172.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
+          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-06 14:04</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1242334166.html</t>
+          <t>/news,002812,1243404380.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份11月02日被深股通减持13.79万股</t>
+          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 07:46</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1242324363.html</t>
+          <t>/news,002812,1242828085.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
+          <t>恩捷股份11月03日被深股通减持32.02万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1241808977.html</t>
+          <t>/news,002812,1242816837.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份11月01日获深股通增持151.94万股</t>
+          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1241800478.html</t>
+          <t>/news,002812,1242334166.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
+          <t>恩捷股份11月02日被深股通减持13.79万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 08:56</t>
+          <t>11-03 07:46</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1241305789.html</t>
+          <t>/news,002812,1242324363.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份10月31日获深股通增持31.47万股</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1241296330.html</t>
+          <t>/news,002812,1241808977.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
+          <t>恩捷股份11月01日获深股通增持151.94万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-31 15:53</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1241142162.html</t>
+          <t>/news,002812,1241800478.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创近1年半新低</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 15:37</t>
+          <t>11-01 08:56</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1241137253.html</t>
+          <t>/news,002812,1241305789.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
+          <t>恩捷股份10月31日获深股通增持31.47万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-31 09:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1240799779.html</t>
+          <t>/news,002812,1241296330.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
+          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-30 15:06</t>
+          <t>10-31 15:53</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1240712387.html</t>
+          <t>/news,002812,1241142162.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
+          <t>恩捷股份股价连续3日创近1年半新低</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 15:37</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1240706325.html</t>
+          <t>/news,002812,1241137253.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恩捷股份10月28日被深股通减持212.13万股</t>
+          <t>恩捷股份：融资净偿还5281.78万元，融资</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-31 09:06</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1240600830.html</t>
+          <t>/news,002812,1240799779.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 15:37</t>
+          <t>10-30 15:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1240441086.html</t>
+          <t>/news,002812,1240712387.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,39 +1363,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
+          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 09:17</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1240064888.html</t>
+          <t>/news,002812,1240706325.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>恩捷股份10月27日获深股通增持70.47万股</t>
+          <t>恩捷股份10月28日被深股通减持212.13万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 07:52</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1240048276.html</t>
+          <t>/news,002812,1240600830.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,61 +1437,61 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-27 16:38</t>
+          <t>10-28 15:37</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1239877267.html</t>
+          <t>/news,002812,1240441086.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
+          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-27 11:41</t>
+          <t>10-28 09:17</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1239684583.html</t>
+          <t>/news,002812,1240064888.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
+          <t>恩捷股份10月27日获深股通增持70.47万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,61 +1501,61 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-28 07:52</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1239506812.html</t>
+          <t>/news,002812,1240048276.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份10月26日获深股通增持63.5万股</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-27 08:00</t>
+          <t>10-27 16:38</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1239499169.html</t>
+          <t>/news,002812,1239877267.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
+          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 21:20</t>
+          <t>10-27 11:41</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1239433633.html</t>
+          <t>/news,002812,1239684583.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
+          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 20:18</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1239425504.html</t>
+          <t>/news,002812,1239506812.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
+          <t>恩捷股份10月26日获深股通增持63.5万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 19:47</t>
+          <t>10-27 08:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1239404625.html</t>
+          <t>/news,002812,1239499169.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 18:41</t>
+          <t>10-26 21:20</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1239382483.html</t>
+          <t>/news,002812,1239433633.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>504</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
+          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 18:01</t>
+          <t>10-26 20:18</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1239370579.html</t>
+          <t>/news,002812,1239425504.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
+          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,61 +1725,61 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 17:54</t>
+          <t>10-26 19:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1239368070.html</t>
+          <t>/news,002812,1239404625.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
+          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 17:20</t>
+          <t>10-26 18:41</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1239358684.html</t>
+          <t>/news,002812,1239382483.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
+          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 08:52</t>
+          <t>10-26 18:01</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1238978757.html</t>
+          <t>/news,002812,1239370579.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,39 +1811,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>恩捷股份10月25日获深股通增持111.11万股</t>
+          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 07:54</t>
+          <t>10-26 17:54</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1238969559.html</t>
+          <t>/news,002812,1239368070.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
+          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 17:05</t>
+          <t>10-26 17:20</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1238820247.html</t>
+          <t>/news,002812,1239358684.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 16:19</t>
+          <t>10-26 08:52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1238806506.html</t>
+          <t>/news,002812,1238978757.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
+          <t>恩捷股份10月25日获深股通增持111.11万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-26 07:54</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1238806454.html</t>
+          <t>/news,002812,1238969559.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
+          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 17:05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1238806427.html</t>
+          <t>/news,002812,1238820247.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
+          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:19</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1238805953.html</t>
+          <t>/news,002812,1238806506.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
+          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 16:14</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1238805146.html</t>
+          <t>/news,002812,1238806454.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
+          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 16:12</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1238804639.html</t>
+          <t>/news,002812,1238806427.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
+          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 16:02</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1238802882.html</t>
+          <t>/news,002812,1238805953.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,61 +2099,61 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 15:38</t>
+          <t>10-25 16:14</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1238795238.html</t>
+          <t>/news,002812,1238805146.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
+          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 13:56</t>
+          <t>10-25 16:12</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1238722975.html</t>
+          <t>/news,002812,1238804639.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
+          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 13:39</t>
+          <t>10-25 16:02</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1238707578.html</t>
+          <t>/news,002812,1238802882.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 15:38</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1238458860.html</t>
+          <t>/news,002812,1238795238.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份10月24日被深股通减持39.44万股</t>
+          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 13:56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1238448464.html</t>
+          <t>/news,002812,1238722975.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
+          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 00:19</t>
+          <t>10-25 13:39</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1238425939.html</t>
+          <t>/news,002812,1238707578.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-24 22:33</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1238407697.html</t>
+          <t>/news,002812,1238458860.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
+          <t>恩捷股份10月24日被深股通减持39.44万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-24 22:20</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1238402873.html</t>
+          <t>/news,002812,1238448464.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
+          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-24 21:04</t>
+          <t>10-25 00:19</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1238376002.html</t>
+          <t>/news,002812,1238425939.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
+          <t>恩捷股份前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-24 20:51</t>
+          <t>10-24 22:33</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1238373563.html</t>
+          <t>/news,002812,1238407697.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-24 20:50</t>
+          <t>10-24 22:20</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1238372200.html</t>
+          <t>/news,002812,1238402873.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-24 20:48</t>
+          <t>10-24 21:04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1238373053.html</t>
+          <t>/news,002812,1238376002.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
+          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,83 +2493,83 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-24 20:44</t>
+          <t>10-24 20:51</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1238372589.html</t>
+          <t>/news,002812,1238373563.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>1453</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-24 20:41</t>
+          <t>10-24 20:50</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1238369774.html</t>
+          <t>/news,002812,1238372200.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-24 15:36</t>
+          <t>10-24 20:48</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1238284359.html</t>
+          <t>/news,002812,1238373053.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
+          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-24 09:02</t>
+          <t>10-24 20:44</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1237924671.html</t>
+          <t>/news,002812,1238372589.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,22 +2611,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
+          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-23 15:04</t>
+          <t>10-24 20:41</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1237863487.html</t>
+          <t>/news,002812,1238369774.html</t>
         </is>
       </c>
     </row>
@@ -2638,44 +2638,44 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 15:36</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1237860128.html</t>
+          <t>/news,002812,1238284359.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份10月21日被深股通减持92.73万股</t>
+          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-24 09:02</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1237797052.html</t>
+          <t>/news,002812,1237924671.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾16个月新低</t>
+          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-21 15:36</t>
+          <t>10-23 15:04</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1237686636.html</t>
+          <t>/news,002812,1237863487.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,39 +2739,39 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
+          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-21 08:52</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1237356934.html</t>
+          <t>/news,002812,1237860128.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>恩捷股份10月20日被深股通减持301.75万股</t>
+          <t>恩捷股份10月21日被深股通减持92.73万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1237346909.html</t>
+          <t>/news,002812,1237797052.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾16个月新低</t>
+          <t>恩捷股份股价连续2日创逾16个月新低</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-21 15:36</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1237206349.html</t>
+          <t>/news,002812,1237686636.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
+          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-20 08:51</t>
+          <t>10-21 08:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1236896497.html</t>
+          <t>/news,002812,1237356934.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份10月19日获深股通增持31.88万股</t>
+          <t>恩捷股份10月20日被深股通减持301.75万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-20 07:49</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1236888926.html</t>
+          <t>/news,002812,1237346909.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
+          <t>恩捷股份股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-19 18:00</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1236766194.html</t>
+          <t>/news,002812,1237206349.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2381.71万元，融资余额13.18亿元（10-18）</t>
+          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-19 09:04</t>
+          <t>10-20 08:51</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1236449457.html</t>
+          <t>/news,002812,1236896497.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份10月18日获深股通增持28.36万股</t>
+          <t>恩捷股份10月19日获深股通增持31.88万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-19 07:47</t>
+          <t>10-20 07:49</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1236439308.html</t>
+          <t>/news,002812,1236888926.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>863</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入9528.27万元，两市排名第11（10-17）</t>
+          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-18 08:56</t>
+          <t>10-19 18:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1236049457.html</t>
+          <t>/news,002812,1236766194.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计4745.15万元（11-11）</t>
+          <t>恩捷股份：融资净买入407.9万元，融资余额12.23亿元（11-14）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1246196418.html</t>
+          <t>/news,002812,1246697983.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,61 +499,61 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还679.95万元，居电池板块第十一</t>
+          <t>恩捷股份11月14日获深股通增持24.61万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-13 15:06</t>
+          <t>11-15 07:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1246099153.html</t>
+          <t>/news,002812,1246690852.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值减少5471.57万元，居电池板块第十</t>
+          <t>恩捷股份：连续4日融资净偿还累计4745.15万元（11-11）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1246094554.html</t>
+          <t>/news,002812,1246196418.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,61 +563,61 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
+          <t>恩捷股份本周融资净偿还679.95万元，居电池板块第十一</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-11 08:48</t>
+          <t>11-13 15:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1245424052.html</t>
+          <t>/news,002812,1246099153.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交4999.32万元，折价0.52%（11-10）</t>
+          <t>恩捷股份本周深股通持股市值减少5471.57万元，居电池板块第十</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1245274839.html</t>
+          <t>/news,002812,1246094554.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
+          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-10 08:46</t>
+          <t>11-11 08:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1244899043.html</t>
+          <t>/news,002812,1245424052.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>532</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份11月09日获深股通增持32.67万股</t>
+          <t>大宗交易：恩捷股份成交4999.32万元，折价0.52%（11-10）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1244889957.html</t>
+          <t>/news,002812,1245274839.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
+          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-09 13:34</t>
+          <t>11-10 08:46</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1244659718.html</t>
+          <t>/news,002812,1244899043.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份11月09日获深股通增持32.67万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-09 13:21</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1244648859.html</t>
+          <t>/news,002812,1244889957.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>1012</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
+          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-09 13:34</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1244438627.html</t>
+          <t>/news,002812,1244659718.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份11月08日被深股通减持47.92万股</t>
+          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-09 13:21</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1244425352.html</t>
+          <t>/news,002812,1244648859.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
+          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-08 08:47</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1243982722.html</t>
+          <t>/news,002812,1244438627.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份11月07日被深股通减持28.15万股</t>
+          <t>恩捷股份11月08日被深股通减持47.92万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-08 07:57</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1243975913.html</t>
+          <t>/news,002812,1244425352.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
+          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 08:47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1243512204.html</t>
+          <t>/news,002812,1243982722.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
+          <t>恩捷股份11月07日被深股通减持28.15万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:57</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1243410172.html</t>
+          <t>/news,002812,1243975913.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
+          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-06 14:04</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1243404380.html</t>
+          <t>/news,002812,1243512204.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,61 +979,61 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
+          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1242828085.html</t>
+          <t>/news,002812,1243410172.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份11月03日被深股通减持32.02万股</t>
+          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 14:04</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1242816837.html</t>
+          <t>/news,002812,1243404380.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
+          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1242334166.html</t>
+          <t>/news,002812,1242828085.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份11月02日被深股通减持13.79万股</t>
+          <t>恩捷股份11月03日被深股通减持32.02万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 07:46</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1242324363.html</t>
+          <t>/news,002812,1242816837.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
+          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1241808977.html</t>
+          <t>/news,002812,1242334166.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份11月01日获深股通增持151.94万股</t>
+          <t>恩捷股份11月02日被深股通减持13.79万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-03 07:46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1241800478.html</t>
+          <t>/news,002812,1242324363.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 08:56</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1241305789.html</t>
+          <t>/news,002812,1241808977.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份10月31日获深股通增持31.47万股</t>
+          <t>恩捷股份11月01日获深股通增持151.94万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1241296330.html</t>
+          <t>/news,002812,1241800478.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-31 15:53</t>
+          <t>11-01 08:56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1241142162.html</t>
+          <t>/news,002812,1241305789.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创近1年半新低</t>
+          <t>恩捷股份10月31日获深股通增持31.47万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 15:37</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1241137253.html</t>
+          <t>/news,002812,1241296330.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5281.78万元，融资</t>
+          <t>方正证券维持恩捷股份推荐评级 预</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 09:06</t>
+          <t>10-31 15:53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1240799779.html</t>
+          <t>/news,002812,1241142162.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
+          <t>恩捷股份股价连续3日创近1年半新低</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 15:06</t>
+          <t>10-31 15:37</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1240712387.html</t>
+          <t>/news,002812,1241137253.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
+          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 09:06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1240706325.html</t>
+          <t>/news,002812,1240799779.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>恩捷股份10月28日被深股通减持212.13万股</t>
+          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 15:06</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1240600830.html</t>
+          <t>/news,002812,1240712387.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 15:37</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1240441086.html</t>
+          <t>/news,002812,1240706325.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
+          <t>恩捷股份10月28日被深股通减持212.13万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,179 +1469,179 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 09:17</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1240064888.html</t>
+          <t>/news,002812,1240600830.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>恩捷股份10月27日获深股通增持70.47万股</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 07:52</t>
+          <t>10-28 15:37</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1240048276.html</t>
+          <t>/news,002812,1240441086.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-27 16:38</t>
+          <t>10-28 09:17</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1239877267.html</t>
+          <t>/news,002812,1240064888.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
+          <t>恩捷股份10月27日获深股通增持70.47万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-27 11:41</t>
+          <t>10-28 07:52</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1239684583.html</t>
+          <t>/news,002812,1240048276.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-27 16:38</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1239506812.html</t>
+          <t>/news,002812,1239877267.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>恩捷股份10月26日获深股通增持63.5万股</t>
+          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-27 08:00</t>
+          <t>10-27 11:41</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1239499169.html</t>
+          <t>/news,002812,1239684583.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
+          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 21:20</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1239433633.html</t>
+          <t>/news,002812,1239506812.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
+          <t>恩捷股份10月26日获深股通增持63.5万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 20:18</t>
+          <t>10-27 08:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1239425504.html</t>
+          <t>/news,002812,1239499169.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
+          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,93 +1725,93 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 19:47</t>
+          <t>10-26 21:20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1239404625.html</t>
+          <t>/news,002812,1239433633.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 18:41</t>
+          <t>10-26 20:18</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1239382483.html</t>
+          <t>/news,002812,1239425504.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
+          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 18:01</t>
+          <t>10-26 19:47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1239370579.html</t>
+          <t>/news,002812,1239404625.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
+          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 17:54</t>
+          <t>10-26 18:41</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1239368070.html</t>
+          <t>/news,002812,1239382483.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
+          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 17:20</t>
+          <t>10-26 18:01</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1239358684.html</t>
+          <t>/news,002812,1239370579.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
+          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-26 08:52</t>
+          <t>10-26 17:54</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1238978757.html</t>
+          <t>/news,002812,1239368070.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>恩捷股份10月25日获深股通增持111.11万股</t>
+          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 07:54</t>
+          <t>10-26 17:20</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1238969559.html</t>
+          <t>/news,002812,1239358684.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
+          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 17:05</t>
+          <t>10-26 08:52</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1238820247.html</t>
+          <t>/news,002812,1238978757.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,39 +1971,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份10月25日获深股通增持111.11万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 16:19</t>
+          <t>10-26 07:54</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1238806506.html</t>
+          <t>/news,002812,1238969559.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
+          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 17:05</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1238806454.html</t>
+          <t>/news,002812,1238820247.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,44 +2035,44 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
+          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:19</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1238806427.html</t>
+          <t>/news,002812,1238806506.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
+          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2082,14 +2082,14 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1238805953.html</t>
+          <t>/news,002812,1238806454.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
+          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 16:14</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1238805146.html</t>
+          <t>/news,002812,1238806427.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
+          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 16:12</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1238804639.html</t>
+          <t>/news,002812,1238805953.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
+          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 16:02</t>
+          <t>10-25 16:14</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1238802882.html</t>
+          <t>/news,002812,1238805146.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 15:38</t>
+          <t>10-25 16:12</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1238795238.html</t>
+          <t>/news,002812,1238804639.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
+          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 13:56</t>
+          <t>10-25 16:02</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1238722975.html</t>
+          <t>/news,002812,1238802882.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 13:39</t>
+          <t>10-25 15:38</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1238707578.html</t>
+          <t>/news,002812,1238795238.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
+          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 13:56</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1238458860.html</t>
+          <t>/news,002812,1238722975.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份10月24日被深股通减持39.44万股</t>
+          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 13:39</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1238448464.html</t>
+          <t>/news,002812,1238707578.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
+          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 00:19</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1238425939.html</t>
+          <t>/news,002812,1238458860.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份10月24日被深股通减持39.44万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-24 22:33</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1238407697.html</t>
+          <t>/news,002812,1238448464.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
+          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-24 22:20</t>
+          <t>10-25 00:19</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1238402873.html</t>
+          <t>/news,002812,1238425939.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
+          <t>恩捷股份前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-24 21:04</t>
+          <t>10-24 22:33</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1238376002.html</t>
+          <t>/news,002812,1238407697.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
+          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-24 20:51</t>
+          <t>10-24 22:20</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1238373563.html</t>
+          <t>/news,002812,1238402873.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1453</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-24 20:50</t>
+          <t>10-24 21:04</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1238372200.html</t>
+          <t>/news,002812,1238376002.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-24 20:48</t>
+          <t>10-24 20:51</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1238373053.html</t>
+          <t>/news,002812,1238373563.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>1454</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
+          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-24 20:44</t>
+          <t>10-24 20:50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1238372589.html</t>
+          <t>/news,002812,1238372200.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,61 +2611,61 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-24 20:41</t>
+          <t>10-24 20:48</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1238369774.html</t>
+          <t>/news,002812,1238373053.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-24 15:36</t>
+          <t>10-24 20:44</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1238284359.html</t>
+          <t>/news,002812,1238372589.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,61 +2675,61 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
+          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-24 09:02</t>
+          <t>10-24 20:41</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1237924671.html</t>
+          <t>/news,002812,1238369774.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-23 15:04</t>
+          <t>10-24 15:36</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1237863487.html</t>
+          <t>/news,002812,1238284359.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,61 +2739,61 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
+          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 09:02</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1237860128.html</t>
+          <t>/news,002812,1237924671.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>恩捷股份10月21日被深股通减持92.73万股</t>
+          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-23 15:04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1237797052.html</t>
+          <t>/news,002812,1237863487.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾16个月新低</t>
+          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-21 15:36</t>
+          <t>10-23 14:06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1237686636.html</t>
+          <t>/news,002812,1237860128.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
+          <t>恩捷股份10月21日被深股通减持92.73万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-21 08:52</t>
+          <t>10-22 07:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1237356934.html</t>
+          <t>/news,002812,1237797052.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份10月20日被深股通减持301.75万股</t>
+          <t>恩捷股份股价连续2日创逾16个月新低</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-21 15:36</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1237346909.html</t>
+          <t>/news,002812,1237686636.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,39 +2899,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾16个月新低</t>
+          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-21 08:52</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1237206349.html</t>
+          <t>/news,002812,1237356934.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
+          <t>恩捷股份10月20日被深股通减持301.75万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-20 08:51</t>
+          <t>10-21 07:43</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1236896497.html</t>
+          <t>/news,002812,1237346909.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,39 +2963,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份10月19日获深股通增持31.88万股</t>
+          <t>恩捷股份股价创逾16个月新低</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-20 07:49</t>
+          <t>10-20 15:36</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1236888926.html</t>
+          <t>/news,002812,1237206349.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交673.04万元，折价9.37%（10-19）</t>
+          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-19 18:00</t>
+          <t>10-20 08:51</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1236766194.html</t>
+          <t>/news,002812,1236896497.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入407.9万元，融资余额12.23亿元（11-14）</t>
+          <t>恩捷股份：融资净偿还781.23万元，融资余额12.21亿元（11-16）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1246697983.html</t>
+          <t>/news,002812,1247676529.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>148</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份11月14日获深股通增持24.61万股</t>
+          <t>恩捷股份11月16日获深股通增持96.03万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-15 07:54</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1246690852.html</t>
+          <t>/news,002812,1247667909.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计4745.15万元（11-11）</t>
+          <t>长城国瑞证券给予恩捷股份买入评级：湿法隔膜龙头积极扩产多重优势巩固行业地位</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-17 06:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1246196418.html</t>
+          <t>/news,002812,1247660546.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还679.95万元，居电池板块第十一</t>
+          <t>长城国瑞证券首次给予恩捷股份买入评级 预计2022年净利润同比增长78.05%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-13 15:06</t>
+          <t>11-16 19:12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1246099153.html</t>
+          <t>/news,002812,1247557342.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值减少5471.57万元，居电池板块第十</t>
+          <t>恩捷股份：融资净买入550.98万元，融资余额12.29亿元（11-15）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-16 08:47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1246094554.html</t>
+          <t>/news,002812,1247183341.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
+          <t>恩捷股份11月15日被深股通减持60.88万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-11 08:48</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1245424052.html</t>
+          <t>/news,002812,1247176070.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>5188</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交4999.32万元，折价0.52%（11-10）</t>
+          <t>锂电厂减产？锂电产业链企业回应：不属实</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-15 20:31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1245274839.html</t>
+          <t>/news,002812,1247105583.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>933</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
+          <t>恩捷股份：目前公司生产经营正常、价格稳定 公司前次股份回购计划已完成</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-10 08:46</t>
+          <t>11-15 14:27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1244899043.html</t>
+          <t>/news,002812,1246987094.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>967</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份11月09日获深股通增持32.67万股</t>
+          <t>恩捷股份：隔膜在锂电池成本中占比不高</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-15 14:09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1244889957.html</t>
+          <t>/news,002812,1246969309.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1012</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
+          <t>恩捷股份：融资净买入407.9万元，融资余额12.23亿元（11-14）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-09 13:34</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1244659718.html</t>
+          <t>/news,002812,1246697983.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份11月14日获深股通增持24.61万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-09 13:21</t>
+          <t>11-15 07:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1244648859.html</t>
+          <t>/news,002812,1246690852.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
+          <t>恩捷股份：连续4日融资净偿还累计4745.15万元（11-11）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1244438627.html</t>
+          <t>/news,002812,1246196418.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份11月08日被深股通减持47.92万股</t>
+          <t>恩捷股份本周融资净偿还679.95万元，居电池板块第十一</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-13 15:06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1244425352.html</t>
+          <t>/news,002812,1246099153.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
+          <t>恩捷股份本周深股通持股市值减少5471.57万元，居电池板块第十</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-08 08:47</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1243982722.html</t>
+          <t>/news,002812,1246094554.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份11月07日被深股通减持28.15万股</t>
+          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-08 07:57</t>
+          <t>11-11 08:48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1243975913.html</t>
+          <t>/news,002812,1245424052.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
+          <t>大宗交易：恩捷股份成交4999.32万元，折价0.52%（11-10）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1243512204.html</t>
+          <t>/news,002812,1245274839.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,29 +979,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
+          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-10 08:46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1243410172.html</t>
+          <t>/news,002812,1244899043.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,39 +1011,39 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
+          <t>恩捷股份11月09日获深股通增持32.67万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-06 14:04</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1243404380.html</t>
+          <t>/news,002812,1244889957.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
+          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,51 +1053,51 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-09 13:34</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1242828085.html</t>
+          <t>/news,002812,1244659718.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份11月03日被深股通减持32.02万股</t>
+          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-09 13:21</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1242816837.html</t>
+          <t>/news,002812,1244648859.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
+          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1242334166.html</t>
+          <t>/news,002812,1244438627.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份11月02日被深股通减持13.79万股</t>
+          <t>恩捷股份11月08日被深股通减持47.92万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 07:46</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1242324363.html</t>
+          <t>/news,002812,1244425352.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
+          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-08 08:47</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1241808977.html</t>
+          <t>/news,002812,1243982722.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份11月01日获深股通增持151.94万股</t>
+          <t>恩捷股份11月07日被深股通减持28.15万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-08 07:57</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1241800478.html</t>
+          <t>/news,002812,1243975913.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
+          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 08:56</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1241305789.html</t>
+          <t>/news,002812,1243512204.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份10月31日获深股通增持31.47万股</t>
+          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1241296330.html</t>
+          <t>/news,002812,1243410172.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>方正证券维持恩捷股份推荐评级 预</t>
+          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 15:53</t>
+          <t>11-06 14:04</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1241142162.html</t>
+          <t>/news,002812,1243404380.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创近1年半新低</t>
+          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-31 15:37</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1241137253.html</t>
+          <t>/news,002812,1242828085.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
+          <t>恩捷股份11月03日被深股通减持32.02万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-31 09:06</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1240799779.html</t>
+          <t>/news,002812,1242816837.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,29 +1395,29 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
+          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-30 15:06</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1240712387.html</t>
+          <t>/news,002812,1242334166.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,29 +1427,29 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
+          <t>恩捷股份11月02日被深股通减持13.79万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>11-03 07:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1240706325.html</t>
+          <t>/news,002812,1242324363.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恩捷股份10月28日被深股通减持212.13万股</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1240600830.html</t>
+          <t>/news,002812,1241808977.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,29 +1491,29 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份11月01日获深股通增持151.94万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 15:37</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1240441086.html</t>
+          <t>/news,002812,1241800478.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 09:17</t>
+          <t>11-01 08:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1240064888.html</t>
+          <t>/news,002812,1241305789.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恩捷股份10月27日获深股通增持70.47万股</t>
+          <t>恩捷股份10月31日获深股通增持31.47万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,83 +1565,83 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 07:52</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1240048276.html</t>
+          <t>/news,002812,1241296330.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-27 16:38</t>
+          <t>10-31 15:53</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1239877267.html</t>
+          <t>/news,002812,1241142162.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
+          <t>恩捷股份股价连续3日创近1年半新低</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-27 11:41</t>
+          <t>10-31 15:37</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1239684583.html</t>
+          <t>/news,002812,1241137253.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
+          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-31 09:06</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1239506812.html</t>
+          <t>/news,002812,1240799779.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>恩捷股份10月26日获深股通增持63.5万股</t>
+          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-27 08:00</t>
+          <t>10-30 15:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1239499169.html</t>
+          <t>/news,002812,1240712387.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
+          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 21:20</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1239433633.html</t>
+          <t>/news,002812,1240706325.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
+          <t>恩捷股份10月28日被深股通减持212.13万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 20:18</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1239425504.html</t>
+          <t>/news,002812,1240600830.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,61 +1779,61 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 19:47</t>
+          <t>10-28 15:37</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1239404625.html</t>
+          <t>/news,002812,1240441086.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 18:41</t>
+          <t>10-28 09:17</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1239382483.html</t>
+          <t>/news,002812,1240064888.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
+          <t>恩捷股份10月27日获深股通增持70.47万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,83 +1853,83 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 18:01</t>
+          <t>10-28 07:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1239370579.html</t>
+          <t>/news,002812,1240048276.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>603</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-26 17:54</t>
+          <t>10-27 16:38</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1239368070.html</t>
+          <t>/news,002812,1239877267.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
+          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 17:20</t>
+          <t>10-27 11:41</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1239358684.html</t>
+          <t>/news,002812,1239684583.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
+          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-26 08:52</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1238978757.html</t>
+          <t>/news,002812,1239506812.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恩捷股份10月25日获深股通增持111.11万股</t>
+          <t>恩捷股份10月26日获深股通增持63.5万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,179 +1981,179 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-26 07:54</t>
+          <t>10-27 08:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1238969559.html</t>
+          <t>/news,002812,1239499169.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
+          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 17:05</t>
+          <t>10-26 21:20</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1238820247.html</t>
+          <t>/news,002812,1239433633.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
+          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 16:19</t>
+          <t>10-26 20:18</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1238806506.html</t>
+          <t>/news,002812,1239425504.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
+          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-26 19:47</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1238806454.html</t>
+          <t>/news,002812,1239404625.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
+          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-26 18:41</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1238806427.html</t>
+          <t>/news,002812,1239382483.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
+          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-26 18:01</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1238805953.html</t>
+          <t>/news,002812,1239370579.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
+          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 16:14</t>
+          <t>10-26 17:54</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1238805146.html</t>
+          <t>/news,002812,1239368070.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,29 +2195,29 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
+          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 16:12</t>
+          <t>10-26 17:20</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1238804639.html</t>
+          <t>/news,002812,1239358684.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
+          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 16:02</t>
+          <t>10-26 08:52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1238802882.html</t>
+          <t>/news,002812,1238978757.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份10月25日获深股通增持111.11万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 15:38</t>
+          <t>10-26 07:54</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1238795238.html</t>
+          <t>/news,002812,1238969559.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>692</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
+          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 13:56</t>
+          <t>10-25 17:05</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1238722975.html</t>
+          <t>/news,002812,1238820247.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
+          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 13:39</t>
+          <t>10-25 16:19</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1238707578.html</t>
+          <t>/news,002812,1238806506.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
+          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1238458860.html</t>
+          <t>/news,002812,1238806454.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份10月24日被深股通减持39.44万股</t>
+          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,125 +2397,125 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1238448464.html</t>
+          <t>/news,002812,1238806427.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
+          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 00:19</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1238425939.html</t>
+          <t>/news,002812,1238805953.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份前三季度净利润同比增长83.77%</t>
+          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-24 22:33</t>
+          <t>10-25 16:14</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1238407697.html</t>
+          <t>/news,002812,1238805146.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
+          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-24 22:20</t>
+          <t>10-25 16:12</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1238402873.html</t>
+          <t>/news,002812,1238804639.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
+          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-24 21:04</t>
+          <t>10-25 16:02</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1238376002.html</t>
+          <t>/news,002812,1238802882.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-24 20:51</t>
+          <t>10-25 15:38</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1238373563.html</t>
+          <t>/news,002812,1238795238.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1454</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
+          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-24 20:50</t>
+          <t>10-25 13:56</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1238372200.html</t>
+          <t>/news,002812,1238722975.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
+          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-24 20:48</t>
+          <t>10-25 13:39</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1238373053.html</t>
+          <t>/news,002812,1238707578.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
+          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-24 20:44</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1238372589.html</t>
+          <t>/news,002812,1238458860.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,71 +2675,71 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份10月24日被深股通减持39.44万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-24 20:41</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1238369774.html</t>
+          <t>/news,002812,1238448464.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-24 15:36</t>
+          <t>10-25 00:19</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1238284359.html</t>
+          <t>/news,002812,1238425939.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5803.15万元，两市排名第14（10-21）</t>
+          <t>恩捷股份前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,93 +2749,93 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-24 09:02</t>
+          <t>10-24 22:33</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1237924671.html</t>
+          <t>/news,002812,1238407697.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入4161.15万元，居电池板块第九</t>
+          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-23 15:04</t>
+          <t>10-24 22:20</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1237863487.html</t>
+          <t>/news,002812,1238402873.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持7.55亿元，周内减持市值两市排名第十</t>
+          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-23 14:06</t>
+          <t>10-24 21:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1237860128.html</t>
+          <t>/news,002812,1238376002.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份10月21日被深股通减持92.73万股</t>
+          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-22 07:51</t>
+          <t>10-24 20:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1237797052.html</t>
+          <t>/news,002812,1238373563.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>1459</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾16个月新低</t>
+          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-21 15:36</t>
+          <t>10-24 20:50</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1237686636.html</t>
+          <t>/news,002812,1238372200.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4465.45万元，融资余额12.88亿元（10-20）</t>
+          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-21 08:52</t>
+          <t>10-24 20:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1237356934.html</t>
+          <t>/news,002812,1238373053.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份10月20日被深股通减持301.75万股</t>
+          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-21 07:43</t>
+          <t>10-24 20:44</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1237346909.html</t>
+          <t>/news,002812,1238372589.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾16个月新低</t>
+          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-20 15:36</t>
+          <t>10-24 20:41</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1237206349.html</t>
+          <t>/news,002812,1238369774.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7450.86万元，两市排名第八（10-19）</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-20 08:51</t>
+          <t>10-24 15:36</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1236896497.html</t>
+          <t>/news,002812,1238284359.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>116</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还781.23万元，融资余额12.21亿元（11-16）</t>
+          <t>恩捷股份：融资净偿还6850.74万元，两市排名第12（11-17）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1247676529.html</t>
+          <t>/news,002812,1248161273.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>132</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份11月16日获深股通增持96.03万股</t>
+          <t>恩捷股份11月17日获深股通增持78.93万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-18 07:55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1247667909.html</t>
+          <t>/news,002812,1248154507.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城国瑞证券给予恩捷股份买入评级：湿法隔膜龙头积极扩产多重优势巩固行业地位</t>
+          <t>恩捷股份：融资净偿还781.23万元，融资余额12.21亿元（11-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,61 +541,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-17 06:51</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1247660546.html</t>
+          <t>/news,002812,1247676529.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长城国瑞证券首次给予恩捷股份买入评级 预计2022年净利润同比增长78.05%</t>
+          <t>恩捷股份11月16日获深股通增持96.03万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-16 19:12</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1247557342.html</t>
+          <t>/news,002812,1247667909.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入550.98万元，融资余额12.29亿元（11-15）</t>
+          <t>长城国瑞证券给予恩捷股份买入评级：湿法隔膜龙头积极扩产多重优势巩固行业地位</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,61 +605,61 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-16 08:47</t>
+          <t>11-17 06:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1247183341.html</t>
+          <t>/news,002812,1247660546.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份11月15日被深股通减持60.88万股</t>
+          <t>长城国瑞证券首次给予恩捷股份买入评级 预计2022年净利润同比增长78.05%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-16 19:12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1247176070.html</t>
+          <t>/news,002812,1247557342.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5188</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>锂电厂减产？锂电产业链企业回应：不属实</t>
+          <t>恩捷股份：融资净买入550.98万元，融资余额12.29亿元（11-15）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-15 20:31</t>
+          <t>11-16 08:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1247105583.html</t>
+          <t>/news,002812,1247183341.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>933</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份：目前公司生产经营正常、价格稳定 公司前次股份回购计划已完成</t>
+          <t>恩捷股份11月15日被深股通减持60.88万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 14:27</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1246987094.html</t>
+          <t>/news,002812,1247176070.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>5298</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份：隔膜在锂电池成本中占比不高</t>
+          <t>锂电厂减产？锂电产业链企业回应：不属实</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-15 14:09</t>
+          <t>11-15 20:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1246969309.html</t>
+          <t>/news,002812,1247105583.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>950</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入407.9万元，融资余额12.23亿元（11-14）</t>
+          <t>恩捷股份：目前公司生产经营正常、价格稳定 公司前次股份回购计划已完成</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-15 14:27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1246697983.html</t>
+          <t>/news,002812,1246987094.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>989</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份11月14日获深股通增持24.61万股</t>
+          <t>恩捷股份：隔膜在锂电池成本中占比不高</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-15 07:54</t>
+          <t>11-15 14:09</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1246690852.html</t>
+          <t>/news,002812,1246969309.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计4745.15万元（11-11）</t>
+          <t>恩捷股份：融资净买入407.9万元，融资余额12.23亿元（11-14）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1246196418.html</t>
+          <t>/news,002812,1246697983.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,61 +851,61 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还679.95万元，居电池板块第十一</t>
+          <t>恩捷股份11月14日获深股通增持24.61万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-13 15:06</t>
+          <t>11-15 07:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1246099153.html</t>
+          <t>/news,002812,1246690852.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值减少5471.57万元，居电池板块第十</t>
+          <t>恩捷股份：连续4日融资净偿还累计4745.15万元（11-11）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1246094554.html</t>
+          <t>/news,002812,1246196418.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,61 +915,61 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
+          <t>恩捷股份本周融资净偿还679.95万元，居电池板块第十一</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-11 08:48</t>
+          <t>11-13 15:06</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1245424052.html</t>
+          <t>/news,002812,1246099153.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交4999.32万元，折价0.52%（11-10）</t>
+          <t>恩捷股份本周深股通持股市值减少5471.57万元，居电池板块第十</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1245274839.html</t>
+          <t>/news,002812,1246094554.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
+          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-10 08:46</t>
+          <t>11-11 08:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1244899043.html</t>
+          <t>/news,002812,1245424052.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份11月09日获深股通增持32.67万股</t>
+          <t>大宗交易：恩捷股份成交4999.32万元，折价0.52%（11-10）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1244889957.html</t>
+          <t>/news,002812,1245274839.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
+          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-09 13:34</t>
+          <t>11-10 08:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1244659718.html</t>
+          <t>/news,002812,1244899043.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,39 +1075,39 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份11月09日获深股通增持32.67万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-09 13:21</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1244648859.html</t>
+          <t>/news,002812,1244889957.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
+          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-09 13:34</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1244438627.html</t>
+          <t>/news,002812,1244659718.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份11月08日被深股通减持47.92万股</t>
+          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-09 13:21</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1244425352.html</t>
+          <t>/news,002812,1244648859.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
+          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-08 08:47</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1243982722.html</t>
+          <t>/news,002812,1244438627.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份11月07日被深股通减持28.15万股</t>
+          <t>恩捷股份11月08日被深股通减持47.92万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-08 07:57</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1243975913.html</t>
+          <t>/news,002812,1244425352.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
+          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-08 08:47</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1243512204.html</t>
+          <t>/news,002812,1243982722.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
+          <t>恩捷股份11月07日被深股通减持28.15万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 07:57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1243410172.html</t>
+          <t>/news,002812,1243975913.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
+          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-06 14:04</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1243404380.html</t>
+          <t>/news,002812,1243512204.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,61 +1331,61 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
+          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1242828085.html</t>
+          <t>/news,002812,1243410172.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份11月03日被深股通减持32.02万股</t>
+          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 14:04</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1242816837.html</t>
+          <t>/news,002812,1243404380.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
+          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1242334166.html</t>
+          <t>/news,002812,1242828085.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份11月02日被深股通减持13.79万股</t>
+          <t>恩捷股份11月03日被深股通减持32.02万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 07:46</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1242324363.html</t>
+          <t>/news,002812,1242816837.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
+          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1241808977.html</t>
+          <t>/news,002812,1242334166.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>恩捷股份11月01日获深股通增持151.94万股</t>
+          <t>恩捷股份11月02日被深股通减持13.79万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-03 07:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1241800478.html</t>
+          <t>/news,002812,1242324363.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 08:56</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1241305789.html</t>
+          <t>/news,002812,1241808977.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恩捷股份10月31日获深股通增持31.47万股</t>
+          <t>恩捷股份11月01日获深股通增持151.94万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1241296330.html</t>
+          <t>/news,002812,1241800478.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-31 15:53</t>
+          <t>11-01 08:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1241142162.html</t>
+          <t>/news,002812,1241305789.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创近1年半新低</t>
+          <t>恩捷股份10月31日获深股通增持31.47万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 15:37</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1241137253.html</t>
+          <t>/news,002812,1241296330.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
+          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 09:06</t>
+          <t>10-31 15:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1240799779.html</t>
+          <t>/news,002812,1241142162.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
+          <t>恩捷股份股价连续3日创近1年半新低</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-30 15:06</t>
+          <t>10-31 15:37</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1240712387.html</t>
+          <t>/news,002812,1241137253.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
+          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 09:06</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1240706325.html</t>
+          <t>/news,002812,1240799779.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>恩捷股份10月28日被深股通减持212.13万股</t>
+          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-30 15:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1240600830.html</t>
+          <t>/news,002812,1240712387.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 15:37</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1240441086.html</t>
+          <t>/news,002812,1240706325.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
+          <t>恩捷股份10月28日被深股通减持212.13万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,179 +1821,179 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 09:17</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1240064888.html</t>
+          <t>/news,002812,1240600830.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>恩捷股份10月27日获深股通增持70.47万股</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 07:52</t>
+          <t>10-28 15:37</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1240048276.html</t>
+          <t>/news,002812,1240441086.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-27 16:38</t>
+          <t>10-28 09:17</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1239877267.html</t>
+          <t>/news,002812,1240064888.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
+          <t>恩捷股份10月27日获深股通增持70.47万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-27 11:41</t>
+          <t>10-28 07:52</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1239684583.html</t>
+          <t>/news,002812,1240048276.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>603</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-27 16:38</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1239506812.html</t>
+          <t>/news,002812,1239877267.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恩捷股份10月26日获深股通增持63.5万股</t>
+          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-27 08:00</t>
+          <t>10-27 11:41</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1239499169.html</t>
+          <t>/news,002812,1239684583.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
+          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-26 21:20</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1239433633.html</t>
+          <t>/news,002812,1239506812.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
+          <t>恩捷股份10月26日获深股通增持63.5万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 20:18</t>
+          <t>10-27 08:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1239425504.html</t>
+          <t>/news,002812,1239499169.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
+          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,93 +2077,93 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 19:47</t>
+          <t>10-26 21:20</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1239404625.html</t>
+          <t>/news,002812,1239433633.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 18:41</t>
+          <t>10-26 20:18</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1239382483.html</t>
+          <t>/news,002812,1239425504.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
+          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 18:01</t>
+          <t>10-26 19:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1239370579.html</t>
+          <t>/news,002812,1239404625.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
+          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 17:54</t>
+          <t>10-26 18:41</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1239368070.html</t>
+          <t>/news,002812,1239382483.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
+          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 17:20</t>
+          <t>10-26 18:01</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1239358684.html</t>
+          <t>/news,002812,1239370579.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,29 +2227,29 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
+          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 08:52</t>
+          <t>10-26 17:54</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1238978757.html</t>
+          <t>/news,002812,1239368070.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份10月25日获深股通增持111.11万股</t>
+          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 07:54</t>
+          <t>10-26 17:20</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1238969559.html</t>
+          <t>/news,002812,1239358684.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
+          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 17:05</t>
+          <t>10-26 08:52</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1238820247.html</t>
+          <t>/news,002812,1238978757.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份10月25日获深股通增持111.11万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 16:19</t>
+          <t>10-26 07:54</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1238806506.html</t>
+          <t>/news,002812,1238969559.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>693</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
+          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 17:05</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1238806454.html</t>
+          <t>/news,002812,1238820247.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,44 +2387,44 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
+          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:19</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1238806427.html</t>
+          <t>/news,002812,1238806506.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
+          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2434,14 +2434,14 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1238805953.html</t>
+          <t>/news,002812,1238806454.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
+          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 16:14</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1238805146.html</t>
+          <t>/news,002812,1238806427.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>149</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
+          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 16:12</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1238804639.html</t>
+          <t>/news,002812,1238805953.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>145</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,29 +2515,29 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
+          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 16:02</t>
+          <t>10-25 16:14</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1238802882.html</t>
+          <t>/news,002812,1238805146.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 15:38</t>
+          <t>10-25 16:12</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1238795238.html</t>
+          <t>/news,002812,1238804639.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
+          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 13:56</t>
+          <t>10-25 16:02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1238722975.html</t>
+          <t>/news,002812,1238802882.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,39 +2611,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 13:39</t>
+          <t>10-25 15:38</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1238707578.html</t>
+          <t>/news,002812,1238795238.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
+          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 13:56</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1238458860.html</t>
+          <t>/news,002812,1238722975.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份10月24日被深股通减持39.44万股</t>
+          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 13:39</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1238448464.html</t>
+          <t>/news,002812,1238707578.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
+          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 00:19</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1238425939.html</t>
+          <t>/news,002812,1238458860.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份10月24日被深股通减持39.44万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-24 22:33</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1238407697.html</t>
+          <t>/news,002812,1238448464.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
+          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-24 22:20</t>
+          <t>10-25 00:19</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1238402873.html</t>
+          <t>/news,002812,1238425939.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
+          <t>恩捷股份前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-24 21:04</t>
+          <t>10-24 22:33</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1238376002.html</t>
+          <t>/news,002812,1238407697.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
+          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-24 20:51</t>
+          <t>10-24 22:20</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1238373563.html</t>
+          <t>/news,002812,1238402873.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1459</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-24 20:50</t>
+          <t>10-24 21:04</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1238372200.html</t>
+          <t>/news,002812,1238376002.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>540</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-24 20:48</t>
+          <t>10-24 20:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1238373053.html</t>
+          <t>/news,002812,1238373563.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>1459</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
+          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-24 20:44</t>
+          <t>10-24 20:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1238372589.html</t>
+          <t>/news,002812,1238372200.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-24 20:41</t>
+          <t>10-24 20:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1238369774.html</t>
+          <t>/news,002812,1238373053.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-24 15:36</t>
+          <t>10-24 20:44</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1238284359.html</t>
+          <t>/news,002812,1238372589.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6850.74万元，两市排名第12（11-17）</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.02亿元（11-18）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-21 08:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1248161273.html</t>
+          <t>/news,002812,1248871776.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份11月17日获深股通增持78.93万股</t>
+          <t>恩捷股份本周融资净偿还6673.09万元，居电池板块第二</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-18 07:55</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1248154507.html</t>
+          <t>/news,002812,1248769610.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还781.23万元，融资余额12.21亿元（11-16）</t>
+          <t>恩捷股份本周深股通持股市值增加2.11亿元，居电池板块第三</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-20 14:13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1247676529.html</t>
+          <t>/news,002812,1248764004.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份11月16日获深股通增持96.03万股</t>
+          <t>恩捷股份：融资净偿还6850.74万元，两市排名第12（11-17）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1247667909.html</t>
+          <t>/news,002812,1248161273.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城国瑞证券给予恩捷股份买入评级：湿法隔膜龙头积极扩产多重优势巩固行业地位</t>
+          <t>恩捷股份11月17日获深股通增持78.93万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,51 +605,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-17 06:51</t>
+          <t>11-18 07:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1247660546.html</t>
+          <t>/news,002812,1248154507.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长城国瑞证券首次给予恩捷股份买入评级 预计2022年净利润同比增长78.05%</t>
+          <t>恩捷股份：融资净偿还781.23万元，融资余额12.21亿元（11-16）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 19:12</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1247557342.html</t>
+          <t>/news,002812,1247676529.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入550.98万元，融资余额12.29亿元（11-15）</t>
+          <t>恩捷股份11月16日获深股通增持96.03万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-16 08:47</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1247183341.html</t>
+          <t>/news,002812,1247667909.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>1364</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份11月15日被深股通减持60.88万股</t>
+          <t>长城国瑞证券给予恩捷股份买入评级：湿法隔膜龙头积极扩产多重优势巩固行业地位</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,61 +701,61 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-17 06:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1247176070.html</t>
+          <t>/news,002812,1247660546.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5298</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>锂电厂减产？锂电产业链企业回应：不属实</t>
+          <t>长城国瑞证券首次给予恩捷股份买入评级 预计2022年净利润同比增长78.05%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-15 20:31</t>
+          <t>11-16 19:12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1247105583.html</t>
+          <t>/news,002812,1247557342.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份：目前公司生产经营正常、价格稳定 公司前次股份回购计划已完成</t>
+          <t>恩捷股份：融资净买入550.98万元，融资余额12.29亿元（11-15）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-15 14:27</t>
+          <t>11-16 08:47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1246987094.html</t>
+          <t>/news,002812,1247183341.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份：隔膜在锂电池成本中占比不高</t>
+          <t>恩捷股份11月15日被深股通减持60.88万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-15 14:09</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1246969309.html</t>
+          <t>/news,002812,1247176070.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入407.9万元，融资余额12.23亿元（11-14）</t>
+          <t>锂电厂减产？锂电产业链企业回应：不属实</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-15 20:31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1246697983.html</t>
+          <t>/news,002812,1247105583.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份11月14日获深股通增持24.61万股</t>
+          <t>恩捷股份：目前公司生产经营正常、价格稳定 公司前次股份回购计划已完成</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-15 07:54</t>
+          <t>11-15 14:27</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1246690852.html</t>
+          <t>/news,002812,1246987094.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>1033</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计4745.15万元（11-11）</t>
+          <t>恩捷股份：隔膜在锂电池成本中占比不高</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-15 14:09</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1246196418.html</t>
+          <t>/news,002812,1246969309.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还679.95万元，居电池板块第十一</t>
+          <t>恩捷股份：融资净买入407.9万元，融资余额12.23亿元（11-14）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-13 15:06</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1246099153.html</t>
+          <t>/news,002812,1246697983.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,39 +947,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值减少5471.57万元，居电池板块第十</t>
+          <t>恩捷股份11月14日获深股通增持24.61万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-15 07:54</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1246094554.html</t>
+          <t>/news,002812,1246690852.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
+          <t>恩捷股份：连续4日融资净偿还累计4745.15万元（11-11）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-11 08:48</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1245424052.html</t>
+          <t>/news,002812,1246196418.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交4999.32万元，折价0.52%（11-10）</t>
+          <t>恩捷股份本周融资净偿还679.95万元，居电池板块第十一</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-13 15:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1245274839.html</t>
+          <t>/news,002812,1246099153.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
+          <t>恩捷股份本周深股通持股市值减少5471.57万元，居电池板块第十</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-10 08:46</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1244899043.html</t>
+          <t>/news,002812,1246094554.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份11月09日获深股通增持32.67万股</t>
+          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-11 08:48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1244889957.html</t>
+          <t>/news,002812,1245424052.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
+          <t>大宗交易：恩捷股份成交4999.32万元，折价0.52%（11-10）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-09 13:34</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1244659718.html</t>
+          <t>/news,002812,1245274839.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-09 13:21</t>
+          <t>11-10 08:46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1244648859.html</t>
+          <t>/news,002812,1244899043.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
+          <t>恩捷股份11月09日获深股通增持32.67万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1244438627.html</t>
+          <t>/news,002812,1244889957.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份11月08日被深股通减持47.92万股</t>
+          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-09 13:34</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1244425352.html</t>
+          <t>/news,002812,1244659718.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
+          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-08 08:47</t>
+          <t>11-09 13:21</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1243982722.html</t>
+          <t>/news,002812,1244648859.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份11月07日被深股通减持28.15万股</t>
+          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-08 07:57</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1243975913.html</t>
+          <t>/news,002812,1244438627.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
+          <t>恩捷股份11月08日被深股通减持47.92万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1243512204.html</t>
+          <t>/news,002812,1244425352.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
+          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-08 08:47</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1243410172.html</t>
+          <t>/news,002812,1243982722.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
+          <t>恩捷股份11月07日被深股通减持28.15万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-06 14:04</t>
+          <t>11-08 07:57</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1243404380.html</t>
+          <t>/news,002812,1243975913.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
+          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1242828085.html</t>
+          <t>/news,002812,1243512204.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份11月03日被深股通减持32.02万股</t>
+          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1242816837.html</t>
+          <t>/news,002812,1243410172.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,29 +1459,29 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
+          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-06 14:04</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1242334166.html</t>
+          <t>/news,002812,1243404380.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>恩捷股份11月02日被深股通减持13.79万股</t>
+          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-03 07:46</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1242324363.html</t>
+          <t>/news,002812,1242828085.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
+          <t>恩捷股份11月03日被深股通减持32.02万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1241808977.html</t>
+          <t>/news,002812,1242816837.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恩捷股份11月01日获深股通增持151.94万股</t>
+          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1241800478.html</t>
+          <t>/news,002812,1242334166.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
+          <t>恩捷股份11月02日被深股通减持13.79万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 08:56</t>
+          <t>11-03 07:46</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1241305789.html</t>
+          <t>/news,002812,1242324363.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>恩捷股份10月31日获深股通增持31.47万股</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1241296330.html</t>
+          <t>/news,002812,1241808977.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
+          <t>恩捷股份11月01日获深股通增持151.94万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 15:53</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1241142162.html</t>
+          <t>/news,002812,1241800478.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创近1年半新低</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 15:37</t>
+          <t>11-01 08:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1241137253.html</t>
+          <t>/news,002812,1241305789.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
+          <t>恩捷股份10月31日获深股通增持31.47万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 09:06</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1240799779.html</t>
+          <t>/news,002812,1241296330.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,29 +1747,29 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
+          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-30 15:06</t>
+          <t>10-31 15:53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1240712387.html</t>
+          <t>/news,002812,1241142162.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
+          <t>恩捷股份股价连续3日创近1年半新低</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>10-31 15:37</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1240706325.html</t>
+          <t>/news,002812,1241137253.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>恩捷股份10月28日被深股通减持212.13万股</t>
+          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>10-31 09:06</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1240600830.html</t>
+          <t>/news,002812,1240799779.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 15:37</t>
+          <t>10-30 15:06</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1240441086.html</t>
+          <t>/news,002812,1240712387.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
+          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 09:17</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1240064888.html</t>
+          <t>/news,002812,1240706325.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>恩捷股份10月27日获深股通增持70.47万股</t>
+          <t>恩捷股份10月28日被深股通减持212.13万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 07:52</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1240048276.html</t>
+          <t>/news,002812,1240600830.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-27 16:38</t>
+          <t>10-28 15:37</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1239877267.html</t>
+          <t>/news,002812,1240441086.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
+          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-27 11:41</t>
+          <t>10-28 09:17</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1239684583.html</t>
+          <t>/news,002812,1240064888.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
+          <t>恩捷股份10月27日获深股通增持70.47万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>10-28 07:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1239506812.html</t>
+          <t>/news,002812,1240048276.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>605</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份10月26日获深股通增持63.5万股</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-27 08:00</t>
+          <t>10-27 16:38</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1239499169.html</t>
+          <t>/news,002812,1239877267.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
+          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 21:20</t>
+          <t>10-27 11:41</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1239433633.html</t>
+          <t>/news,002812,1239684583.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
+          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 20:18</t>
+          <t>10-27 08:55</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1239425504.html</t>
+          <t>/news,002812,1239506812.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
+          <t>恩捷股份10月26日获深股通增持63.5万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 19:47</t>
+          <t>10-27 08:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1239404625.html</t>
+          <t>/news,002812,1239499169.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 18:41</t>
+          <t>10-26 21:20</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1239382483.html</t>
+          <t>/news,002812,1239433633.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
+          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 18:01</t>
+          <t>10-26 20:18</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1239370579.html</t>
+          <t>/news,002812,1239425504.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
+          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 17:54</t>
+          <t>10-26 19:47</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1239368070.html</t>
+          <t>/news,002812,1239404625.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
+          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 17:20</t>
+          <t>10-26 18:41</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1239358684.html</t>
+          <t>/news,002812,1239382483.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
+          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 08:52</t>
+          <t>10-26 18:01</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1238978757.html</t>
+          <t>/news,002812,1239370579.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份10月25日获深股通增持111.11万股</t>
+          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 07:54</t>
+          <t>10-26 17:54</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1238969559.html</t>
+          <t>/news,002812,1239368070.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
+          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 17:05</t>
+          <t>10-26 17:20</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1238820247.html</t>
+          <t>/news,002812,1239358684.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 16:19</t>
+          <t>10-26 08:52</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1238806506.html</t>
+          <t>/news,002812,1238978757.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
+          <t>恩捷股份10月25日获深股通增持111.11万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-26 07:54</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1238806454.html</t>
+          <t>/news,002812,1238969559.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
+          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 17:05</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1238806427.html</t>
+          <t>/news,002812,1238820247.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
+          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,51 +2493,51 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>10-25 16:19</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1238805953.html</t>
+          <t>/news,002812,1238806506.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
+          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 16:14</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1238805146.html</t>
+          <t>/news,002812,1238806454.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
+          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 16:12</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1238804639.html</t>
+          <t>/news,002812,1238806427.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
+          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 16:02</t>
+          <t>10-25 16:17</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1238802882.html</t>
+          <t>/news,002812,1238805953.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,61 +2611,61 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 15:38</t>
+          <t>10-25 16:14</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1238795238.html</t>
+          <t>/news,002812,1238805146.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
+          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 13:56</t>
+          <t>10-25 16:12</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1238722975.html</t>
+          <t>/news,002812,1238804639.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
+          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 13:39</t>
+          <t>10-25 16:02</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1238707578.html</t>
+          <t>/news,002812,1238802882.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-25 15:38</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1238458860.html</t>
+          <t>/news,002812,1238795238.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份10月24日被深股通减持39.44万股</t>
+          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-25 13:56</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1238448464.html</t>
+          <t>/news,002812,1238722975.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
+          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 00:19</t>
+          <t>10-25 13:39</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1238425939.html</t>
+          <t>/news,002812,1238707578.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-24 22:33</t>
+          <t>10-25 08:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1238407697.html</t>
+          <t>/news,002812,1238458860.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
+          <t>恩捷股份10月24日被深股通减持39.44万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-24 22:20</t>
+          <t>10-25 07:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1238402873.html</t>
+          <t>/news,002812,1238448464.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>708</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
+          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-24 21:04</t>
+          <t>10-25 00:19</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1238376002.html</t>
+          <t>/news,002812,1238425939.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>500</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
+          <t>恩捷股份前三季度净利润同比增长83.77%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-24 20:51</t>
+          <t>10-24 22:33</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1238373563.html</t>
+          <t>/news,002812,1238407697.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1459</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份：三季度净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-24 20:50</t>
+          <t>10-24 22:20</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1238372200.html</t>
+          <t>/news,002812,1238402873.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季净利12.06亿元 同比增71.05%</t>
+          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-24 20:48</t>
+          <t>10-24 21:04</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1238373053.html</t>
+          <t>/news,002812,1238376002.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>544</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>恩捷股份：2022年前三季度净利润约32.26亿元</t>
+          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-24 20:44</t>
+          <t>10-24 20:51</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1238372589.html</t>
+          <t>/news,002812,1238373563.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1364</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5508</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -841,7 +841,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>1037</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2185,7 +2185,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2345,7 +2345,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>7084</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.02亿元（11-18）</t>
+          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,93 +477,93 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-21 08:47</t>
+          <t>11-22 12:02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1248871776.html</t>
+          <t>/news,002812,1249535718.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>8569</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还6673.09万元，居电池板块第二</t>
+          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-22 11:02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1248769610.html</t>
+          <t>/news,002812,1249497857.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>858</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值增加2.11亿元，居电池板块第三</t>
+          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-20 14:13</t>
+          <t>11-22 10:59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1248764004.html</t>
+          <t>/news,002812,1249496026.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>6572</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6850.74万元，两市排名第12（11-17）</t>
+          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-22 10:41</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1248161273.html</t>
+          <t>/news,002812,1249484317.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>2658</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份11月17日获深股通增持78.93万股</t>
+          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-18 07:55</t>
+          <t>11-22 10:01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1248154507.html</t>
+          <t>/news,002812,1249432337.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还781.23万元，融资余额12.21亿元（11-16）</t>
+          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1247676529.html</t>
+          <t>/news,002812,1249406710.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份11月16日获深股通增持96.03万股</t>
+          <t>恩捷股份开盘一字跌停</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1247667909.html</t>
+          <t>/news,002812,1249404138.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>798</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长城国瑞证券给予恩捷股份买入评级：湿法隔膜龙头积极扩产多重优势巩固行业地位</t>
+          <t>恩捷股份竞价一字跌停 封单超9万手</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,51 +701,51 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-17 06:51</t>
+          <t>11-22 09:41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1247660546.html</t>
+          <t>/news,002812,1249403123.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>2052</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长城国瑞证券首次给予恩捷股份买入评级 预计2022年净利润同比增长78.05%</t>
+          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-16 19:12</t>
+          <t>11-22 09:32</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1247557342.html</t>
+          <t>/news,002812,1249396589.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入550.98万元，融资余额12.29亿元（11-15）</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-16 08:47</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1247183341.html</t>
+          <t>/news,002812,1249355983.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>8174</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份11月15日被深股通减持60.88万股</t>
+          <t>云南首富兄弟被监视居住 恩捷股份回应</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-22 08:38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1247176070.html</t>
+          <t>/news,002812,1249355060.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5508</t>
+          <t>23809</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>锂电厂减产？锂电产业链企业回应：不属实</t>
+          <t>云南首富兄弟被监视居住 恩捷股份回应！</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-15 20:31</t>
+          <t>11-22 08:28</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1247105583.html</t>
+          <t>/news,002812,1249353086.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>52741</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>57</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份：目前公司生产经营正常、价格稳定 公司前次股份回购计划已完成</t>
+          <t>1400亿牛股出事！正、副董事长全被监视居住 哥俩手握765亿 股价两年暴涨10倍</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-15 14:27</t>
+          <t>11-22 08:03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1246987094.html</t>
+          <t>/news,002812,1249350919.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份：隔膜在锂电池成本中占比不高</t>
+          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-15 14:09</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1246969309.html</t>
+          <t>/news,002812,1249349269.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入407.9万元，融资余额12.23亿元（11-14）</t>
+          <t>恩捷股份11月21日被深股通减持46.49万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-22 07:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1246697983.html</t>
+          <t>/news,002812,1249348410.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份11月14日获深股通增持24.61万股</t>
+          <t>恩捷股份高管被监视居住 公司股价年内跌去四成</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-15 07:54</t>
+          <t>11-22 02:08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1246690852.html</t>
+          <t>/news,002812,1249321483.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>10.7万</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计4745.15万元（11-11）</t>
+          <t>突发！千亿大牛股爆雷！身家700亿“云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,93 +989,93 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-21 22:35</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1246196418.html</t>
+          <t>/news,002812,1249288580.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>8256</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还679.95万元，居电池板块第十一</t>
+          <t>“云南首富”被监视居住 律师称或涉嫌刑事犯罪 千亿恩捷股份怎么了？</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-13 15:06</t>
+          <t>11-21 22:17</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1246099153.html</t>
+          <t>/news,002812,1249279283.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值减少5471.57万元，居电池板块第十</t>
+          <t>突发利空！董事长、总经理被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-21 22:13</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1246094554.html</t>
+          <t>/news,002812,1249278726.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>4919</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
+          <t>公安出手！1400亿锂电隔膜龙头董事长、总经理被指定监视居住 还是云南首富</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-11 08:48</t>
+          <t>11-21 20:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1245424052.html</t>
+          <t>/news,002812,1249257561.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>3065</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交4999.32万元，折价0.52%（11-10）</t>
+          <t>恩捷股份正副董事长双双被监视居住 关联股东四度减持曾一次性套现20亿</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-21 20:33</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1245274839.html</t>
+          <t>/news,002812,1249252443.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>1378</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
+          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-10 08:46</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1244899043.html</t>
+          <t>/news,002812,1249248933.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份11月09日获深股通增持32.67万股</t>
+          <t>恩捷股份李晓明兄弟被公安机关指定居所监视居住 为云南首富</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-21 20:03</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1244889957.html</t>
+          <t>/news,002812,1249242601.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>1781</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
+          <t>千亿市值牛股恩捷股份董事长被监视居住  上个月曾缺席董事会</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,61 +1213,61 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-09 13:34</t>
+          <t>11-21 20:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1244659718.html</t>
+          <t>/news,002812,1249242757.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>3024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
+          <t>隔膜全球龙头恩捷股份爆雷 身家700亿“云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-09 13:21</t>
+          <t>11-21 19:19</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1244648859.html</t>
+          <t>/news,002812,1249229737.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>1032</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
+          <t>恩捷股份：董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-21 18:28</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1244438627.html</t>
+          <t>/news,002812,1249220548.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>3222</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恩捷股份11月08日被深股通减持47.92万股</t>
+          <t>财富765亿的“云南首富”兄弟 被公安机关指定居所监视居住！上市公司突发公告</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-21 18:10</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1244425352.html</t>
+          <t>/news,002812,1249212991.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
+          <t>恩捷股份：公司董事长和副董事长被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-08 08:47</t>
+          <t>11-21 17:28</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1243982722.html</t>
+          <t>/news,002812,1249204003.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>98766</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>323</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份11月07日被深股通减持28.15万股</t>
+          <t>恩捷股份：董事长及副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-08 07:57</t>
+          <t>11-21 17:16</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1243975913.html</t>
+          <t>/news,002812,1249199801.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.02亿元（11-18）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-21 08:47</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1243512204.html</t>
+          <t>/news,002812,1248871776.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
+          <t>恩捷股份本周融资净偿还6673.09万元，居电池板块第二</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1243410172.html</t>
+          <t>/news,002812,1248769610.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
+          <t>恩捷股份本周深股通持股市值增加2.11亿元，居电池板块第三</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-06 14:04</t>
+          <t>11-20 14:13</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1243404380.html</t>
+          <t>/news,002812,1248764004.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
+          <t>恩捷股份：融资净偿还6850.74万元，两市排名第12（11-17）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1242828085.html</t>
+          <t>/news,002812,1248161273.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份11月03日被深股通减持32.02万股</t>
+          <t>恩捷股份11月17日获深股通增持78.93万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-18 07:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1242816837.html</t>
+          <t>/news,002812,1248154507.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
+          <t>恩捷股份：融资净偿还781.23万元，融资余额12.21亿元（11-16）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1242334166.html</t>
+          <t>/news,002812,1247676529.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>恩捷股份11月02日被深股通减持13.79万股</t>
+          <t>恩捷股份11月16日获深股通增持96.03万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 07:46</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1242324363.html</t>
+          <t>/news,002812,1247667909.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>1466</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
+          <t>长城国瑞证券给予恩捷股份买入评级：湿法隔膜龙头积极扩产多重优势巩固行业地位</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-17 06:51</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1241808977.html</t>
+          <t>/news,002812,1247660546.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>恩捷股份11月01日获深股通增持151.94万股</t>
+          <t>长城国瑞证券首次给予恩捷股份买入评级 预计2022年净利润同比增长78.05%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-16 19:12</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1241800478.html</t>
+          <t>/news,002812,1247557342.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
+          <t>恩捷股份：融资净买入550.98万元，融资余额12.29亿元（11-15）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 08:56</t>
+          <t>11-16 08:47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1241305789.html</t>
+          <t>/news,002812,1247183341.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>恩捷股份10月31日获深股通增持31.47万股</t>
+          <t>恩捷股份11月15日被深股通减持60.88万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,93 +1725,93 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1241296330.html</t>
+          <t>/news,002812,1247176070.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>5563</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
+          <t>锂电厂减产？锂电产业链企业回应：不属实</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 15:53</t>
+          <t>11-15 20:31</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1241142162.html</t>
+          <t>/news,002812,1247105583.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创近1年半新低</t>
+          <t>恩捷股份：目前公司生产经营正常、价格稳定 公司前次股份回购计划已完成</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 15:37</t>
+          <t>11-15 14:27</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1241137253.html</t>
+          <t>/news,002812,1246987094.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>1074</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
+          <t>恩捷股份：隔膜在锂电池成本中占比不高</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 09:06</t>
+          <t>11-15 14:09</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1240799779.html</t>
+          <t>/news,002812,1246969309.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
+          <t>恩捷股份：融资净买入407.9万元，融资余额12.23亿元（11-14）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-30 15:06</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1240712387.html</t>
+          <t>/news,002812,1246697983.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
+          <t>恩捷股份11月14日获深股通增持24.61万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>11-15 07:54</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1240706325.html</t>
+          <t>/news,002812,1246690852.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>恩捷股份10月28日被深股通减持212.13万股</t>
+          <t>恩捷股份：连续4日融资净偿还累计4745.15万元（11-11）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1240600830.html</t>
+          <t>/news,002812,1246196418.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份本周融资净偿还679.95万元，居电池板块第十一</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 15:37</t>
+          <t>11-13 15:06</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1240441086.html</t>
+          <t>/news,002812,1246099153.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,39 +1971,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
+          <t>恩捷股份本周深股通持股市值减少5471.57万元，居电池板块第十</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 09:17</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1240064888.html</t>
+          <t>/news,002812,1246094554.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>恩捷股份10月27日获深股通增持70.47万股</t>
+          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,83 +2013,83 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 07:52</t>
+          <t>11-11 08:48</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1240048276.html</t>
+          <t>/news,002812,1245424052.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>577</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>大宗交易：恩捷股份成交4999.32万元，折价0.52%（11-10）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-27 16:38</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1239877267.html</t>
+          <t>/news,002812,1245274839.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
+          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-27 11:41</t>
+          <t>11-10 08:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1239684583.html</t>
+          <t>/news,002812,1244899043.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入130.25万元，融资余额12.58亿元（10-26）</t>
+          <t>恩捷股份11月09日获深股通增持32.67万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 08:55</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1239506812.html</t>
+          <t>/news,002812,1244889957.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>1058</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>恩捷股份10月26日获深股通增持63.5万股</t>
+          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 08:00</t>
+          <t>11-09 13:34</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1239499169.html</t>
+          <t>/news,002812,1244659718.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中银证券维持恩捷股份增持评级 预计2022年净利润同比增长77.32%</t>
+          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 21:20</t>
+          <t>11-09 13:21</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1239433633.html</t>
+          <t>/news,002812,1244648859.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中银证券给予恩捷股份增持评级 三季报业绩符合预期 产品客户结构持续改善</t>
+          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 20:18</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1239425504.html</t>
+          <t>/news,002812,1244438627.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,71 +2227,71 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中原证券首次给予恩捷股份增持评级 预计2022年净利润同比增长83.65%</t>
+          <t>恩捷股份11月08日被深股通减持47.92万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 19:47</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1239404625.html</t>
+          <t>/news,002812,1244425352.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华创证券维持恩捷股份强推评级 目标价275.84元</t>
+          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 18:41</t>
+          <t>11-08 08:47</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1239382483.html</t>
+          <t>/news,002812,1243982722.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入恩捷股份3176万元（10-26）</t>
+          <t>恩捷股份11月07日被深股通减持28.15万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 18:01</t>
+          <t>11-08 07:57</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1239370579.html</t>
+          <t>/news,002812,1243975913.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>太平洋维持恩捷股份买入评级 预计2022年净利润同比增长84.9%</t>
+          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 17:54</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1239368070.html</t>
+          <t>/news,002812,1243512204.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>太平洋给予恩捷股份买入评级，业绩符合预期，高壁垒保障良好竞争格局</t>
+          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 17:20</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1239358684.html</t>
+          <t>/news,002812,1243410172.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,29 +2387,29 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2370.98万元，融资余额12.57亿元（10-25）</t>
+          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 08:52</t>
+          <t>11-06 14:04</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1238978757.html</t>
+          <t>/news,002812,1243404380.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份10月25日获深股通增持111.11万股</t>
+          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 07:54</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1238969559.html</t>
+          <t>/news,002812,1242828085.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交5016.15万元，折价1.47%（10-25）</t>
+          <t>恩捷股份11月03日被深股通减持32.02万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 17:05</t>
+          <t>11-04 07:47</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1238820247.html</t>
+          <t>/news,002812,1242816837.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>东吴证券维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 16:19</t>
+          <t>11-03 08:51</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1238806506.html</t>
+          <t>/news,002812,1242334166.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东吴证券给予恩捷股份买入评级 2022年三季报点评：单平盈利环比提升 客户结构改善助力量利双升 目标价格为277.9元</t>
+          <t>恩捷股份11月02日被深股通减持13.79万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>11-03 07:46</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1238806454.html</t>
+          <t>/news,002812,1242324363.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>信达证券给予恩捷股份买入评级 业绩超预期 单平盈利持续提升</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>11-02 08:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1238806427.html</t>
+          <t>/news,002812,1241808977.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>信达证券维持恩捷股份买入评级 预计2022年净利润同比增长80.53%</t>
+          <t>恩捷股份11月01日获深股通增持151.94万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 16:17</t>
+          <t>11-02 07:46</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1238805953.html</t>
+          <t>/news,002812,1241800478.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>东莞证券维持恩捷股份谨慎推荐评级 预计2022年净利润同比增长77.75%</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 16:14</t>
+          <t>11-01 08:56</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1238805146.html</t>
+          <t>/news,002812,1241305789.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>华泰证券维持恩捷股份增持评级 目标价169.48元</t>
+          <t>恩捷股份10月31日获深股通增持31.47万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 16:12</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1238804639.html</t>
+          <t>/news,002812,1241296330.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,29 +2675,29 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>东莞证券给予恩捷股份推荐评级 2022年三季报点评：产能持续释放 Q3盈利环比稳增长</t>
+          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 16:02</t>
+          <t>10-31 15:53</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1238802882.html</t>
+          <t>/news,002812,1241142162.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份股价连续3日创近1年半新低</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 15:38</t>
+          <t>10-31 15:37</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1238795238.html</t>
+          <t>/news,002812,1241137253.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>国金证券给予恩捷股份买入评级 3Q22业绩符合预期 量利环比持续改善</t>
+          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 13:56</t>
+          <t>10-31 09:06</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1238722975.html</t>
+          <t>/news,002812,1240799779.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>国金证券维持恩捷股份买入评级 预计2022年净利润同比增长90.86%</t>
+          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 13:39</t>
+          <t>10-30 15:06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1238707578.html</t>
+          <t>/news,002812,1240712387.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入5015.56万元，融资余额12.8亿元（10-24）</t>
+          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 08:55</t>
+          <t>10-30 14:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1238458860.html</t>
+          <t>/news,002812,1240706325.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份10月24日被深股通减持39.44万股</t>
+          <t>恩捷股份10月28日被深股通减持212.13万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 07:51</t>
+          <t>10-29 07:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1238448464.html</t>
+          <t>/news,002812,1240600830.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>【图解季报】恩捷股份：2022年前三季度归母净利润同比大增83.8%，约为32.3亿元</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 00:19</t>
+          <t>10-28 15:37</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1238425939.html</t>
+          <t>/news,002812,1240441086.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份前三季度净利润同比增长83.77%</t>
+          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-24 22:33</t>
+          <t>10-28 09:17</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1238407697.html</t>
+          <t>/news,002812,1240064888.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份：第三季度实现净利润12.06亿元 同比增长71.05%</t>
+          <t>恩捷股份10月27日获深股通增持70.47万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,76 +2941,76 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-24 22:20</t>
+          <t>10-28 07:52</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1238402873.html</t>
+          <t>/news,002812,1240048276.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份股东户数增加34.85%，户均持股292.58万元</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-24 21:04</t>
+          <t>10-27 16:38</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1238376002.html</t>
+          <t>/news,002812,1239877267.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>恩捷股份：锂电池隔膜产线产能逐步释放，前三季度归母净利润同比增83.77%至32.26亿元</t>
+          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-24 20:51</t>
+          <t>10-27 11:41</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1238373563.html</t>
+          <t>/news,002812,1239684583.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7084</t>
+          <t>11807</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
+          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 12:02</t>
+          <t>11-23 13:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1249535718.html</t>
+          <t>/news,002812,1250148155.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8569</t>
+          <t>3719</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
+          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 11:02</t>
+          <t>11-23 13:12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1249497857.html</t>
+          <t>/news,002812,1250115946.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>2198</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
+          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 10:59</t>
+          <t>11-23 11:10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1249496026.html</t>
+          <t>/news,002812,1250060834.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6572</t>
+          <t>10866</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
+          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-22 10:41</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1249484317.html</t>
+          <t>/news,002812,1249948430.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2658</t>
+          <t>718</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
+          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 10:01</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1249432337.html</t>
+          <t>/news,002812,1249945562.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
+          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-23 09:39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1249406710.html</t>
+          <t>/news,002812,1249949175.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2452</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停</t>
+          <t>恩捷股份连续第二个交易日跌停</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-23 09:34</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1249404138.html</t>
+          <t>/news,002812,1249919541.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份竞价一字跌停 封单超9万手</t>
+          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-22 09:41</t>
+          <t>11-23 09:13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1249403123.html</t>
+          <t>/news,002812,1250105732.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2052</t>
+          <t>5167</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
+          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-22 09:32</t>
+          <t>11-23 08:52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1249396589.html</t>
+          <t>/news,002812,1249884669.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>146</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
+          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-23 08:45</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1249355983.html</t>
+          <t>/news,002812,1249883367.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8174</t>
+          <t>2554</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 恩捷股份回应</t>
+          <t>恩捷股份：接受贝莱德基金等机构调研</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-22 08:38</t>
+          <t>11-23 05:45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1249355060.html</t>
+          <t>/news,002812,1249863455.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>23809</t>
+          <t>3302</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 恩捷股份回应！</t>
+          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-22 08:28</t>
+          <t>11-22 23:10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1249353086.html</t>
+          <t>/news,002812,1249814227.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>52741</t>
+          <t>10136</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1400亿牛股出事！正、副董事长全被监视居住 哥俩手握765亿 股价两年暴涨10倍</t>
+          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-22 08:03</t>
+          <t>11-22 18:37</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1249350919.html</t>
+          <t>/news,002812,1249737387.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>6578</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
+          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-22 16:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1249349269.html</t>
+          <t>/news,002812,1249712465.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>8994</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份11月21日被深股通减持46.49万股</t>
+          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-22 07:51</t>
+          <t>11-22 16:03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1249348410.html</t>
+          <t>/news,002812,1249697654.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>7050</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份高管被监视居住 公司股价年内跌去四成</t>
+          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,61 +957,61 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-22 02:08</t>
+          <t>11-22 15:42</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1249321483.html</t>
+          <t>/news,002812,1249691067.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10.7万</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>突发！千亿大牛股爆雷！身家700亿“云南首富兄弟”被监视居住</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-21 22:35</t>
+          <t>11-22 15:37</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1249288580.html</t>
+          <t>/news,002812,1249689323.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8256</t>
+          <t>3426</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>“云南首富”被监视居住 律师称或涉嫌刑事犯罪 千亿恩捷股份怎么了？</t>
+          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-21 22:17</t>
+          <t>11-22 14:52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1249279283.html</t>
+          <t>/news,002812,1249672010.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>7928</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>突发利空！董事长、总经理被公安机关指定居所监视居住</t>
+          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-21 22:13</t>
+          <t>11-22 13:08</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1249278726.html</t>
+          <t>/news,002812,1249585440.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4919</t>
+          <t>15356</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>公安出手！1400亿锂电隔膜龙头董事长、总经理被指定监视居住 还是云南首富</t>
+          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-21 20:56</t>
+          <t>11-22 12:02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1249257561.html</t>
+          <t>/news,002812,1249535718.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3065</t>
+          <t>12436</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份正副董事长双双被监视居住 关联股东四度减持曾一次性套现20亿</t>
+          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-21 20:33</t>
+          <t>11-22 11:02</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1249252443.html</t>
+          <t>/news,002812,1249497857.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>1329</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
+          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-21 20:27</t>
+          <t>11-22 10:59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1249248933.html</t>
+          <t>/news,002812,1249496026.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>35548</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份李晓明兄弟被公安机关指定居所监视居住 为云南首富</t>
+          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-21 20:03</t>
+          <t>11-22 10:41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1249242601.html</t>
+          <t>/news,002812,1249484317.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1781</t>
+          <t>2985</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>千亿市值牛股恩捷股份董事长被监视居住  上个月曾缺席董事会</t>
+          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-21 20:03</t>
+          <t>11-22 10:01</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1249242757.html</t>
+          <t>/news,002812,1249432337.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3024</t>
+          <t>3063</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>隔膜全球龙头恩捷股份爆雷 身家700亿“云南首富兄弟”被监视居住</t>
+          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-21 19:19</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1249229737.html</t>
+          <t>/news,002812,1249406710.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>2578</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>恩捷股份开盘一字跌停</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-21 18:28</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1249220548.html</t>
+          <t>/news,002812,1249404138.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3222</t>
+          <t>923</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>财富765亿的“云南首富”兄弟 被公安机关指定居所监视居住！上市公司突发公告</t>
+          <t>恩捷股份竞价一字跌停 封单超9万手</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-21 18:10</t>
+          <t>11-22 09:41</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1249212991.html</t>
+          <t>/news,002812,1249403123.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份：公司董事长和副董事长被公安机关指定居所监视居住</t>
+          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-21 17:28</t>
+          <t>11-22 09:32</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1249204003.html</t>
+          <t>/news,002812,1249396589.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>98766</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长及副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-21 17:16</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1249199801.html</t>
+          <t>/news,002812,1249355983.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>8360</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.02亿元（11-18）</t>
+          <t>云南首富兄弟被监视居住 恩捷股份回应</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,93 +1405,93 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-21 08:47</t>
+          <t>11-22 08:38</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1248871776.html</t>
+          <t>/news,002812,1249355060.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>27974</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还6673.09万元，居电池板块第二</t>
+          <t>云南首富兄弟被监视居住 恩捷股份回应！</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-22 08:28</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1248769610.html</t>
+          <t>/news,002812,1249353086.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>74198</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值增加2.11亿元，居电池板块第三</t>
+          <t>1400亿牛股出事！正、副董事长全被监视居住 哥俩手握765亿 股价两年暴涨10倍</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-20 14:13</t>
+          <t>11-22 08:03</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1248764004.html</t>
+          <t>/news,002812,1249350919.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6850.74万元，两市排名第12（11-17）</t>
+          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1248161273.html</t>
+          <t>/news,002812,1249349269.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份11月17日获深股通增持78.93万股</t>
+          <t>恩捷股份11月21日被深股通减持46.49万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-18 07:55</t>
+          <t>11-22 07:51</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1248154507.html</t>
+          <t>/news,002812,1249348410.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>1775</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还781.23万元，融资余额12.21亿元（11-16）</t>
+          <t>恩捷股份高管被监视居住 公司股价年内跌去四成</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-22 02:08</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1247676529.html</t>
+          <t>/news,002812,1249321483.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>11.8万</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>恩捷股份11月16日获深股通增持96.03万股</t>
+          <t>突发！千亿大牛股爆雷！身家700亿“云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-21 22:35</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1247667909.html</t>
+          <t>/news,002812,1249288580.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1466</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>长城国瑞证券给予恩捷股份买入评级：湿法隔膜龙头积极扩产多重优势巩固行业地位</t>
+          <t>千亿牛股董事长、总经理被监视居住 两兄弟身家760亿为云南首富！</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,61 +1629,61 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-17 06:51</t>
+          <t>11-21 22:27</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1247660546.html</t>
+          <t>/news,002812,1249573550.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>8879</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>长城国瑞证券首次给予恩捷股份买入评级 预计2022年净利润同比增长78.05%</t>
+          <t>“云南首富”被监视居住 律师称或涉嫌刑事犯罪 千亿恩捷股份怎么了？</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-16 19:12</t>
+          <t>11-21 22:17</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1247557342.html</t>
+          <t>/news,002812,1249279283.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>1562</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入550.98万元，融资余额12.29亿元（11-15）</t>
+          <t>突发利空！董事长、总经理被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-16 08:47</t>
+          <t>11-21 22:13</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1247183341.html</t>
+          <t>/news,002812,1249278726.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>5193</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>恩捷股份11月15日被深股通减持60.88万股</t>
+          <t>公安出手！1400亿锂电隔膜龙头董事长、总经理被指定监视居住 还是云南首富</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-21 20:56</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1247176070.html</t>
+          <t>/news,002812,1249257561.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5563</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>锂电厂减产？锂电产业链企业回应：不属实</t>
+          <t>恩捷股份正副董事长双双被监视居住 关联股东四度减持曾一次性套现20亿</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-15 20:31</t>
+          <t>11-21 20:33</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1247105583.html</t>
+          <t>/news,002812,1249252443.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1076</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恩捷股份：目前公司生产经营正常、价格稳定 公司前次股份回购计划已完成</t>
+          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-15 14:27</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1246987094.html</t>
+          <t>/news,002812,1249248933.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1074</t>
+          <t>1427</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>恩捷股份：隔膜在锂电池成本中占比不高</t>
+          <t>恩捷股份李晓明兄弟被公安机关指定居所监视居住 为云南首富</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-15 14:09</t>
+          <t>11-21 20:03</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1246969309.html</t>
+          <t>/news,002812,1249242601.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>1879</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入407.9万元，融资余额12.23亿元（11-14）</t>
+          <t>千亿市值牛股恩捷股份董事长被监视居住  上个月曾缺席董事会</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-21 20:03</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1246697983.html</t>
+          <t>/news,002812,1249242757.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>3211</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恩捷股份11月14日获深股通增持24.61万股</t>
+          <t>隔膜全球龙头恩捷股份爆雷 身家700亿“云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-15 07:54</t>
+          <t>11-21 19:19</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1246690852.html</t>
+          <t>/news,002812,1249229737.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>1087</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计4745.15万元（11-11）</t>
+          <t>恩捷股份：董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,93 +1917,93 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-21 18:28</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1246196418.html</t>
+          <t>/news,002812,1249220548.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>3362</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还679.95万元，居电池板块第十一</t>
+          <t>财富765亿的“云南首富”兄弟 被公安机关指定居所监视居住！上市公司突发公告</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-13 15:06</t>
+          <t>11-21 18:10</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1246099153.html</t>
+          <t>/news,002812,1249212991.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>1582</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值减少5471.57万元，居电池板块第十</t>
+          <t>恩捷股份：公司董事长和副董事长被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-21 17:28</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1246094554.html</t>
+          <t>/news,002812,1249204003.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>10.0万</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>327</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
+          <t>恩捷股份：董事长及副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-11 08:48</t>
+          <t>11-21 17:16</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1245424052.html</t>
+          <t>/news,002812,1249199801.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交4999.32万元，折价0.52%（11-10）</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.02亿元（11-18）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-21 08:47</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1245274839.html</t>
+          <t>/news,002812,1248871776.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
+          <t>恩捷股份本周融资净偿还6673.09万元，居电池板块第二</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-10 08:46</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1244899043.html</t>
+          <t>/news,002812,1248769610.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份11月09日获深股通增持32.67万股</t>
+          <t>恩捷股份本周深股通持股市值增加2.11亿元，居电池板块第三</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-20 14:13</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1244889957.html</t>
+          <t>/news,002812,1248764004.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
+          <t>恩捷股份：融资净偿还6850.74万元，两市排名第12（11-17）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-09 13:34</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1244659718.html</t>
+          <t>/news,002812,1248161273.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份11月17日获深股通增持78.93万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-09 13:21</t>
+          <t>11-18 07:55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1244648859.html</t>
+          <t>/news,002812,1248154507.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
+          <t>恩捷股份：融资净偿还781.23万元，融资余额12.21亿元（11-16）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1244438627.html</t>
+          <t>/news,002812,1247676529.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份11月08日被深股通减持47.92万股</t>
+          <t>恩捷股份11月16日获深股通增持96.03万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1244425352.html</t>
+          <t>/news,002812,1247667909.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>1574</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
+          <t>长城国瑞证券给予恩捷股份买入评级：湿法隔膜龙头积极扩产多重优势巩固行业地位</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-08 08:47</t>
+          <t>11-17 06:51</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1243982722.html</t>
+          <t>/news,002812,1247660546.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份11月07日被深股通减持28.15万股</t>
+          <t>长城国瑞证券首次给予恩捷股份买入评级 预计2022年净利润同比增长78.05%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-08 07:57</t>
+          <t>11-16 19:12</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1243975913.html</t>
+          <t>/news,002812,1247557342.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
+          <t>恩捷股份：融资净买入550.98万元，融资余额12.29亿元（11-15）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,93 +2333,93 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-16 08:47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1243512204.html</t>
+          <t>/news,002812,1247183341.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
+          <t>恩捷股份11月15日被深股通减持60.88万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1243410172.html</t>
+          <t>/news,002812,1247176070.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>5586</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值增加1.93亿元，居电池板块第六</t>
+          <t>锂电厂减产？锂电产业链企业回应：不属实</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-06 14:04</t>
+          <t>11-15 20:31</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1243404380.html</t>
+          <t>/news,002812,1247105583.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入3535.3万元，融资余额11.85亿元（11-03）</t>
+          <t>恩捷股份：目前公司生产经营正常、价格稳定 公司前次股份回购计划已完成</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-15 14:27</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1242828085.html</t>
+          <t>/news,002812,1246987094.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>1095</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份11月03日被深股通减持32.02万股</t>
+          <t>恩捷股份：隔膜在锂电池成本中占比不高</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-04 07:47</t>
+          <t>11-15 14:09</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1242816837.html</t>
+          <t>/news,002812,1246969309.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4870.66万元，融资余额11.5亿元（11-02）</t>
+          <t>恩捷股份：融资净买入407.9万元，融资余额12.23亿元（11-14）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-03 08:51</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1242334166.html</t>
+          <t>/news,002812,1246697983.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份11月02日被深股通减持13.79万股</t>
+          <t>恩捷股份11月14日获深股通增持24.61万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-03 07:46</t>
+          <t>11-15 07:54</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1242324363.html</t>
+          <t>/news,002812,1246690852.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.57亿元（11-01）</t>
+          <t>恩捷股份：连续4日融资净偿还累计4745.15万元（11-11）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-02 08:49</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1241808977.html</t>
+          <t>/news,002812,1246196418.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份11月01日获深股通增持151.94万股</t>
+          <t>恩捷股份本周融资净偿还679.95万元，居电池板块第十一</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-02 07:46</t>
+          <t>11-13 15:06</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1241800478.html</t>
+          <t>/news,002812,1246099153.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.52亿元（10-31）</t>
+          <t>恩捷股份本周深股通持股市值减少5471.57万元，居电池板块第十</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-01 08:56</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1241305789.html</t>
+          <t>/news,002812,1246094554.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份10月31日获深股通增持31.47万股</t>
+          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-11 08:48</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1241296330.html</t>
+          <t>/news,002812,1245424052.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>方正证券维持恩捷股份推荐评级 预计2022年净利润同比增长84.35%</t>
+          <t>大宗交易：恩捷股份成交4999.32万元，折价0.52%（11-10）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 15:53</t>
+          <t>11-10 18:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1241142162.html</t>
+          <t>/news,002812,1245274839.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,29 +2707,29 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创近1年半新低</t>
+          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-31 15:37</t>
+          <t>11-10 08:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1241137253.html</t>
+          <t>/news,002812,1244899043.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还5281.78万元，融资余额11.29亿元（10-28）</t>
+          <t>恩捷股份11月09日获深股通增持32.67万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-31 09:06</t>
+          <t>11-10 07:46</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1240799779.html</t>
+          <t>/news,002812,1244889957.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还4844.21万元，居电池板块第六</t>
+          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-30 15:06</t>
+          <t>11-09 13:34</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1240712387.html</t>
+          <t>/news,002812,1244659718.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持6.49万股 最新持股量1.19亿股</t>
+          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-30 14:04</t>
+          <t>11-09 13:21</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1240706325.html</t>
+          <t>/news,002812,1244648859.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份10月28日被深股通减持212.13万股</t>
+          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-29 07:55</t>
+          <t>11-09 08:59</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1240600830.html</t>
+          <t>/news,002812,1244438627.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份11月08日被深股通减持47.92万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 15:37</t>
+          <t>11-09 07:34</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1240441086.html</t>
+          <t>/news,002812,1244425352.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还7619.05万元，融资余额11.82亿元（10-27）</t>
+          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 09:17</t>
+          <t>11-08 08:47</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1240064888.html</t>
+          <t>/news,002812,1243982722.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份10月27日获深股通增持70.47万股</t>
+          <t>恩捷股份11月07日被深股通减持28.15万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,76 +2941,76 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-28 07:52</t>
+          <t>11-08 07:57</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1240048276.html</t>
+          <t>/news,002812,1243975913.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-27 16:38</t>
+          <t>11-07 08:42</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1239877267.html</t>
+          <t>/news,002812,1243512204.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>西部证券维持恩捷股份买入评级 预计2022年净利润同比增长77.4%</t>
+          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-27 11:41</t>
+          <t>11-06 15:06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1239684583.html</t>
+          <t>/news,002812,1243410172.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11807</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
+          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 13:49</t>
+          <t>11-24 11:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1250148155.html</t>
+          <t>/news,002812,1250617763.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3719</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
+          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 13:12</t>
+          <t>11-24 09:02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1250115946.html</t>
+          <t>/news,002812,1250431988.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2198</t>
+          <t>2667</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
+          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-23 11:10</t>
+          <t>11-24 08:12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1250060834.html</t>
+          <t>/news,002812,1250423751.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10866</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
+          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-24 07:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1249948430.html</t>
+          <t>/news,002812,1250419509.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>37980</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
+          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-24 00:03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1249945562.html</t>
+          <t>/news,002812,1250362443.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-23 09:39</t>
+          <t>11-23 23:53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1249949175.html</t>
+          <t>/news,002812,1250360642.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2452</t>
+          <t>7114</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份连续第二个交易日跌停</t>
+          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-23 09:34</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1249919541.html</t>
+          <t>/news,002812,1250253514.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>8022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
+          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,61 +701,61 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-23 09:13</t>
+          <t>11-23 16:24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1250105732.html</t>
+          <t>/news,002812,1250233233.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5167</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-23 08:52</t>
+          <t>11-23 15:37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1249884669.html</t>
+          <t>/news,002812,1250219804.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>4886</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
+          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-23 08:45</t>
+          <t>11-23 15:35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1249883367.html</t>
+          <t>/news,002812,1250219714.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>6083</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份：接受贝莱德基金等机构调研</t>
+          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-23 05:45</t>
+          <t>11-23 15:13</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1249863455.html</t>
+          <t>/news,002812,1250212927.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3302</t>
+          <t>37811</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
+          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-22 23:10</t>
+          <t>11-23 13:49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1249814227.html</t>
+          <t>/news,002812,1250148155.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10136</t>
+          <t>4518</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
+          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-22 18:37</t>
+          <t>11-23 13:12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1249737387.html</t>
+          <t>/news,002812,1250115946.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6578</t>
+          <t>2477</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
+          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-22 16:57</t>
+          <t>11-23 11:10</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1249712465.html</t>
+          <t>/news,002812,1250060834.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8994</t>
+          <t>11444</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>69</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
+          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-22 16:03</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1249697654.html</t>
+          <t>/news,002812,1249948430.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7050</t>
+          <t>876</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
+          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-22 15:42</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1249691067.html</t>
+          <t>/news,002812,1249945562.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>2392</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,39 +979,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-22 15:37</t>
+          <t>11-23 09:39</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1249689323.html</t>
+          <t>/news,002812,1249949175.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3426</t>
+          <t>2841</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
+          <t>恩捷股份连续第二个交易日跌停</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-22 14:52</t>
+          <t>11-23 09:34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1249672010.html</t>
+          <t>/news,002812,1249919541.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7928</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
+          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-22 13:08</t>
+          <t>11-23 09:13</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1249585440.html</t>
+          <t>/news,002812,1250105732.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>15356</t>
+          <t>5296</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
+          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-22 12:02</t>
+          <t>11-23 08:52</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1249535718.html</t>
+          <t>/news,002812,1249884669.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12436</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
+          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-22 11:02</t>
+          <t>11-23 08:45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1249497857.html</t>
+          <t>/news,002812,1249883367.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1329</t>
+          <t>2653</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
+          <t>恩捷股份：接受贝莱德基金等机构调研</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-22 10:59</t>
+          <t>11-23 05:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1249496026.html</t>
+          <t>/news,002812,1249863455.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>35548</t>
+          <t>3415</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
+          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-22 10:41</t>
+          <t>11-22 23:10</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1249484317.html</t>
+          <t>/news,002812,1249814227.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2985</t>
+          <t>10235</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
+          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-22 10:01</t>
+          <t>11-22 18:37</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1249432337.html</t>
+          <t>/news,002812,1249737387.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3063</t>
+          <t>6732</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
+          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-22 16:57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1249406710.html</t>
+          <t>/news,002812,1249712465.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>9105</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停</t>
+          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-22 16:03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1249404138.html</t>
+          <t>/news,002812,1249697654.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恩捷股份竞价一字跌停 封单超9万手</t>
+          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,61 +1309,61 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-22 09:41</t>
+          <t>11-22 15:42</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1249403123.html</t>
+          <t>/news,002812,1249691067.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-22 09:32</t>
+          <t>11-22 15:37</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1249396589.html</t>
+          <t>/news,002812,1249689323.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>3450</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
+          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-22 14:52</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1249355983.html</t>
+          <t>/news,002812,1249672010.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8360</t>
+          <t>7965</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 恩捷股份回应</t>
+          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-22 08:38</t>
+          <t>11-22 13:08</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1249355060.html</t>
+          <t>/news,002812,1249585440.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>27974</t>
+          <t>15396</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 恩捷股份回应！</t>
+          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-22 08:28</t>
+          <t>11-22 12:02</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1249353086.html</t>
+          <t>/news,002812,1249535718.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>74198</t>
+          <t>12465</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1400亿牛股出事！正、副董事长全被监视居住 哥俩手握765亿 股价两年暴涨10倍</t>
+          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-22 08:03</t>
+          <t>11-22 11:02</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1249350919.html</t>
+          <t>/news,002812,1249497857.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1157</t>
+          <t>1354</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
+          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-22 10:59</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1249349269.html</t>
+          <t>/news,002812,1249496026.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>35760</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份11月21日被深股通减持46.49万股</t>
+          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-22 07:51</t>
+          <t>11-22 10:41</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1249348410.html</t>
+          <t>/news,002812,1249484317.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1775</t>
+          <t>2997</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恩捷股份高管被监视居住 公司股价年内跌去四成</t>
+          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-22 02:08</t>
+          <t>11-22 10:01</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1249321483.html</t>
+          <t>/news,002812,1249432337.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>11.8万</t>
+          <t>3089</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>突发！千亿大牛股爆雷！身家700亿“云南首富兄弟”被监视居住</t>
+          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-21 22:35</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1249288580.html</t>
+          <t>/news,002812,1249406710.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>2587</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>千亿牛股董事长、总经理被监视居住 两兄弟身家760亿为云南首富！</t>
+          <t>恩捷股份开盘一字跌停</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-21 22:27</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1249573550.html</t>
+          <t>/news,002812,1249404138.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8879</t>
+          <t>925</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>“云南首富”被监视居住 律师称或涉嫌刑事犯罪 千亿恩捷股份怎么了？</t>
+          <t>恩捷股份竞价一字跌停 封单超9万手</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-21 22:17</t>
+          <t>11-22 09:41</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1249279283.html</t>
+          <t>/news,002812,1249403123.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1562</t>
+          <t>2368</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>突发利空！董事长、总经理被公安机关指定居所监视居住</t>
+          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-21 22:13</t>
+          <t>11-22 09:32</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1249278726.html</t>
+          <t>/news,002812,1249396589.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>公安出手！1400亿锂电隔膜龙头董事长、总经理被指定监视居住 还是云南首富</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-21 20:56</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1249257561.html</t>
+          <t>/news,002812,1249355983.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3205</t>
+          <t>8371</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>恩捷股份正副董事长双双被监视居住 关联股东四度减持曾一次性套现20亿</t>
+          <t>云南首富兄弟被监视居住 恩捷股份回应</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-21 20:33</t>
+          <t>11-22 08:38</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1249252443.html</t>
+          <t>/news,002812,1249355060.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>28116</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
+          <t>云南首富兄弟被监视居住 恩捷股份回应！</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-21 20:27</t>
+          <t>11-22 08:28</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1249248933.html</t>
+          <t>/news,002812,1249353086.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1427</t>
+          <t>74356</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>恩捷股份李晓明兄弟被公安机关指定居所监视居住 为云南首富</t>
+          <t>1400亿牛股出事！正、副董事长全被监视居住 哥俩手握765亿 股价两年暴涨10倍</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-21 20:03</t>
+          <t>11-22 08:03</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1249242601.html</t>
+          <t>/news,002812,1249350919.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>1189</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>千亿市值牛股恩捷股份董事长被监视居住  上个月曾缺席董事会</t>
+          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-21 20:03</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1249242757.html</t>
+          <t>/news,002812,1249349269.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>隔膜全球龙头恩捷股份爆雷 身家700亿“云南首富兄弟”被监视居住</t>
+          <t>恩捷股份11月21日被深股通减持46.49万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-21 19:19</t>
+          <t>11-22 07:51</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1249229737.html</t>
+          <t>/news,002812,1249348410.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1087</t>
+          <t>1786</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>恩捷股份高管被监视居住 公司股价年内跌去四成</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-21 18:28</t>
+          <t>11-22 02:08</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1249220548.html</t>
+          <t>/news,002812,1249321483.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3362</t>
+          <t>11.9万</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>财富765亿的“云南首富”兄弟 被公安机关指定居所监视居住！上市公司突发公告</t>
+          <t>突发！千亿大牛股爆雷！身家700亿“云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-21 18:10</t>
+          <t>11-21 22:35</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1249212991.html</t>
+          <t>/news,002812,1249288580.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1582</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恩捷股份：公司董事长和副董事长被公安机关指定居所监视居住</t>
+          <t>千亿牛股董事长、总经理被监视居住 两兄弟身家760亿为云南首富！</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-21 17:28</t>
+          <t>11-21 22:27</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1249204003.html</t>
+          <t>/news,002812,1249573550.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10.0万</t>
+          <t>9096</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长及副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>“云南首富”被监视居住 律师称或涉嫌刑事犯罪 千亿恩捷股份怎么了？</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-21 17:16</t>
+          <t>11-21 22:17</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1249199801.html</t>
+          <t>/news,002812,1249279283.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>1612</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.02亿元（11-18）</t>
+          <t>突发利空！董事长、总经理被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,93 +2045,93 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-21 08:47</t>
+          <t>11-21 22:13</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1248871776.html</t>
+          <t>/news,002812,1249278726.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>5425</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还6673.09万元，居电池板块第二</t>
+          <t>公安出手！1400亿锂电隔膜龙头董事长、总经理被指定监视居住 还是云南首富</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-21 20:56</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1248769610.html</t>
+          <t>/news,002812,1249257561.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>3267</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值增加2.11亿元，居电池板块第三</t>
+          <t>恩捷股份正副董事长双双被监视居住 关联股东四度减持曾一次性套现20亿</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-20 14:13</t>
+          <t>11-21 20:33</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1248764004.html</t>
+          <t>/news,002812,1249252443.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>1459</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6850.74万元，两市排名第12（11-17）</t>
+          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1248161273.html</t>
+          <t>/news,002812,1249248933.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>恩捷股份11月17日获深股通增持78.93万股</t>
+          <t>恩捷股份李晓明兄弟被公安机关指定居所监视居住 为云南首富</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-18 07:55</t>
+          <t>11-21 20:03</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1248154507.html</t>
+          <t>/news,002812,1249242601.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还781.23万元，融资余额12.21亿元（11-16）</t>
+          <t>千亿市值牛股恩捷股份董事长被监视居住  上个月曾缺席董事会</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-21 20:03</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1247676529.html</t>
+          <t>/news,002812,1249242757.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>3257</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份11月16日获深股通增持96.03万股</t>
+          <t>隔膜全球龙头恩捷股份爆雷 身家700亿“云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-21 19:19</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1247667909.html</t>
+          <t>/news,002812,1249229737.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1574</t>
+          <t>1091</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>长城国瑞证券给予恩捷股份买入评级：湿法隔膜龙头积极扩产多重优势巩固行业地位</t>
+          <t>恩捷股份：董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-17 06:51</t>
+          <t>11-21 18:28</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1247660546.html</t>
+          <t>/news,002812,1249220548.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>3374</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,39 +2291,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>长城国瑞证券首次给予恩捷股份买入评级 预计2022年净利润同比增长78.05%</t>
+          <t>财富765亿的“云南首富”兄弟 被公安机关指定居所监视居住！上市公司突发公告</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-16 19:12</t>
+          <t>11-21 18:10</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1247557342.html</t>
+          <t>/news,002812,1249212991.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>1589</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入550.98万元，融资余额12.29亿元（11-15）</t>
+          <t>恩捷股份：公司董事长和副董事长被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-16 08:47</t>
+          <t>11-21 17:28</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1247183341.html</t>
+          <t>/news,002812,1249204003.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>10.0万</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>335</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份11月15日被深股通减持60.88万股</t>
+          <t>恩捷股份：董事长及副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-21 17:16</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1247176070.html</t>
+          <t>/news,002812,1249199801.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5586</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>锂电厂减产？锂电产业链企业回应：不属实</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.02亿元（11-18）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,83 +2397,83 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-15 20:31</t>
+          <t>11-21 08:47</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1247105583.html</t>
+          <t>/news,002812,1248871776.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份：目前公司生产经营正常、价格稳定 公司前次股份回购计划已完成</t>
+          <t>恩捷股份本周融资净偿还6673.09万元，居电池板块第二</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-15 14:27</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1246987094.html</t>
+          <t>/news,002812,1248769610.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份：隔膜在锂电池成本中占比不高</t>
+          <t>恩捷股份本周深股通持股市值增加2.11亿元，居电池板块第三</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-15 14:09</t>
+          <t>11-20 14:13</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1246969309.html</t>
+          <t>/news,002812,1248764004.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入407.9万元，融资余额12.23亿元（11-14）</t>
+          <t>恩捷股份：融资净偿还6850.74万元，两市排名第12（11-17）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1246697983.html</t>
+          <t>/news,002812,1248161273.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份11月14日获深股通增持24.61万股</t>
+          <t>恩捷股份11月17日获深股通增持78.93万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-15 07:54</t>
+          <t>11-18 07:55</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1246690852.html</t>
+          <t>/news,002812,1248154507.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计4745.15万元（11-11）</t>
+          <t>恩捷股份：融资净偿还781.23万元，融资余额12.21亿元（11-16）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1246196418.html</t>
+          <t>/news,002812,1247676529.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,103 +2579,103 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还679.95万元，居电池板块第十一</t>
+          <t>恩捷股份11月16日获深股通增持96.03万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-13 15:06</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1246099153.html</t>
+          <t>/news,002812,1247667909.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值减少5471.57万元，居电池板块第十</t>
+          <t>长城国瑞证券给予恩捷股份买入评级：湿法隔膜龙头积极扩产多重优势巩固行业地位</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-17 06:51</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1246094554.html</t>
+          <t>/news,002812,1247660546.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
+          <t>长城国瑞证券首次给予恩捷股份买入评级 预计2022年净利润同比增长78.05%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-11 08:48</t>
+          <t>11-16 19:12</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1245424052.html</t>
+          <t>/news,002812,1247557342.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交4999.32万元，折价0.52%（11-10）</t>
+          <t>恩捷股份：融资净买入550.98万元，融资余额12.29亿元（11-15）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-10 18:00</t>
+          <t>11-16 08:47</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1245274839.html</t>
+          <t>/news,002812,1247183341.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2864.06万元，融资余额12.38亿元（11-09）</t>
+          <t>恩捷股份11月15日被深股通减持60.88万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-10 08:46</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1244899043.html</t>
+          <t>/news,002812,1247176070.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>5593</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份11月09日获深股通增持32.67万股</t>
+          <t>锂电厂减产？锂电产业链企业回应：不属实</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-10 07:46</t>
+          <t>11-15 20:31</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1244889957.html</t>
+          <t>/news,002812,1247105583.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>1116</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪给予恩捷股份买入评级</t>
+          <t>恩捷股份：目前公司生产经营正常、价格稳定 公司前次股份回购计划已完成</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-09 13:34</t>
+          <t>11-15 14:27</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1244659718.html</t>
+          <t>/news,002812,1246987094.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>东吴证券国际经纪维持恩捷股份买入评级 目标价277.9元</t>
+          <t>恩捷股份：隔膜在锂电池成本中占比不高</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-09 13:21</t>
+          <t>11-15 14:09</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1244648859.html</t>
+          <t>/news,002812,1246969309.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还17.87万元，融资余额12.67亿元（11-08）</t>
+          <t>恩捷股份：融资净买入407.9万元，融资余额12.23亿元（11-14）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-09 08:59</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1244438627.html</t>
+          <t>/news,002812,1246697983.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份11月08日被深股通减持47.92万股</t>
+          <t>恩捷股份11月14日获深股通增持24.61万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-09 07:34</t>
+          <t>11-15 07:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1244425352.html</t>
+          <t>/news,002812,1246690852.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净买入累计1.65亿元（11-07）</t>
+          <t>恩捷股份：连续4日融资净偿还累计4745.15万元（11-11）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-08 08:47</t>
+          <t>11-14 08:49</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1243982722.html</t>
+          <t>/news,002812,1246196418.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份11月07日被深股通减持28.15万股</t>
+          <t>恩捷股份本周融资净偿还679.95万元，居电池板块第十一</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-08 07:57</t>
+          <t>11-13 15:06</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1243975913.html</t>
+          <t>/news,002812,1246099153.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净买入累计1.31亿元（11-04）</t>
+          <t>恩捷股份本周深股通持股市值减少5471.57万元，居电池板块第十</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-07 08:42</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1243512204.html</t>
+          <t>/news,002812,1246094554.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入5638.87万元，居电池板块第四</t>
+          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-06 15:06</t>
+          <t>11-11 08:48</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1243410172.html</t>
+          <t>/news,002812,1245424052.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2222</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
+          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 11:55</t>
+          <t>11-25 08:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1250617763.html</t>
+          <t>/news,002812,1250952319.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>166</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
+          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 09:02</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1250431988.html</t>
+          <t>/news,002812,1250949905.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2667</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>恩捷股份11月24日获深股通增持125.48万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 08:12</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1250423751.html</t>
+          <t>/news,002812,1250943693.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
+          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-24 07:48</t>
+          <t>11-24 15:20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1250419509.html</t>
+          <t>/news,002812,1250743411.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>37980</t>
+          <t>13262</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-24 00:03</t>
+          <t>11-24 11:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1250362443.html</t>
+          <t>/news,002812,1250617763.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3210</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
+          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-23 23:53</t>
+          <t>11-24 09:02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1250360642.html</t>
+          <t>/news,002812,1250431988.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7114</t>
+          <t>3087</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
+          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-24 08:12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1250253514.html</t>
+          <t>/news,002812,1250423751.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8022</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
+          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,61 +701,61 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-23 16:24</t>
+          <t>11-24 07:48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1250233233.html</t>
+          <t>/news,002812,1250419509.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>41439</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-23 15:37</t>
+          <t>11-24 00:03</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1250219804.html</t>
+          <t>/news,002812,1250362443.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4886</t>
+          <t>3666</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
+          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-23 15:35</t>
+          <t>11-23 23:53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1250219714.html</t>
+          <t>/news,002812,1250360642.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6083</t>
+          <t>7211</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
+          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-23 15:13</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1250212927.html</t>
+          <t>/news,002812,1250253514.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>37811</t>
+          <t>8217</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
+          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,61 +829,61 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-23 13:49</t>
+          <t>11-23 16:24</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1250148155.html</t>
+          <t>/news,002812,1250233233.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4518</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-23 13:12</t>
+          <t>11-23 15:37</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1250115946.html</t>
+          <t>/news,002812,1250219804.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2477</t>
+          <t>4993</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
+          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-23 11:10</t>
+          <t>11-23 15:35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1250060834.html</t>
+          <t>/news,002812,1250219714.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11444</t>
+          <t>6142</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
+          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 15:13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1249948430.html</t>
+          <t>/news,002812,1250212927.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>38761</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
+          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 13:49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1249945562.html</t>
+          <t>/news,002812,1250148155.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2392</t>
+          <t>4571</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-23 09:39</t>
+          <t>11-23 13:12</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1249949175.html</t>
+          <t>/news,002812,1250115946.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2841</t>
+          <t>2492</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份连续第二个交易日跌停</t>
+          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-23 09:34</t>
+          <t>11-23 11:10</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1249919541.html</t>
+          <t>/news,002812,1250060834.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>11464</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
+          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-23 09:13</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1250105732.html</t>
+          <t>/news,002812,1249948430.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5296</t>
+          <t>883</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
+          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-23 08:52</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1249884669.html</t>
+          <t>/news,002812,1249945562.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>2404</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
+          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-23 08:45</t>
+          <t>11-23 09:39</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1249883367.html</t>
+          <t>/news,002812,1249949175.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2653</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份：接受贝莱德基金等机构调研</t>
+          <t>恩捷股份连续第二个交易日跌停</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-23 05:45</t>
+          <t>11-23 09:34</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1249863455.html</t>
+          <t>/news,002812,1249919541.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3415</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
+          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-22 23:10</t>
+          <t>11-23 09:13</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1249814227.html</t>
+          <t>/news,002812,1250105732.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10235</t>
+          <t>5545</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
+          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-22 18:37</t>
+          <t>11-23 08:52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1249737387.html</t>
+          <t>/news,002812,1249884669.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6732</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
+          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-22 16:57</t>
+          <t>11-23 08:45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1249712465.html</t>
+          <t>/news,002812,1249883367.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>9105</t>
+          <t>2701</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
+          <t>恩捷股份：接受贝莱德基金等机构调研</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-22 16:03</t>
+          <t>11-23 05:45</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1249697654.html</t>
+          <t>/news,002812,1249863455.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>3497</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
+          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,61 +1309,61 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-22 15:42</t>
+          <t>11-22 23:10</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1249691067.html</t>
+          <t>/news,002812,1249814227.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>10288</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-22 15:37</t>
+          <t>11-22 18:37</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1249689323.html</t>
+          <t>/news,002812,1249737387.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3450</t>
+          <t>6904</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
+          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-22 14:52</t>
+          <t>11-22 16:57</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1249672010.html</t>
+          <t>/news,002812,1249712465.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7965</t>
+          <t>9164</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
+          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-22 13:08</t>
+          <t>11-22 16:03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1249585440.html</t>
+          <t>/news,002812,1249697654.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>15396</t>
+          <t>7177</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
+          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,61 +1437,61 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-22 12:02</t>
+          <t>11-22 15:42</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1249535718.html</t>
+          <t>/news,002812,1249691067.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12465</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-22 11:02</t>
+          <t>11-22 15:37</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1249497857.html</t>
+          <t>/news,002812,1249689323.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
+          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-22 10:59</t>
+          <t>11-22 14:52</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1249496026.html</t>
+          <t>/news,002812,1249672010.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>35760</t>
+          <t>7986</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
+          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-22 10:41</t>
+          <t>11-22 13:08</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1249484317.html</t>
+          <t>/news,002812,1249585440.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2997</t>
+          <t>15406</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
+          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-22 10:01</t>
+          <t>11-22 12:02</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1249432337.html</t>
+          <t>/news,002812,1249535718.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3089</t>
+          <t>12483</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
+          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-22 11:02</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1249406710.html</t>
+          <t>/news,002812,1249497857.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2587</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停</t>
+          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-22 10:59</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1249404138.html</t>
+          <t>/news,002812,1249496026.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>35809</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>恩捷股份竞价一字跌停 封单超9万手</t>
+          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-22 09:41</t>
+          <t>11-22 10:41</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1249403123.html</t>
+          <t>/news,002812,1249484317.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2368</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
+          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 09:32</t>
+          <t>11-22 10:01</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1249396589.html</t>
+          <t>/news,002812,1249432337.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>3111</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
+          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1249355983.html</t>
+          <t>/news,002812,1249406710.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8371</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 恩捷股份回应</t>
+          <t>恩捷股份开盘一字跌停</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 08:38</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1249355060.html</t>
+          <t>/news,002812,1249404138.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>28116</t>
+          <t>932</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 恩捷股份回应！</t>
+          <t>恩捷股份竞价一字跌停 封单超9万手</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 08:28</t>
+          <t>11-22 09:41</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1249353086.html</t>
+          <t>/news,002812,1249403123.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>74356</t>
+          <t>2373</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1400亿牛股出事！正、副董事长全被监视居住 哥俩手握765亿 股价两年暴涨10倍</t>
+          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 08:03</t>
+          <t>11-22 09:32</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1249350919.html</t>
+          <t>/news,002812,1249396589.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1189</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1249349269.html</t>
+          <t>/news,002812,1249355983.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>8375</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恩捷股份11月21日被深股通减持46.49万股</t>
+          <t>云南首富兄弟被监视居住 恩捷股份回应</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-22 07:51</t>
+          <t>11-22 08:38</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1249348410.html</t>
+          <t>/news,002812,1249355060.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1786</t>
+          <t>28161</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>恩捷股份高管被监视居住 公司股价年内跌去四成</t>
+          <t>云南首富兄弟被监视居住 恩捷股份回应！</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-22 02:08</t>
+          <t>11-22 08:28</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1249321483.html</t>
+          <t>/news,002812,1249353086.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>11.9万</t>
+          <t>74425</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>突发！千亿大牛股爆雷！身家700亿“云南首富兄弟”被监视居住</t>
+          <t>1400亿牛股出事！正、副董事长全被监视居住 哥俩手握765亿 股价两年暴涨10倍</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-21 22:35</t>
+          <t>11-22 08:03</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1249288580.html</t>
+          <t>/news,002812,1249350919.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>千亿牛股董事长、总经理被监视居住 两兄弟身家760亿为云南首富！</t>
+          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-21 22:27</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1249573550.html</t>
+          <t>/news,002812,1249349269.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9096</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>“云南首富”被监视居住 律师称或涉嫌刑事犯罪 千亿恩捷股份怎么了？</t>
+          <t>恩捷股份11月21日被深股通减持46.49万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-21 22:17</t>
+          <t>11-22 07:51</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1249279283.html</t>
+          <t>/news,002812,1249348410.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>1791</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>突发利空！董事长、总经理被公安机关指定居所监视居住</t>
+          <t>恩捷股份高管被监视居住 公司股价年内跌去四成</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-21 22:13</t>
+          <t>11-22 02:08</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1249278726.html</t>
+          <t>/news,002812,1249321483.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5425</t>
+          <t>11.9万</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>公安出手！1400亿锂电隔膜龙头董事长、总经理被指定监视居住 还是云南首富</t>
+          <t>突发！千亿大牛股爆雷！身家700亿“云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-21 20:56</t>
+          <t>11-21 22:35</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1249257561.html</t>
+          <t>/news,002812,1249288580.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3267</t>
+          <t>140</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份正副董事长双双被监视居住 关联股东四度减持曾一次性套现20亿</t>
+          <t>千亿牛股董事长、总经理被监视居住 两兄弟身家760亿为云南首富！</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-21 20:33</t>
+          <t>11-21 22:27</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1249252443.html</t>
+          <t>/news,002812,1249573550.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1459</t>
+          <t>9120</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
+          <t>“云南首富”被监视居住 律师称或涉嫌刑事犯罪 千亿恩捷股份怎么了？</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-21 20:27</t>
+          <t>11-21 22:17</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1249248933.html</t>
+          <t>/news,002812,1249279283.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>恩捷股份李晓明兄弟被公安机关指定居所监视居住 为云南首富</t>
+          <t>突发利空！董事长、总经理被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-21 20:03</t>
+          <t>11-21 22:13</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1249242601.html</t>
+          <t>/news,002812,1249278726.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>5480</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>千亿市值牛股恩捷股份董事长被监视居住  上个月曾缺席董事会</t>
+          <t>公安出手！1400亿锂电隔膜龙头董事长、总经理被指定监视居住 还是云南首富</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-21 20:03</t>
+          <t>11-21 20:56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1249242757.html</t>
+          <t>/news,002812,1249257561.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3257</t>
+          <t>3274</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>隔膜全球龙头恩捷股份爆雷 身家700亿“云南首富兄弟”被监视居住</t>
+          <t>恩捷股份正副董事长双双被监视居住 关联股东四度减持曾一次性套现20亿</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-21 19:19</t>
+          <t>11-21 20:33</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1249229737.html</t>
+          <t>/news,002812,1249252443.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>1470</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-21 18:28</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1249220548.html</t>
+          <t>/news,002812,1249248933.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3374</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>财富765亿的“云南首富”兄弟 被公安机关指定居所监视居住！上市公司突发公告</t>
+          <t>恩捷股份李晓明兄弟被公安机关指定居所监视居住 为云南首富</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-21 18:10</t>
+          <t>11-21 20:03</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1249212991.html</t>
+          <t>/news,002812,1249242601.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>1908</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份：公司董事长和副董事长被公安机关指定居所监视居住</t>
+          <t>千亿市值牛股恩捷股份董事长被监视居住  上个月曾缺席董事会</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-21 17:28</t>
+          <t>11-21 20:03</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1249204003.html</t>
+          <t>/news,002812,1249242757.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10.0万</t>
+          <t>3276</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长及副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>隔膜全球龙头恩捷股份爆雷 身家700亿“云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-21 17:16</t>
+          <t>11-21 19:19</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1249199801.html</t>
+          <t>/news,002812,1249229737.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.02亿元（11-18）</t>
+          <t>恩捷股份：董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,93 +2397,93 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-21 08:47</t>
+          <t>11-21 18:28</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1248871776.html</t>
+          <t>/news,002812,1249220548.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>3387</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还6673.09万元，居电池板块第二</t>
+          <t>财富765亿的“云南首富”兄弟 被公安机关指定居所监视居住！上市公司突发公告</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-21 18:10</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1248769610.html</t>
+          <t>/news,002812,1249212991.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值增加2.11亿元，居电池板块第三</t>
+          <t>恩捷股份：公司董事长和副董事长被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-20 14:13</t>
+          <t>11-21 17:28</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1248764004.html</t>
+          <t>/news,002812,1249204003.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>10.0万</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>335</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6850.74万元，两市排名第12（11-17）</t>
+          <t>恩捷股份：董事长及副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-21 17:16</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1248161273.html</t>
+          <t>/news,002812,1249199801.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份11月17日获深股通增持78.93万股</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.02亿元（11-18）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-18 07:55</t>
+          <t>11-21 08:47</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1248154507.html</t>
+          <t>/news,002812,1248871776.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还781.23万元，融资余额12.21亿元（11-16）</t>
+          <t>恩捷股份本周融资净偿还6673.09万元，居电池板块第二</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-20 15:07</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1247676529.html</t>
+          <t>/news,002812,1248769610.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,39 +2579,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份11月16日获深股通增持96.03万股</t>
+          <t>恩捷股份本周深股通持股市值增加2.11亿元，居电池板块第三</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-20 14:13</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1247667909.html</t>
+          <t>/news,002812,1248764004.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>长城国瑞证券给予恩捷股份买入评级：湿法隔膜龙头积极扩产多重优势巩固行业地位</t>
+          <t>恩捷股份：融资净偿还6850.74万元，两市排名第12（11-17）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-17 06:51</t>
+          <t>11-18 08:43</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1247660546.html</t>
+          <t>/news,002812,1248161273.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>长城国瑞证券首次给予恩捷股份买入评级 预计2022年净利润同比增长78.05%</t>
+          <t>恩捷股份11月17日获深股通增持78.93万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-16 19:12</t>
+          <t>11-18 07:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1247557342.html</t>
+          <t>/news,002812,1248154507.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入550.98万元，融资余额12.29亿元（11-15）</t>
+          <t>恩捷股份：融资净偿还781.23万元，融资余额12.21亿元（11-16）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-16 08:47</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1247183341.html</t>
+          <t>/news,002812,1247676529.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份11月15日被深股通减持60.88万股</t>
+          <t>恩捷股份11月16日获深股通增持96.03万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-17 07:52</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1247176070.html</t>
+          <t>/news,002812,1247667909.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>5593</t>
+          <t>1590</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>锂电厂减产？锂电产业链企业回应：不属实</t>
+          <t>长城国瑞证券给予恩捷股份买入评级：湿法隔膜龙头积极扩产多重优势巩固行业地位</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-15 20:31</t>
+          <t>11-17 06:51</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1247105583.html</t>
+          <t>/news,002812,1247660546.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1116</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>恩捷股份：目前公司生产经营正常、价格稳定 公司前次股份回购计划已完成</t>
+          <t>长城国瑞证券首次给予恩捷股份买入评级 预计2022年净利润同比增长78.05%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-15 14:27</t>
+          <t>11-16 19:12</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1246987094.html</t>
+          <t>/news,002812,1247557342.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份：隔膜在锂电池成本中占比不高</t>
+          <t>恩捷股份：融资净买入550.98万元，融资余额12.29亿元（11-15）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-15 14:09</t>
+          <t>11-16 08:47</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1246969309.html</t>
+          <t>/news,002812,1247183341.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入407.9万元，融资余额12.23亿元（11-14）</t>
+          <t>恩捷股份11月15日被深股通减持60.88万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-16 07:53</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1246697983.html</t>
+          <t>/news,002812,1247176070.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>5596</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份11月14日获深股通增持24.61万股</t>
+          <t>锂电厂减产？锂电产业链企业回应：不属实</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-15 07:54</t>
+          <t>11-15 20:31</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1246690852.html</t>
+          <t>/news,002812,1247105583.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计4745.15万元（11-11）</t>
+          <t>恩捷股份：目前公司生产经营正常、价格稳定 公司前次股份回购计划已完成</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-14 08:49</t>
+          <t>11-15 14:27</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1246196418.html</t>
+          <t>/news,002812,1246987094.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还679.95万元，居电池板块第十一</t>
+          <t>恩捷股份：隔膜在锂电池成本中占比不高</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-13 15:06</t>
+          <t>11-15 14:09</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1246099153.html</t>
+          <t>/news,002812,1246969309.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值减少5471.57万元，居电池板块第十</t>
+          <t>恩捷股份：融资净买入407.9万元，融资余额12.23亿元（11-14）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-15 08:48</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1246094554.html</t>
+          <t>/news,002812,1246697983.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计4130.93万元（11-10）</t>
+          <t>恩捷股份11月14日获深股通增持24.61万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-11 08:48</t>
+          <t>11-15 07:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1245424052.html</t>
+          <t>/news,002812,1246690852.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
+          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 08:55</t>
+          <t>12-05 11:20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1250952319.html</t>
+          <t>/news,002812,1255013567.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>135</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>12-05 08:59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1250949905.html</t>
+          <t>/news,002812,1254804248.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份11月24日获深股通增持125.48万股</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,93 +541,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>12-05 08:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1250943693.html</t>
+          <t>/news,002812,1254802546.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3988</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
+          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-24 15:20</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1250743411.html</t>
+          <t>/news,002812,1254649632.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13262</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
+          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-24 11:55</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1250617763.html</t>
+          <t>/news,002812,1254643123.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
+          <t>恩捷股份12月02日被深股通减持37.08万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-24 09:02</t>
+          <t>12-03 08:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1250431988.html</t>
+          <t>/news,002812,1254513718.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3087</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-24 08:12</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1250423751.html</t>
+          <t>/news,002812,1253919730.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
+          <t>恩捷股份12月01日获深股通增持121.27万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-24 07:48</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1250419509.html</t>
+          <t>/news,002812,1253914514.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>41439</t>
+          <t>2663</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-24 00:03</t>
+          <t>12-01 21:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1250362443.html</t>
+          <t>/news,002812,1253820141.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3666</t>
+          <t>3410</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
+          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-23 23:53</t>
+          <t>12-01 20:46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1250360642.html</t>
+          <t>/news,002812,1253813619.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7211</t>
+          <t>764</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
+          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>12-01 20:43</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1250253514.html</t>
+          <t>/news,002812,1253814104.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8217</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
+          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-23 16:24</t>
+          <t>12-01 08:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1250233233.html</t>
+          <t>/news,002812,1253309241.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份11月30日被深股通减持18.29万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-23 15:37</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1250219804.html</t>
+          <t>/news,002812,1253302755.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4993</t>
+          <t>2808</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
+          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,61 +893,61 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-23 15:35</t>
+          <t>11-30 23:48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1250219714.html</t>
+          <t>/news,002812,1253269026.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6142</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
+          <t>恩捷股份股价连续3日创逾19个月新低</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-23 15:13</t>
+          <t>11-30 15:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1250212927.html</t>
+          <t>/news,002812,1253120758.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>38761</t>
+          <t>2286</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
+          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-23 13:49</t>
+          <t>11-30 14:10</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1250148155.html</t>
+          <t>/news,002812,1253055817.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4571</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
+          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-23 13:12</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1250115946.html</t>
+          <t>/news,002812,1252786196.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2492</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
+          <t>恩捷股份11月29日被深股通减持441.85万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,61 +1021,61 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-23 11:10</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1250060834.html</t>
+          <t>/news,002812,1252779544.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11464</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
+          <t>恩捷股份股价连续2日创逾19个月新低</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-29 15:37</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1249948430.html</t>
+          <t>/news,002812,1252561522.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1249945562.html</t>
+          <t>/news,002812,1252223271.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2404</t>
+          <t>14794</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-23 09:39</t>
+          <t>11-29 08:14</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1249949175.html</t>
+          <t>/news,002812,1252217077.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份连续第二个交易日跌停</t>
+          <t>恩捷股份11月28日被深股通减持83.27万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-23 09:34</t>
+          <t>11-29 07:52</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1249919541.html</t>
+          <t>/news,002812,1252213406.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,39 +1171,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
+          <t>恩捷股份股价创逾19个月新低</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-23 09:13</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1250105732.html</t>
+          <t>/news,002812,1252040949.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5545</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
+          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-23 08:52</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1249884669.html</t>
+          <t>/news,002812,1251734845.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>17562</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
+          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,93 +1245,93 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-23 08:45</t>
+          <t>11-27 17:26</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1249883367.html</t>
+          <t>/news,002812,1251605230.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2701</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份：接受贝莱德基金等机构调研</t>
+          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-23 05:45</t>
+          <t>11-27 15:13</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1249863455.html</t>
+          <t>/news,002812,1251591816.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3497</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
+          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-22 23:10</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1249814227.html</t>
+          <t>/news,002812,1251584020.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>10288</t>
+          <t>760</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
+          <t>恩捷股份11月25日获深股通增持54.16万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-22 18:37</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1249737387.html</t>
+          <t>/news,002812,1251434379.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6904</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
+          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-22 16:57</t>
+          <t>11-25 08:55</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1249712465.html</t>
+          <t>/news,002812,1250952319.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>9164</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
+          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-22 16:03</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1249697654.html</t>
+          <t>/news,002812,1250949905.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7177</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
+          <t>恩捷股份11月24日获深股通增持125.48万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,61 +1437,61 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-22 15:42</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1249691067.html</t>
+          <t>/news,002812,1250943693.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>5067</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-22 15:37</t>
+          <t>11-24 15:20</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1249689323.html</t>
+          <t>/news,002812,1250743411.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3463</t>
+          <t>14752</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
+          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-22 14:52</t>
+          <t>11-24 11:55</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1249672010.html</t>
+          <t>/news,002812,1250617763.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7986</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
+          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-22 13:08</t>
+          <t>11-24 09:02</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1249585440.html</t>
+          <t>/news,002812,1250431988.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>15406</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
+          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-22 12:02</t>
+          <t>11-24 08:12</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1249535718.html</t>
+          <t>/news,002812,1250423751.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>12483</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
+          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-22 11:02</t>
+          <t>11-24 07:48</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1249497857.html</t>
+          <t>/news,002812,1250419509.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>41978</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
+          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 10:59</t>
+          <t>11-24 00:03</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1249496026.html</t>
+          <t>/news,002812,1250362443.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>35809</t>
+          <t>4418</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
+          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-22 10:41</t>
+          <t>11-23 23:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1249484317.html</t>
+          <t>/news,002812,1250360642.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>7933</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
+          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 10:01</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1249432337.html</t>
+          <t>/news,002812,1250253514.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3111</t>
+          <t>8592</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
+          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,61 +1725,61 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-23 16:24</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1249406710.html</t>
+          <t>/news,002812,1250233233.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-23 15:37</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1249404138.html</t>
+          <t>/news,002812,1250219804.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>5730</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恩捷股份竞价一字跌停 封单超9万手</t>
+          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 09:41</t>
+          <t>11-23 15:35</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1249403123.html</t>
+          <t>/news,002812,1250219714.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2373</t>
+          <t>6325</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
+          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 09:32</t>
+          <t>11-23 15:13</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1249396589.html</t>
+          <t>/news,002812,1250212927.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>39849</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
+          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-23 13:49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1249355983.html</t>
+          <t>/news,002812,1250148155.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8375</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 恩捷股份回应</t>
+          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-22 08:38</t>
+          <t>11-23 13:12</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1249355060.html</t>
+          <t>/news,002812,1250115946.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>28161</t>
+          <t>2554</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 恩捷股份回应！</t>
+          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-22 08:28</t>
+          <t>11-23 11:10</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1249353086.html</t>
+          <t>/news,002812,1250060834.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>74425</t>
+          <t>11661</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1400亿牛股出事！正、副董事长全被监视居住 哥俩手握765亿 股价两年暴涨10倍</t>
+          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-22 08:03</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1249350919.html</t>
+          <t>/news,002812,1249948430.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>910</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
+          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1249349269.html</t>
+          <t>/news,002812,1249945562.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>恩捷股份11月21日被深股通减持46.49万股</t>
+          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-22 07:51</t>
+          <t>11-23 09:39</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1249348410.html</t>
+          <t>/news,002812,1249949175.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1791</t>
+          <t>2887</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份高管被监视居住 公司股价年内跌去四成</t>
+          <t>恩捷股份连续第二个交易日跌停</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-22 02:08</t>
+          <t>11-23 09:34</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1249321483.html</t>
+          <t>/news,002812,1249919541.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>11.9万</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>突发！千亿大牛股爆雷！身家700亿“云南首富兄弟”被监视居住</t>
+          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-21 22:35</t>
+          <t>11-23 09:13</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1249288580.html</t>
+          <t>/news,002812,1250105732.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>5724</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>千亿牛股董事长、总经理被监视居住 两兄弟身家760亿为云南首富！</t>
+          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-21 22:27</t>
+          <t>11-23 08:52</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1249573550.html</t>
+          <t>/news,002812,1249884669.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>9120</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>“云南首富”被监视居住 律师称或涉嫌刑事犯罪 千亿恩捷股份怎么了？</t>
+          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-21 22:17</t>
+          <t>11-23 08:45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1249279283.html</t>
+          <t>/news,002812,1249883367.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>2756</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>突发利空！董事长、总经理被公安机关指定居所监视居住</t>
+          <t>恩捷股份：接受贝莱德基金等机构调研</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-21 22:13</t>
+          <t>11-23 05:45</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1249278726.html</t>
+          <t>/news,002812,1249863455.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5480</t>
+          <t>3642</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>公安出手！1400亿锂电隔膜龙头董事长、总经理被指定监视居住 还是云南首富</t>
+          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-21 20:56</t>
+          <t>11-22 23:10</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1249257561.html</t>
+          <t>/news,002812,1249814227.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3274</t>
+          <t>10562</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份正副董事长双双被监视居住 关联股东四度减持曾一次性套现20亿</t>
+          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-21 20:33</t>
+          <t>11-22 18:37</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1249252443.html</t>
+          <t>/news,002812,1249737387.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1470</t>
+          <t>6978</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
+          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-21 20:27</t>
+          <t>11-22 16:57</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1249248933.html</t>
+          <t>/news,002812,1249712465.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>9457</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份李晓明兄弟被公安机关指定居所监视居住 为云南首富</t>
+          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-21 20:03</t>
+          <t>11-22 16:03</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1249242601.html</t>
+          <t>/news,002812,1249697654.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1908</t>
+          <t>7256</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>千亿市值牛股恩捷股份董事长被监视居住  上个月曾缺席董事会</t>
+          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-21 20:03</t>
+          <t>11-22 15:42</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1249242757.html</t>
+          <t>/news,002812,1249691067.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3276</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>隔膜全球龙头恩捷股份爆雷 身家700亿“云南首富兄弟”被监视居住</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-21 19:19</t>
+          <t>11-22 15:37</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1249229737.html</t>
+          <t>/news,002812,1249689323.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>3610</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-21 18:28</t>
+          <t>11-22 14:52</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1249220548.html</t>
+          <t>/news,002812,1249672010.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3387</t>
+          <t>8031</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>财富765亿的“云南首富”兄弟 被公安机关指定居所监视居住！上市公司突发公告</t>
+          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-21 18:10</t>
+          <t>11-22 13:08</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1249212991.html</t>
+          <t>/news,002812,1249585440.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>15452</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份：公司董事长和副董事长被公安机关指定居所监视居住</t>
+          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-21 17:28</t>
+          <t>11-22 12:02</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1249204003.html</t>
+          <t>/news,002812,1249535718.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10.0万</t>
+          <t>12542</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长及副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-21 17:16</t>
+          <t>11-22 11:02</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1249199801.html</t>
+          <t>/news,002812,1249497857.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>1434</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.02亿元（11-18）</t>
+          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,83 +2525,83 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-21 08:47</t>
+          <t>11-22 10:59</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1248871776.html</t>
+          <t>/news,002812,1249496026.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>35958</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还6673.09万元，居电池板块第二</t>
+          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-20 15:07</t>
+          <t>11-22 10:41</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1248769610.html</t>
+          <t>/news,002812,1249484317.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份本周深股通持股市值增加2.11亿元，居电池板块第三</t>
+          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-20 14:13</t>
+          <t>11-22 10:01</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1248764004.html</t>
+          <t>/news,002812,1249432337.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>3202</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6850.74万元，两市排名第12（11-17）</t>
+          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-18 08:43</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1248161273.html</t>
+          <t>/news,002812,1249406710.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份11月17日获深股通增持78.93万股</t>
+          <t>恩捷股份开盘一字跌停</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-18 07:55</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1248154507.html</t>
+          <t>/news,002812,1249404138.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>941</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还781.23万元，融资余额12.21亿元（11-16）</t>
+          <t>恩捷股份竞价一字跌停 封单超9万手</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-22 09:41</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1247676529.html</t>
+          <t>/news,002812,1249403123.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份11月16日获深股通增持96.03万股</t>
+          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-17 07:52</t>
+          <t>11-22 09:32</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1247667909.html</t>
+          <t>/news,002812,1249396589.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1590</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>长城国瑞证券给予恩捷股份买入评级：湿法隔膜龙头积极扩产多重优势巩固行业地位</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-17 06:51</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1247660546.html</t>
+          <t>/news,002812,1249355983.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>8399</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>长城国瑞证券首次给予恩捷股份买入评级 预计2022年净利润同比增长78.05%</t>
+          <t>云南首富兄弟被监视居住 恩捷股份回应</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-16 19:12</t>
+          <t>11-22 08:38</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1247557342.html</t>
+          <t>/news,002812,1249355060.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>28302</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入550.98万元，融资余额12.29亿元（11-15）</t>
+          <t>云南首富兄弟被监视居住 恩捷股份回应！</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-16 08:47</t>
+          <t>11-22 08:28</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1247183341.html</t>
+          <t>/news,002812,1249353086.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>74657</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份11月15日被深股通减持60.88万股</t>
+          <t>1400亿牛股出事！正、副董事长全被监视居住 哥俩手握765亿 股价两年暴涨10倍</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-16 07:53</t>
+          <t>11-22 08:03</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1247176070.html</t>
+          <t>/news,002812,1249350919.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>5596</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>锂电厂减产？锂电产业链企业回应：不属实</t>
+          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-15 20:31</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1247105583.html</t>
+          <t>/news,002812,1249349269.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份：目前公司生产经营正常、价格稳定 公司前次股份回购计划已完成</t>
+          <t>恩捷股份11月21日被深股通减持46.49万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-15 14:27</t>
+          <t>11-22 07:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1246987094.html</t>
+          <t>/news,002812,1249348410.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1812</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份：隔膜在锂电池成本中占比不高</t>
+          <t>恩捷股份高管被监视居住 公司股价年内跌去四成</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-15 14:09</t>
+          <t>11-22 02:08</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1246969309.html</t>
+          <t>/news,002812,1249321483.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>11.9万</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入407.9万元，融资余额12.23亿元（11-14）</t>
+          <t>突发！千亿大牛股爆雷！身家700亿“云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-15 08:48</t>
+          <t>11-21 22:35</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1246697983.html</t>
+          <t>/news,002812,1249288580.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>恩捷股份11月14日获深股通增持24.61万股</t>
+          <t>千亿牛股董事长、总经理被监视居住 两兄弟身家760亿为云南首富！</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-15 07:54</t>
+          <t>11-21 22:27</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1246690852.html</t>
+          <t>/news,002812,1249573550.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
+          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-05 11:20</t>
+          <t>12-06 08:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1255013567.html</t>
+          <t>/news,002812,1255457024.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份12月05日被深股通减持22.81万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-05 08:59</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1254804248.html</t>
+          <t>/news,002812,1255450220.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>1907</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-05 08:50</t>
+          <t>12-05 11:20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1254802546.html</t>
+          <t>/news,002812,1255013567.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,29 +563,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-05 08:59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1254649632.html</t>
+          <t>/news,002812,1254804248.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,61 +595,61 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-05 08:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1254643123.html</t>
+          <t>/news,002812,1254802546.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份12月02日被深股通减持37.08万股</t>
+          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-03 08:00</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1254513718.html</t>
+          <t>/news,002812,1254649632.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
+          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1253919730.html</t>
+          <t>/news,002812,1254643123.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1331</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份12月01日获深股通增持121.27万股</t>
+          <t>恩捷股份12月02日被深股通减持37.08万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-03 08:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1253914514.html</t>
+          <t>/news,002812,1254513718.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2663</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
+          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 21:00</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1253820141.html</t>
+          <t>/news,002812,1253919730.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3410</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份12月01日获深股通增持121.27万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-01 20:46</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1253813619.html</t>
+          <t>/news,002812,1253914514.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>2742</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 20:43</t>
+          <t>12-01 21:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1253814104.html</t>
+          <t>/news,002812,1253820141.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
+          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 08:44</t>
+          <t>12-01 20:46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1253309241.html</t>
+          <t>/news,002812,1253813619.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>781</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份11月30日被深股通减持18.29万股</t>
+          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-01 20:43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1253302755.html</t>
+          <t>/news,002812,1253814104.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
+          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,61 +893,61 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-30 23:48</t>
+          <t>12-01 08:44</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1253269026.html</t>
+          <t>/news,002812,1253309241.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创逾19个月新低</t>
+          <t>恩捷股份11月30日被深股通减持18.29万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 15:36</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1253120758.html</t>
+          <t>/news,002812,1253302755.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2286</t>
+          <t>2843</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
+          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,61 +957,61 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-30 14:10</t>
+          <t>11-30 23:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1253055817.html</t>
+          <t>/news,002812,1253269026.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
+          <t>恩捷股份股价连续3日创逾19个月新低</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>11-30 15:36</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1252786196.html</t>
+          <t>/news,002812,1253120758.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份11月29日被深股通减持441.85万股</t>
+          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>11-30 14:10</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1252779544.html</t>
+          <t>/news,002812,1253055817.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾19个月新低</t>
+          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-29 15:37</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1252561522.html</t>
+          <t>/news,002812,1252786196.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
+          <t>恩捷股份11月29日被深股通减持441.85万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1252223271.html</t>
+          <t>/news,002812,1252779544.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>14794</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
+          <t>恩捷股份股价连续2日创逾19个月新低</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-29 08:14</t>
+          <t>11-29 15:37</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1252217077.html</t>
+          <t>/news,002812,1252561522.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>617</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份11月28日被深股通减持83.27万股</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-29 07:52</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1252213406.html</t>
+          <t>/news,002812,1252223271.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>14864</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾19个月新低</t>
+          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>11-29 08:14</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1252040949.html</t>
+          <t>/news,002812,1252217077.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
+          <t>恩捷股份11月28日被深股通减持83.27万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>11-29 07:52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1251734845.html</t>
+          <t>/news,002812,1252213406.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>17562</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
+          <t>恩捷股份股价创逾19个月新低</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-27 17:26</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1251605230.html</t>
+          <t>/news,002812,1252040949.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,135 +1267,135 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
+          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-27 15:13</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1251591816.html</t>
+          <t>/news,002812,1251734845.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>17588</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
+          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-27 17:26</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1251584020.html</t>
+          <t>/news,002812,1251605230.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>760</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份11月25日获深股通增持54.16万股</t>
+          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>11-27 15:13</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1251434379.html</t>
+          <t>/news,002812,1251591816.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
+          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-25 08:55</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1250952319.html</t>
+          <t>/news,002812,1251584020.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>762</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
+          <t>恩捷股份11月25日获深股通增持54.16万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1250949905.html</t>
+          <t>/news,002812,1251434379.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>671</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份11月24日获深股通增持125.48万股</t>
+          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-25 08:55</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1250943693.html</t>
+          <t>/news,002812,1250952319.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5067</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
+          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-24 15:20</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1250743411.html</t>
+          <t>/news,002812,1250949905.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>14752</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
+          <t>恩捷股份11月24日获深股通增持125.48万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-24 11:55</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1250617763.html</t>
+          <t>/news,002812,1250943693.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>5082</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
+          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-24 09:02</t>
+          <t>11-24 15:20</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1250431988.html</t>
+          <t>/news,002812,1250743411.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3738</t>
+          <t>14772</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 08:12</t>
+          <t>11-24 11:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1250423751.html</t>
+          <t>/news,002812,1250617763.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
+          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 07:48</t>
+          <t>11-24 09:02</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1250419509.html</t>
+          <t>/news,002812,1250431988.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>41978</t>
+          <t>3750</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 00:03</t>
+          <t>11-24 08:12</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1250362443.html</t>
+          <t>/news,002812,1250423751.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4418</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
+          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-23 23:53</t>
+          <t>11-24 07:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1250360642.html</t>
+          <t>/news,002812,1250419509.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7933</t>
+          <t>41992</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
+          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-24 00:03</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1250253514.html</t>
+          <t>/news,002812,1250362443.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>8592</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
+          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-23 16:24</t>
+          <t>11-23 23:53</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1250233233.html</t>
+          <t>/news,002812,1250360642.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>7933</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-23 15:37</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1250219804.html</t>
+          <t>/news,002812,1250253514.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5730</t>
+          <t>8595</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
+          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-23 15:35</t>
+          <t>11-23 16:24</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1250219714.html</t>
+          <t>/news,002812,1250233233.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6325</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-23 15:13</t>
+          <t>11-23 15:37</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1250212927.html</t>
+          <t>/news,002812,1250219804.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>39849</t>
+          <t>5736</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
+          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-23 13:49</t>
+          <t>11-23 15:35</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1250148155.html</t>
+          <t>/news,002812,1250219714.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>6327</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
+          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-23 13:12</t>
+          <t>11-23 15:13</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1250115946.html</t>
+          <t>/news,002812,1250212927.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>39865</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
+          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-23 11:10</t>
+          <t>11-23 13:49</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1250060834.html</t>
+          <t>/news,002812,1250148155.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>11661</t>
+          <t>4732</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
+          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 13:12</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1249948430.html</t>
+          <t>/news,002812,1250115946.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>2555</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
+          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 11:10</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1249945562.html</t>
+          <t>/news,002812,1250060834.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>11661</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-23 09:39</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1249949175.html</t>
+          <t>/news,002812,1249948430.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2887</t>
+          <t>910</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份连续第二个交易日跌停</t>
+          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-23 09:34</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1249919541.html</t>
+          <t>/news,002812,1249945562.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>2453</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
+          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-23 09:13</t>
+          <t>11-23 09:39</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1250105732.html</t>
+          <t>/news,002812,1249949175.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5724</t>
+          <t>2889</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
+          <t>恩捷股份连续第二个交易日跌停</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-23 08:52</t>
+          <t>11-23 09:34</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1249884669.html</t>
+          <t>/news,002812,1249919541.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
+          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-23 08:45</t>
+          <t>11-23 09:13</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1249883367.html</t>
+          <t>/news,002812,1250105732.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2756</t>
+          <t>5724</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>恩捷股份：接受贝莱德基金等机构调研</t>
+          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-23 05:45</t>
+          <t>11-23 08:52</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1249863455.html</t>
+          <t>/news,002812,1249884669.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3642</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
+          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-22 23:10</t>
+          <t>11-23 08:45</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1249814227.html</t>
+          <t>/news,002812,1249883367.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>10562</t>
+          <t>2758</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
+          <t>恩捷股份：接受贝莱德基金等机构调研</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-22 18:37</t>
+          <t>11-23 05:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1249737387.html</t>
+          <t>/news,002812,1249863455.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6978</t>
+          <t>3642</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
+          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-22 16:57</t>
+          <t>11-22 23:10</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1249712465.html</t>
+          <t>/news,002812,1249814227.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>9457</t>
+          <t>10562</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
+          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-22 16:03</t>
+          <t>11-22 18:37</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1249697654.html</t>
+          <t>/news,002812,1249737387.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>7256</t>
+          <t>6984</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
+          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-22 15:42</t>
+          <t>11-22 16:57</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1249691067.html</t>
+          <t>/news,002812,1249712465.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>9468</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-22 15:37</t>
+          <t>11-22 16:03</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1249689323.html</t>
+          <t>/news,002812,1249697654.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3610</t>
+          <t>7258</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
+          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-22 14:52</t>
+          <t>11-22 15:42</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1249672010.html</t>
+          <t>/news,002812,1249691067.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>8031</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-22 13:08</t>
+          <t>11-22 15:37</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1249585440.html</t>
+          <t>/news,002812,1249689323.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>15452</t>
+          <t>3613</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
+          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-22 12:02</t>
+          <t>11-22 14:52</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1249535718.html</t>
+          <t>/news,002812,1249672010.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>12542</t>
+          <t>8032</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
+          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-22 11:02</t>
+          <t>11-22 13:08</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1249497857.html</t>
+          <t>/news,002812,1249585440.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1434</t>
+          <t>15454</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
+          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-22 10:59</t>
+          <t>11-22 12:02</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1249496026.html</t>
+          <t>/news,002812,1249535718.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>35958</t>
+          <t>12542</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
+          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-22 10:41</t>
+          <t>11-22 11:02</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1249484317.html</t>
+          <t>/news,002812,1249497857.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>1436</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
+          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-22 10:01</t>
+          <t>11-22 10:59</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1249432337.html</t>
+          <t>/news,002812,1249496026.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3202</t>
+          <t>35961</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
+          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-22 10:41</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1249406710.html</t>
+          <t>/news,002812,1249484317.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停</t>
+          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-22 10:01</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1249404138.html</t>
+          <t>/news,002812,1249432337.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>3203</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份竞价一字跌停 封单超9万手</t>
+          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-22 09:41</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1249403123.html</t>
+          <t>/news,002812,1249406710.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2612</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
+          <t>恩捷股份开盘一字跌停</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-22 09:32</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1249396589.html</t>
+          <t>/news,002812,1249404138.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>946</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
+          <t>恩捷股份竞价一字跌停 封单超9万手</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-22 09:41</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1249355983.html</t>
+          <t>/news,002812,1249403123.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>8399</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 恩捷股份回应</t>
+          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-22 08:38</t>
+          <t>11-22 09:32</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1249355060.html</t>
+          <t>/news,002812,1249396589.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>28302</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 恩捷股份回应！</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-22 08:28</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1249353086.html</t>
+          <t>/news,002812,1249355983.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>74657</t>
+          <t>8399</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1400亿牛股出事！正、副董事长全被监视居住 哥俩手握765亿 股价两年暴涨10倍</t>
+          <t>云南首富兄弟被监视居住 恩捷股份回应</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-22 08:03</t>
+          <t>11-22 08:38</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1249350919.html</t>
+          <t>/news,002812,1249355060.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>28308</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
+          <t>云南首富兄弟被监视居住 恩捷股份回应！</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-22 08:28</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1249349269.html</t>
+          <t>/news,002812,1249353086.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>74661</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份11月21日被深股通减持46.49万股</t>
+          <t>1400亿牛股出事！正、副董事长全被监视居住 哥俩手握765亿 股价两年暴涨10倍</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-22 07:51</t>
+          <t>11-22 08:03</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1249348410.html</t>
+          <t>/news,002812,1249350919.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1812</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份高管被监视居住 公司股价年内跌去四成</t>
+          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-22 02:08</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1249321483.html</t>
+          <t>/news,002812,1249349269.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>11.9万</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>突发！千亿大牛股爆雷！身家700亿“云南首富兄弟”被监视居住</t>
+          <t>恩捷股份11月21日被深股通减持46.49万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-21 22:35</t>
+          <t>11-22 07:51</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1249288580.html</t>
+          <t>/news,002812,1249348410.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>1812</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>千亿牛股董事长、总经理被监视居住 两兄弟身家760亿为云南首富！</t>
+          <t>恩捷股份高管被监视居住 公司股价年内跌去四成</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-21 22:27</t>
+          <t>11-22 02:08</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1249573550.html</t>
+          <t>/news,002812,1249321483.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
+          <t>恩捷股份：连续3日融资净偿还累计7839.99万元（12-06）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 08:48</t>
+          <t>12-07 08:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1255457024.html</t>
+          <t>/news,002812,1256100295.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份12月05日被深股通减持22.81万股</t>
+          <t>恩捷股份12月06日被深股通减持272.41万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 08:00</t>
+          <t>12-07 07:55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1255450220.html</t>
+          <t>/news,002812,1256092180.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
+          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-05 11:20</t>
+          <t>12-06 08:48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1255013567.html</t>
+          <t>/news,002812,1255457024.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份12月05日被深股通减持22.81万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-05 08:59</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1254804248.html</t>
+          <t>/news,002812,1255450220.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>2054</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-05 08:50</t>
+          <t>12-05 11:20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1254802546.html</t>
+          <t>/news,002812,1255013567.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-05 08:59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1254649632.html</t>
+          <t>/news,002812,1254804248.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,61 +659,61 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-05 08:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1254643123.html</t>
+          <t>/news,002812,1254802546.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1331</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份12月02日被深股通减持37.08万股</t>
+          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-03 08:00</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1254513718.html</t>
+          <t>/news,002812,1254649632.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
+          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1253919730.html</t>
+          <t>/news,002812,1254643123.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份12月01日获深股通增持121.27万股</t>
+          <t>恩捷股份12月02日被深股通减持37.08万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-03 08:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1253914514.html</t>
+          <t>/news,002812,1254513718.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2742</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
+          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 21:00</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1253820141.html</t>
+          <t>/news,002812,1253919730.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3439</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份12月01日获深股通增持121.27万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 20:46</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1253813619.html</t>
+          <t>/news,002812,1253914514.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>781</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 20:43</t>
+          <t>12-01 21:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1253814104.html</t>
+          <t>/news,002812,1253820141.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>3460</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
+          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 08:44</t>
+          <t>12-01 20:46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1253309241.html</t>
+          <t>/news,002812,1253813619.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>799</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份11月30日被深股通减持18.29万股</t>
+          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-01 20:43</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1253302755.html</t>
+          <t>/news,002812,1253814104.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
+          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,61 +957,61 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-30 23:48</t>
+          <t>12-01 08:44</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1253269026.html</t>
+          <t>/news,002812,1253309241.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创逾19个月新低</t>
+          <t>恩捷股份11月30日被深股通减持18.29万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 15:36</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1253120758.html</t>
+          <t>/news,002812,1253302755.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2873</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
+          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,61 +1021,61 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-30 14:10</t>
+          <t>11-30 23:48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1253055817.html</t>
+          <t>/news,002812,1253269026.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
+          <t>恩捷股份股价连续3日创逾19个月新低</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>11-30 15:36</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1252786196.html</t>
+          <t>/news,002812,1253120758.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>2320</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份11月29日被深股通减持441.85万股</t>
+          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>11-30 14:10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1252779544.html</t>
+          <t>/news,002812,1253055817.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾19个月新低</t>
+          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-29 15:37</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1252561522.html</t>
+          <t>/news,002812,1252786196.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
+          <t>恩捷股份11月29日被深股通减持441.85万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1252223271.html</t>
+          <t>/news,002812,1252779544.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>14864</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
+          <t>恩捷股份股价连续2日创逾19个月新低</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-29 08:14</t>
+          <t>11-29 15:37</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1252217077.html</t>
+          <t>/news,002812,1252561522.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>620</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份11月28日被深股通减持83.27万股</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-29 07:52</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1252213406.html</t>
+          <t>/news,002812,1252223271.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>14961</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾19个月新低</t>
+          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>11-29 08:14</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1252040949.html</t>
+          <t>/news,002812,1252217077.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
+          <t>恩捷股份11月28日被深股通减持83.27万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>11-29 07:52</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1251734845.html</t>
+          <t>/news,002812,1252213406.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>17588</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
+          <t>恩捷股份股价创逾19个月新低</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-27 17:26</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1251605230.html</t>
+          <t>/news,002812,1252040949.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,135 +1331,135 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
+          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-27 15:13</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1251591816.html</t>
+          <t>/news,002812,1251734845.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>17618</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
+          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-27 17:26</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1251584020.html</t>
+          <t>/news,002812,1251605230.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>恩捷股份11月25日获深股通增持54.16万股</t>
+          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>11-27 15:13</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1251434379.html</t>
+          <t>/news,002812,1251591816.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
+          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-25 08:55</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1250952319.html</t>
+          <t>/news,002812,1251584020.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
+          <t>恩捷股份11月25日获深股通增持54.16万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1250949905.html</t>
+          <t>/news,002812,1251434379.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>恩捷股份11月24日获深股通增持125.48万股</t>
+          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-25 08:55</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1250943693.html</t>
+          <t>/news,002812,1250952319.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5082</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
+          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-24 15:20</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1250743411.html</t>
+          <t>/news,002812,1250949905.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14772</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
+          <t>恩捷股份11月24日获深股通增持125.48万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 11:55</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1250617763.html</t>
+          <t>/news,002812,1250943693.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>5101</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
+          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 09:02</t>
+          <t>11-24 15:20</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1250431988.html</t>
+          <t>/news,002812,1250743411.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3750</t>
+          <t>14796</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 08:12</t>
+          <t>11-24 11:55</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1250423751.html</t>
+          <t>/news,002812,1250617763.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
+          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-24 07:48</t>
+          <t>11-24 09:02</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1250419509.html</t>
+          <t>/news,002812,1250431988.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>41992</t>
+          <t>3757</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-24 00:03</t>
+          <t>11-24 08:12</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1250362443.html</t>
+          <t>/news,002812,1250423751.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
+          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-23 23:53</t>
+          <t>11-24 07:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1250360642.html</t>
+          <t>/news,002812,1250419509.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7933</t>
+          <t>41998</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
+          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-24 00:03</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1250253514.html</t>
+          <t>/news,002812,1250362443.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8595</t>
+          <t>4434</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
+          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,51 +1789,51 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-23 16:24</t>
+          <t>11-23 23:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1250233233.html</t>
+          <t>/news,002812,1250360642.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>7939</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-23 15:37</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1250219804.html</t>
+          <t>/news,002812,1250253514.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5736</t>
+          <t>8610</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
+          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,61 +1853,61 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-23 15:35</t>
+          <t>11-23 16:24</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1250219714.html</t>
+          <t>/news,002812,1250233233.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6327</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-23 15:13</t>
+          <t>11-23 15:37</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1250212927.html</t>
+          <t>/news,002812,1250219804.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>39865</t>
+          <t>5743</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
+          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-23 13:49</t>
+          <t>11-23 15:35</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1250148155.html</t>
+          <t>/news,002812,1250219714.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4732</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
+          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-23 13:12</t>
+          <t>11-23 15:13</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1250115946.html</t>
+          <t>/news,002812,1250212927.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2555</t>
+          <t>39875</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
+          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-23 11:10</t>
+          <t>11-23 13:49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1250060834.html</t>
+          <t>/news,002812,1250148155.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>11661</t>
+          <t>4735</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
+          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 13:12</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1249948430.html</t>
+          <t>/news,002812,1250115946.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>2557</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
+          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 11:10</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1249945562.html</t>
+          <t>/news,002812,1250060834.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2453</t>
+          <t>11663</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-23 09:39</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1249949175.html</t>
+          <t>/news,002812,1249948430.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2889</t>
+          <t>911</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份连续第二个交易日跌停</t>
+          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-23 09:34</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1249919541.html</t>
+          <t>/news,002812,1249945562.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
+          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-23 09:13</t>
+          <t>11-23 09:39</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1250105732.html</t>
+          <t>/news,002812,1249949175.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5724</t>
+          <t>2890</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
+          <t>恩捷股份连续第二个交易日跌停</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-23 08:52</t>
+          <t>11-23 09:34</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1249884669.html</t>
+          <t>/news,002812,1249919541.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
+          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-23 08:45</t>
+          <t>11-23 09:13</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1249883367.html</t>
+          <t>/news,002812,1250105732.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>5726</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份：接受贝莱德基金等机构调研</t>
+          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-23 05:45</t>
+          <t>11-23 08:52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1249863455.html</t>
+          <t>/news,002812,1249884669.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3642</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
+          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-22 23:10</t>
+          <t>11-23 08:45</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1249814227.html</t>
+          <t>/news,002812,1249883367.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10562</t>
+          <t>2759</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
+          <t>恩捷股份：接受贝莱德基金等机构调研</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-22 18:37</t>
+          <t>11-23 05:45</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1249737387.html</t>
+          <t>/news,002812,1249863455.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6984</t>
+          <t>3649</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
+          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-22 16:57</t>
+          <t>11-22 23:10</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1249712465.html</t>
+          <t>/news,002812,1249814227.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>9468</t>
+          <t>10569</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
+          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-22 16:03</t>
+          <t>11-22 18:37</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1249697654.html</t>
+          <t>/news,002812,1249737387.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>7258</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
+          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-22 15:42</t>
+          <t>11-22 16:57</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1249691067.html</t>
+          <t>/news,002812,1249712465.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>9480</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-22 15:37</t>
+          <t>11-22 16:03</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1249689323.html</t>
+          <t>/news,002812,1249697654.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3613</t>
+          <t>7259</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
+          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-22 14:52</t>
+          <t>11-22 15:42</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1249672010.html</t>
+          <t>/news,002812,1249691067.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>8032</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-22 13:08</t>
+          <t>11-22 15:37</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1249585440.html</t>
+          <t>/news,002812,1249689323.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>15454</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
+          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-22 12:02</t>
+          <t>11-22 14:52</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1249535718.html</t>
+          <t>/news,002812,1249672010.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>12542</t>
+          <t>8035</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
+          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-22 11:02</t>
+          <t>11-22 13:08</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1249497857.html</t>
+          <t>/news,002812,1249585440.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1436</t>
+          <t>15455</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
+          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-22 10:59</t>
+          <t>11-22 12:02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1249496026.html</t>
+          <t>/news,002812,1249535718.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>35961</t>
+          <t>12545</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
+          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-22 10:41</t>
+          <t>11-22 11:02</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1249484317.html</t>
+          <t>/news,002812,1249497857.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>1441</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
+          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-22 10:01</t>
+          <t>11-22 10:59</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1249432337.html</t>
+          <t>/news,002812,1249496026.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3203</t>
+          <t>35967</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
+          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-22 10:41</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1249406710.html</t>
+          <t>/news,002812,1249484317.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2612</t>
+          <t>3036</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停</t>
+          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-22 10:01</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1249404138.html</t>
+          <t>/news,002812,1249432337.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份竞价一字跌停 封单超9万手</t>
+          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-22 09:41</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1249403123.html</t>
+          <t>/news,002812,1249406710.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2462</t>
+          <t>2613</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
+          <t>恩捷股份开盘一字跌停</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-22 09:32</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1249396589.html</t>
+          <t>/news,002812,1249404138.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>943</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
+          <t>恩捷股份竞价一字跌停 封单超9万手</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-22 09:41</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1249355983.html</t>
+          <t>/news,002812,1249403123.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>8399</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 恩捷股份回应</t>
+          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-22 08:38</t>
+          <t>11-22 09:32</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1249355060.html</t>
+          <t>/news,002812,1249396589.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>28308</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 恩捷股份回应！</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-22 08:28</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1249353086.html</t>
+          <t>/news,002812,1249355983.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>74661</t>
+          <t>8401</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1400亿牛股出事！正、副董事长全被监视居住 哥俩手握765亿 股价两年暴涨10倍</t>
+          <t>云南首富兄弟被监视居住 恩捷股份回应</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-22 08:03</t>
+          <t>11-22 08:38</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1249350919.html</t>
+          <t>/news,002812,1249355060.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>28311</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
+          <t>云南首富兄弟被监视居住 恩捷股份回应！</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-22 08:28</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1249349269.html</t>
+          <t>/news,002812,1249353086.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>74670</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份11月21日被深股通减持46.49万股</t>
+          <t>1400亿牛股出事！正、副董事长全被监视居住 哥俩手握765亿 股价两年暴涨10倍</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-22 07:51</t>
+          <t>11-22 08:03</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1249348410.html</t>
+          <t>/news,002812,1249350919.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1812</t>
+          <t>1260</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>恩捷股份高管被监视居住 公司股价年内跌去四成</t>
+          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-22 02:08</t>
+          <t>11-22 07:52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1249321483.html</t>
+          <t>/news,002812,1249349269.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计7839.99万元（12-06）</t>
+          <t>恩捷股份：融资净买入101.49万元，融资余额11.19亿元（12-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 08:55</t>
+          <t>12-08 08:50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1256100295.html</t>
+          <t>/news,002812,1256766350.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份12月06日被深股通减持272.41万股</t>
+          <t>恩捷股份12月07日被深股通减持748.02万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 07:55</t>
+          <t>12-08 07:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1256092180.html</t>
+          <t>/news,002812,1256757338.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
+          <t>恩捷股份：连续3日融资净偿还累计7839.99万元（12-06）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 08:48</t>
+          <t>12-07 08:55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1255457024.html</t>
+          <t>/news,002812,1256100295.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份12月05日被深股通减持22.81万股</t>
+          <t>恩捷股份12月06日被深股通减持272.41万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 08:00</t>
+          <t>12-07 07:55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1255450220.html</t>
+          <t>/news,002812,1256092180.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2054</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
+          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-05 11:20</t>
+          <t>12-06 08:48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1255013567.html</t>
+          <t>/news,002812,1255457024.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份12月05日被深股通减持22.81万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-05 08:59</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1254804248.html</t>
+          <t>/news,002812,1255450220.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-05 08:50</t>
+          <t>12-05 11:20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1254802546.html</t>
+          <t>/news,002812,1255013567.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-05 08:59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1254649632.html</t>
+          <t>/news,002812,1254804248.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,61 +723,61 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-05 08:50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1254643123.html</t>
+          <t>/news,002812,1254802546.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1338</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份12月02日被深股通减持37.08万股</t>
+          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-03 08:00</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1254513718.html</t>
+          <t>/news,002812,1254649632.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
+          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1253919730.html</t>
+          <t>/news,002812,1254643123.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份12月01日获深股通增持121.27万股</t>
+          <t>恩捷股份12月02日被深股通减持37.08万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-03 08:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1253914514.html</t>
+          <t>/news,002812,1254513718.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
+          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 21:00</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1253820141.html</t>
+          <t>/news,002812,1253919730.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3460</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份12月01日获深股通增持121.27万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 20:46</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1253813619.html</t>
+          <t>/news,002812,1253914514.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 20:43</t>
+          <t>12-01 21:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1253814104.html</t>
+          <t>/news,002812,1253820141.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
+          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 08:44</t>
+          <t>12-01 20:46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1253309241.html</t>
+          <t>/news,002812,1253813619.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>804</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份11月30日被深股通减持18.29万股</t>
+          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-01 20:43</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1253302755.html</t>
+          <t>/news,002812,1253814104.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2873</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
+          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,61 +1021,61 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-30 23:48</t>
+          <t>12-01 08:44</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1253269026.html</t>
+          <t>/news,002812,1253309241.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创逾19个月新低</t>
+          <t>恩捷股份11月30日被深股通减持18.29万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-30 15:36</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1253120758.html</t>
+          <t>/news,002812,1253302755.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2320</t>
+          <t>2887</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
+          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,61 +1085,61 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-30 14:10</t>
+          <t>11-30 23:48</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1253055817.html</t>
+          <t>/news,002812,1253269026.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
+          <t>恩捷股份股价连续3日创逾19个月新低</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>11-30 15:36</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1252786196.html</t>
+          <t>/news,002812,1253120758.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>2329</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份11月29日被深股通减持441.85万股</t>
+          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>11-30 14:10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1252779544.html</t>
+          <t>/news,002812,1253055817.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,39 +1171,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾19个月新低</t>
+          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-29 15:37</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1252561522.html</t>
+          <t>/news,002812,1252786196.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
+          <t>恩捷股份11月29日被深股通减持441.85万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1252223271.html</t>
+          <t>/news,002812,1252779544.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>14961</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
+          <t>恩捷股份股价连续2日创逾19个月新低</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-29 08:14</t>
+          <t>11-29 15:37</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1252217077.html</t>
+          <t>/news,002812,1252561522.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份11月28日被深股通减持83.27万股</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-29 07:52</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1252213406.html</t>
+          <t>/news,002812,1252223271.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>15008</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾19个月新低</t>
+          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>11-29 08:14</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1252040949.html</t>
+          <t>/news,002812,1252217077.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
+          <t>恩捷股份11月28日被深股通减持83.27万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>11-29 07:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1251734845.html</t>
+          <t>/news,002812,1252213406.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>17618</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
+          <t>恩捷股份股价创逾19个月新低</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-27 17:26</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1251605230.html</t>
+          <t>/news,002812,1252040949.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,135 +1395,135 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
+          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-27 15:13</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1251591816.html</t>
+          <t>/news,002812,1251734845.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>17639</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
+          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-27 17:26</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1251584020.html</t>
+          <t>/news,002812,1251605230.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恩捷股份11月25日获深股通增持54.16万股</t>
+          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>11-27 15:13</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1251434379.html</t>
+          <t>/news,002812,1251591816.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
+          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-25 08:55</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1250952319.html</t>
+          <t>/news,002812,1251584020.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>766</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
+          <t>恩捷股份11月25日获深股通增持54.16万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1250949905.html</t>
+          <t>/news,002812,1251434379.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恩捷股份11月24日获深股通增持125.48万股</t>
+          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-25 08:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1250943693.html</t>
+          <t>/news,002812,1250952319.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5101</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
+          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 15:20</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1250743411.html</t>
+          <t>/news,002812,1250949905.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>14796</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
+          <t>恩捷股份11月24日获深股通增持125.48万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 11:55</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1250617763.html</t>
+          <t>/news,002812,1250943693.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>5118</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
+          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-24 09:02</t>
+          <t>11-24 15:20</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1250431988.html</t>
+          <t>/news,002812,1250743411.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3757</t>
+          <t>14813</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-24 08:12</t>
+          <t>11-24 11:55</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1250423751.html</t>
+          <t>/news,002812,1250617763.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>538</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
+          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-24 07:48</t>
+          <t>11-24 09:02</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1250419509.html</t>
+          <t>/news,002812,1250431988.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>41998</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-24 00:03</t>
+          <t>11-24 08:12</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1250362443.html</t>
+          <t>/news,002812,1250423751.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4434</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
+          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-23 23:53</t>
+          <t>11-24 07:48</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1250360642.html</t>
+          <t>/news,002812,1250419509.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7939</t>
+          <t>42005</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
+          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-24 00:03</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1250253514.html</t>
+          <t>/news,002812,1250362443.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>8610</t>
+          <t>4443</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
+          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,51 +1853,51 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-23 16:24</t>
+          <t>11-23 23:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1250233233.html</t>
+          <t>/news,002812,1250360642.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>7946</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-23 15:37</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1250219804.html</t>
+          <t>/news,002812,1250253514.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5743</t>
+          <t>8621</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
+          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,61 +1917,61 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-23 15:35</t>
+          <t>11-23 16:24</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1250219714.html</t>
+          <t>/news,002812,1250233233.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-23 15:13</t>
+          <t>11-23 15:37</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1250212927.html</t>
+          <t>/news,002812,1250219804.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>39875</t>
+          <t>5746</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
+          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-23 13:49</t>
+          <t>11-23 15:35</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1250148155.html</t>
+          <t>/news,002812,1250219714.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4735</t>
+          <t>6334</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
+          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-23 13:12</t>
+          <t>11-23 15:13</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1250115946.html</t>
+          <t>/news,002812,1250212927.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2557</t>
+          <t>39890</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
+          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-23 11:10</t>
+          <t>11-23 13:49</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1250060834.html</t>
+          <t>/news,002812,1250148155.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>11663</t>
+          <t>4737</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
+          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 13:12</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1249948430.html</t>
+          <t>/news,002812,1250115946.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>911</t>
+          <t>2559</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
+          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 11:10</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1249945562.html</t>
+          <t>/news,002812,1250060834.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>11666</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-23 09:39</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1249949175.html</t>
+          <t>/news,002812,1249948430.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2890</t>
+          <t>912</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>恩捷股份连续第二个交易日跌停</t>
+          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-23 09:34</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1249919541.html</t>
+          <t>/news,002812,1249945562.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
+          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-23 09:13</t>
+          <t>11-23 09:39</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1250105732.html</t>
+          <t>/news,002812,1249949175.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5726</t>
+          <t>2892</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
+          <t>恩捷股份连续第二个交易日跌停</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-23 08:52</t>
+          <t>11-23 09:34</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1249884669.html</t>
+          <t>/news,002812,1249919541.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
+          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-23 08:45</t>
+          <t>11-23 09:13</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1249883367.html</t>
+          <t>/news,002812,1250105732.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2759</t>
+          <t>5727</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份：接受贝莱德基金等机构调研</t>
+          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-23 05:45</t>
+          <t>11-23 08:52</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1249863455.html</t>
+          <t>/news,002812,1249884669.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3649</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
+          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-22 23:10</t>
+          <t>11-23 08:45</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1249814227.html</t>
+          <t>/news,002812,1249883367.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10569</t>
+          <t>2760</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
+          <t>恩捷股份：接受贝莱德基金等机构调研</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-22 18:37</t>
+          <t>11-23 05:45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1249737387.html</t>
+          <t>/news,002812,1249863455.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>3651</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
+          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-22 16:57</t>
+          <t>11-22 23:10</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1249712465.html</t>
+          <t>/news,002812,1249814227.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>9480</t>
+          <t>10574</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
+          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-22 16:03</t>
+          <t>11-22 18:37</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1249697654.html</t>
+          <t>/news,002812,1249737387.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7259</t>
+          <t>6995</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
+          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-22 15:42</t>
+          <t>11-22 16:57</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1249691067.html</t>
+          <t>/news,002812,1249712465.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>9487</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-22 15:37</t>
+          <t>11-22 16:03</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1249689323.html</t>
+          <t>/news,002812,1249697654.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3614</t>
+          <t>7260</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
+          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-22 14:52</t>
+          <t>11-22 15:42</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1249672010.html</t>
+          <t>/news,002812,1249691067.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>8035</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-22 13:08</t>
+          <t>11-22 15:37</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1249585440.html</t>
+          <t>/news,002812,1249689323.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>15455</t>
+          <t>3617</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
+          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-22 12:02</t>
+          <t>11-22 14:52</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1249535718.html</t>
+          <t>/news,002812,1249672010.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>12545</t>
+          <t>8036</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
+          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-22 11:02</t>
+          <t>11-22 13:08</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1249497857.html</t>
+          <t>/news,002812,1249585440.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1441</t>
+          <t>15459</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
+          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-22 10:59</t>
+          <t>11-22 12:02</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1249496026.html</t>
+          <t>/news,002812,1249535718.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>35967</t>
+          <t>12548</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
+          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-22 10:41</t>
+          <t>11-22 11:02</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1249484317.html</t>
+          <t>/news,002812,1249497857.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3036</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
+          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-22 10:01</t>
+          <t>11-22 10:59</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1249432337.html</t>
+          <t>/news,002812,1249496026.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3205</t>
+          <t>35969</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
+          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-22 10:41</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1249406710.html</t>
+          <t>/news,002812,1249484317.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>3037</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停</t>
+          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-22 10:01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1249404138.html</t>
+          <t>/news,002812,1249432337.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>3206</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份竞价一字跌停 封单超9万手</t>
+          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-22 09:41</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1249403123.html</t>
+          <t>/news,002812,1249406710.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2463</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
+          <t>恩捷股份开盘一字跌停</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-22 09:32</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1249396589.html</t>
+          <t>/news,002812,1249404138.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>948</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
+          <t>恩捷股份竞价一字跌停 封单超9万手</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-22 09:41</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1249355983.html</t>
+          <t>/news,002812,1249403123.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>8401</t>
+          <t>2465</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 恩捷股份回应</t>
+          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-22 08:38</t>
+          <t>11-22 09:32</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1249355060.html</t>
+          <t>/news,002812,1249396589.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>28311</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 恩捷股份回应！</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-22 08:28</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1249353086.html</t>
+          <t>/news,002812,1249355983.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>74670</t>
+          <t>8403</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1400亿牛股出事！正、副董事长全被监视居住 哥俩手握765亿 股价两年暴涨10倍</t>
+          <t>云南首富兄弟被监视居住 恩捷股份回应</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-22 08:03</t>
+          <t>11-22 08:38</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1249350919.html</t>
+          <t>/news,002812,1249355060.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>28317</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>实控人被监视居住 恩捷股份称目前生产经营正常</t>
+          <t>云南首富兄弟被监视居住 恩捷股份回应！</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-22 07:52</t>
+          <t>11-22 08:28</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1249349269.html</t>
+          <t>/news,002812,1249353086.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入101.49万元，融资余额11.19亿元（12-07）</t>
+          <t>恩捷股份：融资净偿还1416.34万元，融资余额11.04亿元（12-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 08:50</t>
+          <t>12-09 09:06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1256766350.html</t>
+          <t>/news,002812,1257406267.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份12月07日被深股通减持748.02万股</t>
+          <t>恩捷股份12月08日被深股通减持214.55万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-08 07:56</t>
+          <t>12-09 07:47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1256757338.html</t>
+          <t>/news,002812,1257392701.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计7839.99万元（12-06）</t>
+          <t>恩捷股份：融资净买入101.49万元，融资余额11.19亿元（12-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 08:55</t>
+          <t>12-08 08:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1256100295.html</t>
+          <t>/news,002812,1256766350.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份12月06日被深股通减持272.41万股</t>
+          <t>恩捷股份12月07日被深股通减持748.02万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-07 07:55</t>
+          <t>12-08 07:56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1256092180.html</t>
+          <t>/news,002812,1256757338.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
+          <t>恩捷股份：连续3日融资净偿还累计7839.99万元（12-06）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 08:48</t>
+          <t>12-07 08:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1255457024.html</t>
+          <t>/news,002812,1256100295.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份12月05日被深股通减持22.81万股</t>
+          <t>恩捷股份12月06日被深股通减持272.41万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 08:00</t>
+          <t>12-07 07:55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1255450220.html</t>
+          <t>/news,002812,1256092180.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2137</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
+          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-05 11:20</t>
+          <t>12-06 08:48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1255013567.html</t>
+          <t>/news,002812,1255457024.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份12月05日被深股通减持22.81万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-05 08:59</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1254804248.html</t>
+          <t>/news,002812,1255450220.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>2177</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-05 08:50</t>
+          <t>12-05 11:20</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1254802546.html</t>
+          <t>/news,002812,1255013567.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-05 08:59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1254649632.html</t>
+          <t>/news,002812,1254804248.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,61 +787,61 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-05 08:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1254643123.html</t>
+          <t>/news,002812,1254802546.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份12月02日被深股通减持37.08万股</t>
+          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-03 08:00</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1254513718.html</t>
+          <t>/news,002812,1254649632.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
+          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1253919730.html</t>
+          <t>/news,002812,1254643123.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份12月01日获深股通增持121.27万股</t>
+          <t>恩捷股份12月02日被深股通减持37.08万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-03 08:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1253914514.html</t>
+          <t>/news,002812,1254513718.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
+          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 21:00</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1253820141.html</t>
+          <t>/news,002812,1253919730.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3473</t>
+          <t>1170</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份12月01日获深股通增持121.27万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 20:46</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1253813619.html</t>
+          <t>/news,002812,1253914514.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>2868</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 20:43</t>
+          <t>12-01 21:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1253814104.html</t>
+          <t>/news,002812,1253820141.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
+          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 08:44</t>
+          <t>12-01 20:46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1253309241.html</t>
+          <t>/news,002812,1253813619.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>808</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份11月30日被深股通减持18.29万股</t>
+          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-01 20:43</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1253302755.html</t>
+          <t>/news,002812,1253814104.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2887</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
+          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,61 +1085,61 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-30 23:48</t>
+          <t>12-01 08:44</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1253269026.html</t>
+          <t>/news,002812,1253309241.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创逾19个月新低</t>
+          <t>恩捷股份11月30日被深股通减持18.29万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 15:36</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1253120758.html</t>
+          <t>/news,002812,1253302755.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>2894</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
+          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,61 +1149,61 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 14:10</t>
+          <t>11-30 23:48</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1253055817.html</t>
+          <t>/news,002812,1253269026.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
+          <t>恩捷股份股价连续3日创逾19个月新低</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>11-30 15:36</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1252786196.html</t>
+          <t>/news,002812,1253120758.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>2334</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份11月29日被深股通减持441.85万股</t>
+          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>11-30 14:10</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1252779544.html</t>
+          <t>/news,002812,1253055817.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾19个月新低</t>
+          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-29 15:37</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1252561522.html</t>
+          <t>/news,002812,1252786196.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
+          <t>恩捷股份11月29日被深股通减持441.85万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1252223271.html</t>
+          <t>/news,002812,1252779544.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>15008</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
+          <t>恩捷股份股价连续2日创逾19个月新低</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-29 08:14</t>
+          <t>11-29 15:37</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1252217077.html</t>
+          <t>/news,002812,1252561522.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份11月28日被深股通减持83.27万股</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-29 07:52</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1252213406.html</t>
+          <t>/news,002812,1252223271.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>15030</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾19个月新低</t>
+          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>11-29 08:14</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1252040949.html</t>
+          <t>/news,002812,1252217077.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
+          <t>恩捷股份11月28日被深股通减持83.27万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>11-29 07:52</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1251734845.html</t>
+          <t>/news,002812,1252213406.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>17639</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
+          <t>恩捷股份股价创逾19个月新低</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-27 17:26</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1251605230.html</t>
+          <t>/news,002812,1252040949.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,135 +1459,135 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
+          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-27 15:13</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1251591816.html</t>
+          <t>/news,002812,1251734845.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>17655</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
+          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-27 17:26</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1251584020.html</t>
+          <t>/news,002812,1251605230.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份11月25日获深股通增持54.16万股</t>
+          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>11-27 15:13</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1251434379.html</t>
+          <t>/news,002812,1251591816.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
+          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-25 08:55</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1250952319.html</t>
+          <t>/news,002812,1251584020.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>766</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
+          <t>恩捷股份11月25日获深股通增持54.16万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1250949905.html</t>
+          <t>/news,002812,1251434379.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>恩捷股份11月24日获深股通增持125.48万股</t>
+          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-25 08:55</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1250943693.html</t>
+          <t>/news,002812,1250952319.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5118</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
+          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-24 15:20</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1250743411.html</t>
+          <t>/news,002812,1250949905.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>14813</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
+          <t>恩捷股份11月24日获深股通增持125.48万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-24 11:55</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1250617763.html</t>
+          <t>/news,002812,1250943693.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>5133</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
+          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-24 09:02</t>
+          <t>11-24 15:20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1250431988.html</t>
+          <t>/news,002812,1250743411.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3764</t>
+          <t>14829</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-24 08:12</t>
+          <t>11-24 11:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1250423751.html</t>
+          <t>/news,002812,1250617763.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>538</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
+          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-24 07:48</t>
+          <t>11-24 09:02</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1250419509.html</t>
+          <t>/news,002812,1250431988.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>42005</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-24 00:03</t>
+          <t>11-24 08:12</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1250362443.html</t>
+          <t>/news,002812,1250423751.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4443</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
+          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-23 23:53</t>
+          <t>11-24 07:48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1250360642.html</t>
+          <t>/news,002812,1250419509.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>7946</t>
+          <t>42008</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
+          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-24 00:03</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1250253514.html</t>
+          <t>/news,002812,1250362443.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8621</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
+          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-23 16:24</t>
+          <t>11-23 23:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1250233233.html</t>
+          <t>/news,002812,1250360642.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>7948</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-23 15:37</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1250219804.html</t>
+          <t>/news,002812,1250253514.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5746</t>
+          <t>8624</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
+          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-23 15:35</t>
+          <t>11-23 16:24</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1250219714.html</t>
+          <t>/news,002812,1250233233.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6334</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-23 15:13</t>
+          <t>11-23 15:37</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1250212927.html</t>
+          <t>/news,002812,1250219804.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>39890</t>
+          <t>5747</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
+          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-23 13:49</t>
+          <t>11-23 15:35</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1250148155.html</t>
+          <t>/news,002812,1250219714.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4737</t>
+          <t>6334</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
+          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-23 13:12</t>
+          <t>11-23 15:13</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1250115946.html</t>
+          <t>/news,002812,1250212927.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2559</t>
+          <t>39904</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
+          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-23 11:10</t>
+          <t>11-23 13:49</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1250060834.html</t>
+          <t>/news,002812,1250148155.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>11666</t>
+          <t>4737</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
+          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 13:12</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1249948430.html</t>
+          <t>/news,002812,1250115946.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>2561</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
+          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 11:10</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1249945562.html</t>
+          <t>/news,002812,1250060834.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>11666</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-23 09:39</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1249949175.html</t>
+          <t>/news,002812,1249948430.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2892</t>
+          <t>913</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份连续第二个交易日跌停</t>
+          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-23 09:34</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1249919541.html</t>
+          <t>/news,002812,1249945562.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>2456</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
+          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-23 09:13</t>
+          <t>11-23 09:39</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1250105732.html</t>
+          <t>/news,002812,1249949175.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5727</t>
+          <t>2892</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
+          <t>恩捷股份连续第二个交易日跌停</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-23 08:52</t>
+          <t>11-23 09:34</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1249884669.html</t>
+          <t>/news,002812,1249919541.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
+          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-23 08:45</t>
+          <t>11-23 09:13</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1249883367.html</t>
+          <t>/news,002812,1250105732.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2760</t>
+          <t>5727</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份：接受贝莱德基金等机构调研</t>
+          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-23 05:45</t>
+          <t>11-23 08:52</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1249863455.html</t>
+          <t>/news,002812,1249884669.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3651</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
+          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-22 23:10</t>
+          <t>11-23 08:45</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1249814227.html</t>
+          <t>/news,002812,1249883367.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>10574</t>
+          <t>2760</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
+          <t>恩捷股份：接受贝莱德基金等机构调研</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-22 18:37</t>
+          <t>11-23 05:45</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1249737387.html</t>
+          <t>/news,002812,1249863455.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>6995</t>
+          <t>3660</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
+          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-22 16:57</t>
+          <t>11-22 23:10</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1249712465.html</t>
+          <t>/news,002812,1249814227.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9487</t>
+          <t>10581</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
+          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-22 16:03</t>
+          <t>11-22 18:37</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1249697654.html</t>
+          <t>/news,002812,1249737387.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7260</t>
+          <t>6998</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
+          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-22 15:42</t>
+          <t>11-22 16:57</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1249691067.html</t>
+          <t>/news,002812,1249712465.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>9495</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-22 15:37</t>
+          <t>11-22 16:03</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1249689323.html</t>
+          <t>/news,002812,1249697654.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3617</t>
+          <t>7260</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
+          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,61 +2589,61 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-22 14:52</t>
+          <t>11-22 15:42</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1249672010.html</t>
+          <t>/news,002812,1249691067.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8036</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-22 13:08</t>
+          <t>11-22 15:37</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1249585440.html</t>
+          <t>/news,002812,1249689323.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>15459</t>
+          <t>3617</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
+          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-22 12:02</t>
+          <t>11-22 14:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1249535718.html</t>
+          <t>/news,002812,1249672010.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>12548</t>
+          <t>8037</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
+          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-22 11:02</t>
+          <t>11-22 13:08</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1249497857.html</t>
+          <t>/news,002812,1249585440.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>15460</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
+          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-22 10:59</t>
+          <t>11-22 12:02</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1249496026.html</t>
+          <t>/news,002812,1249535718.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>35969</t>
+          <t>12548</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
+          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-22 10:41</t>
+          <t>11-22 11:02</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1249484317.html</t>
+          <t>/news,002812,1249497857.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3037</t>
+          <t>1446</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
+          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-22 10:01</t>
+          <t>11-22 10:59</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1249432337.html</t>
+          <t>/news,002812,1249496026.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3206</t>
+          <t>35970</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
+          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-22 10:41</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1249406710.html</t>
+          <t>/news,002812,1249484317.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停</t>
+          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-22 10:01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1249404138.html</t>
+          <t>/news,002812,1249432337.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>3206</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份竞价一字跌停 封单超9万手</t>
+          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-22 09:41</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1249403123.html</t>
+          <t>/news,002812,1249406710.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2465</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
+          <t>恩捷股份开盘一字跌停</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-22 09:32</t>
+          <t>11-22 09:44</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1249396589.html</t>
+          <t>/news,002812,1249404138.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>948</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
+          <t>恩捷股份竞价一字跌停 封单超9万手</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-22 09:41</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1249355983.html</t>
+          <t>/news,002812,1249403123.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>8403</t>
+          <t>2465</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 恩捷股份回应</t>
+          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-22 08:38</t>
+          <t>11-22 09:32</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1249355060.html</t>
+          <t>/news,002812,1249396589.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>28317</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 恩捷股份回应！</t>
+          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-22 08:28</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1249353086.html</t>
+          <t>/news,002812,1249355983.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1416.34万元，融资余额11.04亿元（12-08）</t>
+          <t>恩捷股份：融资净买入56.93万元，融资余额11.05亿元（12-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 09:06</t>
+          <t>12-12 08:56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1257406267.html</t>
+          <t>/news,002812,1258214626.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份12月08日被深股通减持214.55万股</t>
+          <t>恩捷股份本周融资净偿还2878.64万元，居电池板块第七</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-09 07:47</t>
+          <t>12-11 15:07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1257392701.html</t>
+          <t>/news,002812,1258089283.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,39 +531,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入101.49万元，融资余额11.19亿元（12-07）</t>
+          <t>恩捷股份本周被深股通减持20.44亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-08 08:50</t>
+          <t>12-11 14:04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1256766350.html</t>
+          <t>/news,002812,1258080934.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>25740</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份12月07日被深股通减持748.02万股</t>
+          <t>北向资金大调仓！大幅减仓这一爆雷股 重点增持这些股票（附名单）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-08 07:56</t>
+          <t>12-11 12:56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1256757338.html</t>
+          <t>/news,002812,1258076777.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计7839.99万元（12-06）</t>
+          <t>恩捷股份12月09日被深股通减持210.44万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 08:55</t>
+          <t>12-10 07:59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1256100295.html</t>
+          <t>/news,002812,1257966491.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份12月06日被深股通减持272.41万股</t>
+          <t>大宗交易：恩捷股份成交1.92亿元，成交价139.95元（12-09）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 07:55</t>
+          <t>12-09 18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1256092180.html</t>
+          <t>/news,002812,1257814232.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
+          <t>恩捷股份：融资净偿还1416.34万元，融资余额11.04亿元（12-08）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 08:48</t>
+          <t>12-09 09:06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1255457024.html</t>
+          <t>/news,002812,1257406267.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份12月05日被深股通减持22.81万股</t>
+          <t>恩捷股份12月08日被深股通减持214.55万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 08:00</t>
+          <t>12-09 07:47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1255450220.html</t>
+          <t>/news,002812,1257392701.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2177</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
+          <t>恩捷股份：融资净买入101.49万元，融资余额11.19亿元（12-07）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-05 11:20</t>
+          <t>12-08 08:50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1255013567.html</t>
+          <t>/news,002812,1256766350.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份12月07日被深股通减持748.02万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-05 08:59</t>
+          <t>12-08 07:56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1254804248.html</t>
+          <t>/news,002812,1256757338.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份：连续3日融资净偿还累计7839.99万元（12-06）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-05 08:50</t>
+          <t>12-07 08:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1254802546.html</t>
+          <t>/news,002812,1256100295.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
+          <t>恩捷股份12月06日被深股通减持272.41万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-07 07:55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1254649632.html</t>
+          <t>/news,002812,1256092180.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
+          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-06 08:48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1254643123.html</t>
+          <t>/news,002812,1255457024.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份12月02日被深股通减持37.08万股</t>
+          <t>恩捷股份12月05日被深股通减持22.81万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-03 08:00</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1254513718.html</t>
+          <t>/news,002812,1255450220.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>2214</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
+          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-05 11:20</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1253919730.html</t>
+          <t>/news,002812,1255013567.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份12月01日获深股通增持121.27万股</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-05 08:59</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1253914514.html</t>
+          <t>/news,002812,1254804248.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2868</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,51 +989,51 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 21:00</t>
+          <t>12-05 08:50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1253820141.html</t>
+          <t>/news,002812,1254802546.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3477</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 20:46</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1253813619.html</t>
+          <t>/news,002812,1254649632.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,39 +1043,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 20:43</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1253814104.html</t>
+          <t>/news,002812,1254643123.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
+          <t>恩捷股份12月02日被深股通减持37.08万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 08:44</t>
+          <t>12-03 08:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1253309241.html</t>
+          <t>/news,002812,1254513718.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份11月30日被深股通减持18.29万股</t>
+          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1253302755.html</t>
+          <t>/news,002812,1253919730.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2894</t>
+          <t>1174</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
+          <t>恩捷股份12月01日获深股通增持121.27万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,61 +1149,61 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 23:48</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1253269026.html</t>
+          <t>/news,002812,1253914514.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>2899</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创逾19个月新低</t>
+          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-30 15:36</t>
+          <t>12-01 21:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1253120758.html</t>
+          <t>/news,002812,1253820141.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2334</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
+          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 14:10</t>
+          <t>12-01 20:46</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1253055817.html</t>
+          <t>/news,002812,1253813619.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>815</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
+          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>12-01 20:43</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1252786196.html</t>
+          <t>/news,002812,1253814104.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份11月29日被深股通减持441.85万股</t>
+          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>12-01 08:44</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1252779544.html</t>
+          <t>/news,002812,1253309241.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾19个月新低</t>
+          <t>恩捷股份11月30日被深股通减持18.29万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-29 15:37</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1252561522.html</t>
+          <t>/news,002812,1253302755.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>2908</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
+          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,61 +1341,61 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>11-30 23:48</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1252223271.html</t>
+          <t>/news,002812,1253269026.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>15030</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
+          <t>恩捷股份股价连续3日创逾19个月新低</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-29 08:14</t>
+          <t>11-30 15:36</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1252217077.html</t>
+          <t>/news,002812,1253120758.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>2342</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>恩捷股份11月28日被深股通减持83.27万股</t>
+          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,61 +1405,61 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-29 07:52</t>
+          <t>11-30 14:10</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1252213406.html</t>
+          <t>/news,002812,1253055817.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾19个月新低</t>
+          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1252040949.html</t>
+          <t>/news,002812,1252786196.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
+          <t>恩捷股份11月29日被深股通减持441.85万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1251734845.html</t>
+          <t>/news,002812,1252779544.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>17655</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
+          <t>恩捷股份股价连续2日创逾19个月新低</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-27 17:26</t>
+          <t>11-29 15:37</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1251605230.html</t>
+          <t>/news,002812,1252561522.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,71 +1523,71 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-27 15:13</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1251591816.html</t>
+          <t>/news,002812,1252223271.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>15091</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
+          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-29 08:14</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1251584020.html</t>
+          <t>/news,002812,1252217077.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>恩捷股份11月25日获深股通增持54.16万股</t>
+          <t>恩捷股份11月28日被深股通减持83.27万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>11-29 07:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1251434379.html</t>
+          <t>/news,002812,1252213406.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
+          <t>恩捷股份股价创逾19个月新低</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-25 08:55</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1250952319.html</t>
+          <t>/news,002812,1252040949.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
+          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1250949905.html</t>
+          <t>/news,002812,1251734845.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>17694</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>恩捷股份11月24日获深股通增持125.48万股</t>
+          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,93 +1693,93 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-27 17:26</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1250943693.html</t>
+          <t>/news,002812,1251605230.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5133</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
+          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-24 15:20</t>
+          <t>11-27 15:13</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1250743411.html</t>
+          <t>/news,002812,1251591816.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>14829</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
+          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-24 11:55</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1250617763.html</t>
+          <t>/news,002812,1251584020.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>538</t>
+          <t>767</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
+          <t>恩捷股份11月25日获深股通增持54.16万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-24 09:02</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1250431988.html</t>
+          <t>/news,002812,1251434379.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-24 08:12</t>
+          <t>11-25 08:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1250423751.html</t>
+          <t>/news,002812,1250952319.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
+          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-24 07:48</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1250419509.html</t>
+          <t>/news,002812,1250949905.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>42008</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>恩捷股份11月24日获深股通增持125.48万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-24 00:03</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1250362443.html</t>
+          <t>/news,002812,1250943693.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4450</t>
+          <t>5154</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
+          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-23 23:53</t>
+          <t>11-24 15:20</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1250360642.html</t>
+          <t>/news,002812,1250743411.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7948</t>
+          <t>14844</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
+          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-24 11:55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1250253514.html</t>
+          <t>/news,002812,1250617763.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8624</t>
+          <t>539</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
+          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-23 16:24</t>
+          <t>11-24 09:02</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1250233233.html</t>
+          <t>/news,002812,1250431988.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-23 15:37</t>
+          <t>11-24 08:12</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1250219804.html</t>
+          <t>/news,002812,1250423751.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5747</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
+          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-23 15:35</t>
+          <t>11-24 07:48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1250219714.html</t>
+          <t>/news,002812,1250419509.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6334</t>
+          <t>42020</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
+          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-23 15:13</t>
+          <t>11-24 00:03</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1250212927.html</t>
+          <t>/news,002812,1250362443.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>39904</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
+          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-23 13:49</t>
+          <t>11-23 23:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1250148155.html</t>
+          <t>/news,002812,1250360642.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4737</t>
+          <t>7958</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
+          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-23 13:12</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1250115946.html</t>
+          <t>/news,002812,1250253514.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2561</t>
+          <t>8636</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
+          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-23 11:10</t>
+          <t>11-23 16:24</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1250060834.html</t>
+          <t>/news,002812,1250233233.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>11666</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 15:37</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1249948430.html</t>
+          <t>/news,002812,1250219804.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>5754</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
+          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 15:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1249945562.html</t>
+          <t>/news,002812,1250219714.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2456</t>
+          <t>6336</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-23 09:39</t>
+          <t>11-23 15:13</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1249949175.html</t>
+          <t>/news,002812,1250212927.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2892</t>
+          <t>39930</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份连续第二个交易日跌停</t>
+          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-23 09:34</t>
+          <t>11-23 13:49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1249919541.html</t>
+          <t>/news,002812,1250148155.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>4742</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
+          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-23 09:13</t>
+          <t>11-23 13:12</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1250105732.html</t>
+          <t>/news,002812,1250115946.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5727</t>
+          <t>2563</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
+          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-23 08:52</t>
+          <t>11-23 11:10</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1249884669.html</t>
+          <t>/news,002812,1250060834.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>11670</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
+          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-23 08:45</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1249883367.html</t>
+          <t>/news,002812,1249948430.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2760</t>
+          <t>916</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份：接受贝莱德基金等机构调研</t>
+          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-23 05:45</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1249863455.html</t>
+          <t>/news,002812,1249945562.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
+          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-22 23:10</t>
+          <t>11-23 09:39</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1249814227.html</t>
+          <t>/news,002812,1249949175.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>10581</t>
+          <t>2895</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
+          <t>恩捷股份连续第二个交易日跌停</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-22 18:37</t>
+          <t>11-23 09:34</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1249737387.html</t>
+          <t>/news,002812,1249919541.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6998</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
+          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-22 16:57</t>
+          <t>11-23 09:13</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1249712465.html</t>
+          <t>/news,002812,1250105732.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>9495</t>
+          <t>5732</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
+          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-22 16:03</t>
+          <t>11-23 08:52</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1249697654.html</t>
+          <t>/news,002812,1249884669.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7260</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
+          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,61 +2589,61 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-22 15:42</t>
+          <t>11-23 08:45</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1249691067.html</t>
+          <t>/news,002812,1249883367.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>2765</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>恩捷股份：接受贝莱德基金等机构调研</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-22 15:37</t>
+          <t>11-23 05:45</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1249689323.html</t>
+          <t>/news,002812,1249863455.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3617</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
+          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-22 14:52</t>
+          <t>11-22 23:10</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1249672010.html</t>
+          <t>/news,002812,1249814227.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>8037</t>
+          <t>10584</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
+          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-22 13:08</t>
+          <t>11-22 18:37</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1249585440.html</t>
+          <t>/news,002812,1249737387.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>15460</t>
+          <t>7006</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
+          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-22 12:02</t>
+          <t>11-22 16:57</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1249535718.html</t>
+          <t>/news,002812,1249712465.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>12548</t>
+          <t>9503</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
+          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-22 11:02</t>
+          <t>11-22 16:03</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1249497857.html</t>
+          <t>/news,002812,1249697654.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>7261</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
+          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,61 +2781,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-22 10:59</t>
+          <t>11-22 15:42</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1249496026.html</t>
+          <t>/news,002812,1249691067.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>35970</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-22 10:41</t>
+          <t>11-22 15:37</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1249484317.html</t>
+          <t>/news,002812,1249689323.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>股价跌停！恩捷股份实控人兄弟被监视居住 还是云南首富</t>
+          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-22 10:01</t>
+          <t>11-22 14:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1249432337.html</t>
+          <t>/news,002812,1249672010.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3206</t>
+          <t>8038</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>近15万手跌停封单压顶！千亿市值牛股突然暴雷 “云南首富兄弟”被监视居住</t>
+          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-22 13:08</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1249406710.html</t>
+          <t>/news,002812,1249585440.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>15460</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停</t>
+          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-22 09:44</t>
+          <t>11-22 12:02</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1249404138.html</t>
+          <t>/news,002812,1249535718.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>12555</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份竞价一字跌停 封单超9万手</t>
+          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-22 09:41</t>
+          <t>11-22 11:02</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1249403123.html</t>
+          <t>/news,002812,1249497857.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2465</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份开盘一字跌停 公司董事长和副董事长被公安机关指定居所监视居住</t>
+          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-22 09:32</t>
+          <t>11-22 10:59</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1249396589.html</t>
+          <t>/news,002812,1249496026.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>35972</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>恩捷股份：连续4日融资净偿还累计1.17亿元（11-21）</t>
+          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-22 10:41</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1249355983.html</t>
+          <t>/news,002812,1249484317.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入56.93万元，融资余额11.05亿元（12-09）</t>
+          <t>恩捷股份：融资净偿还2601.74万元，融资余额10.79亿元（12-12）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-12 08:56</t>
+          <t>12-13 08:57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1258214626.html</t>
+          <t>/news,002812,1258770450.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还2878.64万元，居电池板块第七</t>
+          <t>恩捷股份12月12日被深股通减持24.92万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-11 15:07</t>
+          <t>12-13 07:55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1258089283.html</t>
+          <t>/news,002812,1258762053.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,61 +531,61 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持20.44亿元，周内减持市值两市排名第一</t>
+          <t>恩捷股份：融资净买入56.93万元，融资余额11.05亿元（12-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 14:04</t>
+          <t>12-12 08:56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1258080934.html</t>
+          <t>/news,002812,1258214626.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25740</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>北向资金大调仓！大幅减仓这一爆雷股 重点增持这些股票（附名单）</t>
+          <t>恩捷股份本周融资净偿还2878.64万元，居电池板块第七</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-11 12:56</t>
+          <t>12-11 15:07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1258076777.html</t>
+          <t>/news,002812,1258089283.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份12月09日被深股通减持210.44万股</t>
+          <t>恩捷股份本周被深股通减持20.44亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-10 07:59</t>
+          <t>12-11 14:04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1257966491.html</t>
+          <t>/news,002812,1258080934.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>26186</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交1.92亿元，成交价139.95元（12-09）</t>
+          <t>北向资金大调仓！大幅减仓这一爆雷股 重点增持这些股票（附名单）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-09 18:00</t>
+          <t>12-11 12:56</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1257814232.html</t>
+          <t>/news,002812,1258076777.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1416.34万元，融资余额11.04亿元（12-08）</t>
+          <t>恩捷股份12月09日被深股通减持210.44万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-09 09:06</t>
+          <t>12-10 07:59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1257406267.html</t>
+          <t>/news,002812,1257966491.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>808</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份12月08日被深股通减持214.55万股</t>
+          <t>大宗交易：恩捷股份成交1.92亿元，成交价139.95元（12-09）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-09 07:47</t>
+          <t>12-09 18:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1257392701.html</t>
+          <t>/news,002812,1257814232.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入101.49万元，融资余额11.19亿元（12-07）</t>
+          <t>恩捷股份：融资净偿还1416.34万元，融资余额11.04亿元（12-08）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-08 08:50</t>
+          <t>12-09 09:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1256766350.html</t>
+          <t>/news,002812,1257406267.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份12月07日被深股通减持748.02万股</t>
+          <t>恩捷股份12月08日被深股通减持214.55万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,12 +765,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-08 07:56</t>
+          <t>12-09 07:47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1256757338.html</t>
+          <t>/news,002812,1257392701.html</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计7839.99万元（12-06）</t>
+          <t>恩捷股份：融资净买入101.49万元，融资余额11.19亿元（12-07）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-07 08:55</t>
+          <t>12-08 08:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1256100295.html</t>
+          <t>/news,002812,1256766350.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份12月06日被深股通减持272.41万股</t>
+          <t>恩捷股份12月07日被深股通减持748.02万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-07 07:55</t>
+          <t>12-08 07:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1256092180.html</t>
+          <t>/news,002812,1256757338.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
+          <t>恩捷股份：连续3日融资净偿还累计7839.99万元（12-06）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-06 08:48</t>
+          <t>12-07 08:55</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1255457024.html</t>
+          <t>/news,002812,1256100295.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份12月05日被深股通减持22.81万股</t>
+          <t>恩捷股份12月06日被深股通减持272.41万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-06 08:00</t>
+          <t>12-07 07:55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1255450220.html</t>
+          <t>/news,002812,1256092180.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2214</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
+          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-05 11:20</t>
+          <t>12-06 08:48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1255013567.html</t>
+          <t>/news,002812,1255457024.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份12月05日被深股通减持22.81万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-05 08:59</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1254804248.html</t>
+          <t>/news,002812,1255450220.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>2223</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-05 08:50</t>
+          <t>12-05 11:20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1254802546.html</t>
+          <t>/news,002812,1255013567.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-05 08:59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1254649632.html</t>
+          <t>/news,002812,1254804248.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,61 +1043,61 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-05 08:50</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1254643123.html</t>
+          <t>/news,002812,1254802546.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份12月02日被深股通减持37.08万股</t>
+          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-03 08:00</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1254513718.html</t>
+          <t>/news,002812,1254649632.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
+          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1253919730.html</t>
+          <t>/news,002812,1254643123.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1174</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份12月01日获深股通增持121.27万股</t>
+          <t>恩捷股份12月02日被深股通减持37.08万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-03 08:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1253914514.html</t>
+          <t>/news,002812,1254513718.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2899</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
+          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 21:00</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1253820141.html</t>
+          <t>/news,002812,1253919730.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份12月01日获深股通增持121.27万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 20:46</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1253813619.html</t>
+          <t>/news,002812,1253914514.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-01 20:43</t>
+          <t>12-01 21:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1253814104.html</t>
+          <t>/news,002812,1253820141.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>3493</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
+          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-01 08:44</t>
+          <t>12-01 20:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1253309241.html</t>
+          <t>/news,002812,1253813619.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>816</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恩捷股份11月30日被深股通减持18.29万股</t>
+          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-01 20:43</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1253302755.html</t>
+          <t>/news,002812,1253814104.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2908</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
+          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,61 +1341,61 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-30 23:48</t>
+          <t>12-01 08:44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1253269026.html</t>
+          <t>/news,002812,1253309241.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创逾19个月新低</t>
+          <t>恩捷股份11月30日被深股通减持18.29万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-30 15:36</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1253120758.html</t>
+          <t>/news,002812,1253302755.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2342</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
+          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,61 +1405,61 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-30 14:10</t>
+          <t>11-30 23:48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1253055817.html</t>
+          <t>/news,002812,1253269026.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>628</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
+          <t>恩捷股份股价连续3日创逾19个月新低</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>11-30 15:36</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1252786196.html</t>
+          <t>/news,002812,1253120758.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>2346</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恩捷股份11月29日被深股通减持441.85万股</t>
+          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>11-30 14:10</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1252779544.html</t>
+          <t>/news,002812,1253055817.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,39 +1491,39 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾19个月新低</t>
+          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-29 15:37</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1252561522.html</t>
+          <t>/news,002812,1252786196.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
+          <t>恩捷股份11月29日被深股通减持441.85万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1252223271.html</t>
+          <t>/news,002812,1252779544.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>15091</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
+          <t>恩捷股份股价连续2日创逾19个月新低</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-29 08:14</t>
+          <t>11-29 15:37</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1252217077.html</t>
+          <t>/news,002812,1252561522.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>恩捷股份11月28日被深股通减持83.27万股</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,51 +1597,51 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-29 07:52</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1252213406.html</t>
+          <t>/news,002812,1252223271.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>15115</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾19个月新低</t>
+          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>11-29 08:14</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1252040949.html</t>
+          <t>/news,002812,1252217077.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
+          <t>恩捷股份11月28日被深股通减持83.27万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,51 +1661,51 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>11-29 07:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1251734845.html</t>
+          <t>/news,002812,1252213406.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>17694</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
+          <t>恩捷股份股价创逾19个月新低</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-27 17:26</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1251605230.html</t>
+          <t>/news,002812,1252040949.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,135 +1715,135 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
+          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-27 15:13</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1251591816.html</t>
+          <t>/news,002812,1251734845.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>17699</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
+          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-27 17:26</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1251584020.html</t>
+          <t>/news,002812,1251605230.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恩捷股份11月25日获深股通增持54.16万股</t>
+          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>11-27 15:13</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1251434379.html</t>
+          <t>/news,002812,1251591816.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
+          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-25 08:55</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1250952319.html</t>
+          <t>/news,002812,1251584020.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>767</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
+          <t>恩捷股份11月25日获深股通增持54.16万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1250949905.html</t>
+          <t>/news,002812,1251434379.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>677</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恩捷股份11月24日获深股通增持125.48万股</t>
+          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-25 08:55</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1250943693.html</t>
+          <t>/news,002812,1250952319.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5154</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
+          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-24 15:20</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1250743411.html</t>
+          <t>/news,002812,1250949905.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>14844</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
+          <t>恩捷股份11月24日获深股通增持125.48万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-24 11:55</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1250617763.html</t>
+          <t>/news,002812,1250943693.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>5158</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
+          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-24 09:02</t>
+          <t>11-24 15:20</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1250431988.html</t>
+          <t>/news,002812,1250743411.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3776</t>
+          <t>14850</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-24 08:12</t>
+          <t>11-24 11:55</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1250423751.html</t>
+          <t>/news,002812,1250617763.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
+          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-24 07:48</t>
+          <t>11-24 09:02</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1250419509.html</t>
+          <t>/news,002812,1250431988.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>42020</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-24 00:03</t>
+          <t>11-24 08:12</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1250362443.html</t>
+          <t>/news,002812,1250423751.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4461</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
+          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-23 23:53</t>
+          <t>11-24 07:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1250360642.html</t>
+          <t>/news,002812,1250419509.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>7958</t>
+          <t>42021</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
+          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-24 00:03</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1250253514.html</t>
+          <t>/news,002812,1250362443.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>8636</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
+          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,51 +2173,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-23 16:24</t>
+          <t>11-23 23:53</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1250233233.html</t>
+          <t>/news,002812,1250360642.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>7959</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-23 15:37</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1250219804.html</t>
+          <t>/news,002812,1250253514.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5754</t>
+          <t>8636</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
+          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-23 15:35</t>
+          <t>11-23 16:24</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1250219714.html</t>
+          <t>/news,002812,1250233233.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6336</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-23 15:13</t>
+          <t>11-23 15:37</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1250212927.html</t>
+          <t>/news,002812,1250219804.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>39930</t>
+          <t>5755</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
+          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-23 13:49</t>
+          <t>11-23 15:35</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1250148155.html</t>
+          <t>/news,002812,1250219714.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4742</t>
+          <t>6336</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
+          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-23 13:12</t>
+          <t>11-23 15:13</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1250115946.html</t>
+          <t>/news,002812,1250212927.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2563</t>
+          <t>39942</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
+          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-23 11:10</t>
+          <t>11-23 13:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1250060834.html</t>
+          <t>/news,002812,1250148155.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>11670</t>
+          <t>4742</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
+          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 13:12</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1249948430.html</t>
+          <t>/news,002812,1250115946.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>2564</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
+          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 11:10</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1249945562.html</t>
+          <t>/news,002812,1250060834.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>11671</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-23 09:39</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1249949175.html</t>
+          <t>/news,002812,1249948430.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>916</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份连续第二个交易日跌停</t>
+          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-23 09:34</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1249919541.html</t>
+          <t>/news,002812,1249945562.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
+          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-23 09:13</t>
+          <t>11-23 09:39</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1250105732.html</t>
+          <t>/news,002812,1249949175.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>5732</t>
+          <t>2895</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
+          <t>恩捷股份连续第二个交易日跌停</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-23 08:52</t>
+          <t>11-23 09:34</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1249884669.html</t>
+          <t>/news,002812,1249919541.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
+          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-23 08:45</t>
+          <t>11-23 09:13</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1249883367.html</t>
+          <t>/news,002812,1250105732.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2765</t>
+          <t>5732</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份：接受贝莱德基金等机构调研</t>
+          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-23 05:45</t>
+          <t>11-23 08:52</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1249863455.html</t>
+          <t>/news,002812,1249884669.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3663</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
+          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-22 23:10</t>
+          <t>11-23 08:45</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1249814227.html</t>
+          <t>/news,002812,1249883367.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>10584</t>
+          <t>2767</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
+          <t>恩捷股份：接受贝莱德基金等机构调研</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-22 18:37</t>
+          <t>11-23 05:45</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1249737387.html</t>
+          <t>/news,002812,1249863455.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7006</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
+          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-22 16:57</t>
+          <t>11-22 23:10</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1249712465.html</t>
+          <t>/news,002812,1249814227.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>9503</t>
+          <t>10584</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
+          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-22 16:03</t>
+          <t>11-22 18:37</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1249697654.html</t>
+          <t>/news,002812,1249737387.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7261</t>
+          <t>7008</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
+          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,61 +2781,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-22 15:42</t>
+          <t>11-22 16:57</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1249691067.html</t>
+          <t>/news,002812,1249712465.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>9518</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-22 15:37</t>
+          <t>11-22 16:03</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1249689323.html</t>
+          <t>/news,002812,1249697654.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3621</t>
+          <t>7261</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
+          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-22 14:52</t>
+          <t>11-22 15:42</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1249672010.html</t>
+          <t>/news,002812,1249691067.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>8038</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-22 13:08</t>
+          <t>11-22 15:37</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1249585440.html</t>
+          <t>/news,002812,1249689323.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>15460</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
+          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-22 12:02</t>
+          <t>11-22 14:52</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1249535718.html</t>
+          <t>/news,002812,1249672010.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>12555</t>
+          <t>8038</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
+          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-22 11:02</t>
+          <t>11-22 13:08</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1249497857.html</t>
+          <t>/news,002812,1249585440.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>15460</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>锂电池ETF跌2.5% 重仓股恩捷股份跌停</t>
+          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-22 10:59</t>
+          <t>11-22 12:02</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1249496026.html</t>
+          <t>/news,002812,1249535718.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>35972</t>
+          <t>12555</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>突然崩了！千亿大白马封死跌停 11连板牛股也闪崩</t>
+          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-22 10:41</t>
+          <t>11-22 11:02</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1249484317.html</t>
+          <t>/news,002812,1249497857.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>113</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2601.74万元，融资余额10.79亿元（12-12）</t>
+          <t>恩捷股份：融资净偿还4711.8万元，融资余额10.32亿元（12-13）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 08:57</t>
+          <t>12-14 08:59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1258770450.html</t>
+          <t>/news,002812,1259356327.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份12月12日被深股通减持24.92万股</t>
+          <t>国泰君安维持恩捷股份增持评级 目标价198元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 07:55</t>
+          <t>12-13 23:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1258762053.html</t>
+          <t>/news,002812,1259267906.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入56.93万元，融资余额11.05亿元（12-09）</t>
+          <t>恩捷股份：融资净偿还2601.74万元，融资余额10.79亿元（12-12）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-12 08:56</t>
+          <t>12-13 08:57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1258214626.html</t>
+          <t>/news,002812,1258770450.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还2878.64万元，居电池板块第七</t>
+          <t>恩捷股份12月12日被深股通减持24.92万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-11 15:07</t>
+          <t>12-13 07:55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1258089283.html</t>
+          <t>/news,002812,1258762053.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,61 +595,61 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持20.44亿元，周内减持市值两市排名第一</t>
+          <t>恩捷股份：融资净买入56.93万元，融资余额11.05亿元（12-09）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-11 14:04</t>
+          <t>12-12 08:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1258080934.html</t>
+          <t>/news,002812,1258214626.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>26186</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>北向资金大调仓！大幅减仓这一爆雷股 重点增持这些股票（附名单）</t>
+          <t>恩捷股份本周融资净偿还2878.64万元，居电池板块第七</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-11 12:56</t>
+          <t>12-11 15:07</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1258076777.html</t>
+          <t>/news,002812,1258089283.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份12月09日被深股通减持210.44万股</t>
+          <t>恩捷股份本周被深股通减持20.44亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-10 07:59</t>
+          <t>12-11 14:04</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1257966491.html</t>
+          <t>/news,002812,1258080934.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>26370</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交1.92亿元，成交价139.95元（12-09）</t>
+          <t>北向资金大调仓！大幅减仓这一爆雷股 重点增持这些股票（附名单）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-09 18:00</t>
+          <t>12-11 12:56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1257814232.html</t>
+          <t>/news,002812,1258076777.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1416.34万元，融资余额11.04亿元（12-08）</t>
+          <t>恩捷股份12月09日被深股通减持210.44万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-09 09:06</t>
+          <t>12-10 07:59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1257406267.html</t>
+          <t>/news,002812,1257966491.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>829</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份12月08日被深股通减持214.55万股</t>
+          <t>大宗交易：恩捷股份成交1.92亿元，成交价139.95元（12-09）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-09 07:47</t>
+          <t>12-09 18:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1257392701.html</t>
+          <t>/news,002812,1257814232.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入101.49万元，融资余额11.19亿元（12-07）</t>
+          <t>恩捷股份：融资净偿还1416.34万元，融资余额11.04亿元（12-08）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-08 08:50</t>
+          <t>12-09 09:06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1256766350.html</t>
+          <t>/news,002812,1257406267.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份12月07日被深股通减持748.02万股</t>
+          <t>恩捷股份12月08日被深股通减持214.55万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,12 +829,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-08 07:56</t>
+          <t>12-09 07:47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1256757338.html</t>
+          <t>/news,002812,1257392701.html</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计7839.99万元（12-06）</t>
+          <t>恩捷股份：融资净买入101.49万元，融资余额11.19亿元（12-07）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-07 08:55</t>
+          <t>12-08 08:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1256100295.html</t>
+          <t>/news,002812,1256766350.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份12月06日被深股通减持272.41万股</t>
+          <t>恩捷股份12月07日被深股通减持748.02万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-07 07:55</t>
+          <t>12-08 07:56</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1256092180.html</t>
+          <t>/news,002812,1256757338.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
+          <t>恩捷股份：连续3日融资净偿还累计7839.99万元（12-06）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-06 08:48</t>
+          <t>12-07 08:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1255457024.html</t>
+          <t>/news,002812,1256100295.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份12月05日被深股通减持22.81万股</t>
+          <t>恩捷股份12月06日被深股通减持272.41万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-06 08:00</t>
+          <t>12-07 07:55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1255450220.html</t>
+          <t>/news,002812,1256092180.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2223</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
+          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-05 11:20</t>
+          <t>12-06 08:48</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1255013567.html</t>
+          <t>/news,002812,1255457024.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份12月05日被深股通减持22.81万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-05 08:59</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1254804248.html</t>
+          <t>/news,002812,1255450220.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>2244</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-05 08:50</t>
+          <t>12-05 11:20</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1254802546.html</t>
+          <t>/news,002812,1255013567.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-05 08:59</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1254649632.html</t>
+          <t>/news,002812,1254804248.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,61 +1107,61 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-05 08:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1254643123.html</t>
+          <t>/news,002812,1254802546.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份12月02日被深股通减持37.08万股</t>
+          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-03 08:00</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1254513718.html</t>
+          <t>/news,002812,1254649632.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,39 +1171,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
+          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1253919730.html</t>
+          <t>/news,002812,1254643123.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份12月01日获深股通增持121.27万股</t>
+          <t>恩捷股份12月02日被深股通减持37.08万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-03 08:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1253914514.html</t>
+          <t>/news,002812,1254513718.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2909</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
+          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-01 21:00</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1253820141.html</t>
+          <t>/news,002812,1253919730.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3493</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份12月01日获深股通增持121.27万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-01 20:46</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1253813619.html</t>
+          <t>/news,002812,1253914514.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>2918</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-01 20:43</t>
+          <t>12-01 21:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1253814104.html</t>
+          <t>/news,002812,1253820141.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
+          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-01 08:44</t>
+          <t>12-01 20:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1253309241.html</t>
+          <t>/news,002812,1253813619.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份11月30日被深股通减持18.29万股</t>
+          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-01 20:43</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1253302755.html</t>
+          <t>/news,002812,1253814104.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
+          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,61 +1405,61 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-30 23:48</t>
+          <t>12-01 08:44</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1253269026.html</t>
+          <t>/news,002812,1253309241.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创逾19个月新低</t>
+          <t>恩捷股份11月30日被深股通减持18.29万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-30 15:36</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1253120758.html</t>
+          <t>/news,002812,1253302755.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2346</t>
+          <t>2915</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
+          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,61 +1469,61 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-30 14:10</t>
+          <t>11-30 23:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1253055817.html</t>
+          <t>/news,002812,1253269026.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
+          <t>恩捷股份股价连续3日创逾19个月新低</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>11-30 15:36</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1252786196.html</t>
+          <t>/news,002812,1253120758.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>2347</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份11月29日被深股通减持441.85万股</t>
+          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>11-30 14:10</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1252779544.html</t>
+          <t>/news,002812,1253055817.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾19个月新低</t>
+          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-29 15:37</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1252561522.html</t>
+          <t>/news,002812,1252786196.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
+          <t>恩捷股份11月29日被深股通减持441.85万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,51 +1597,51 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1252223271.html</t>
+          <t>/news,002812,1252779544.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>15115</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
+          <t>恩捷股份股价连续2日创逾19个月新低</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-29 08:14</t>
+          <t>11-29 15:37</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1252217077.html</t>
+          <t>/news,002812,1252561522.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>624</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>恩捷股份11月28日被深股通减持83.27万股</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,51 +1661,51 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-29 07:52</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1252213406.html</t>
+          <t>/news,002812,1252223271.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>15129</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾19个月新低</t>
+          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>11-29 08:14</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1252040949.html</t>
+          <t>/news,002812,1252217077.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
+          <t>恩捷股份11月28日被深股通减持83.27万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>11-29 07:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1251734845.html</t>
+          <t>/news,002812,1252213406.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>17699</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
+          <t>恩捷股份股价创逾19个月新低</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-27 17:26</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1251605230.html</t>
+          <t>/news,002812,1252040949.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,135 +1779,135 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
+          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-27 15:13</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1251591816.html</t>
+          <t>/news,002812,1251734845.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>17704</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
+          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-27 17:26</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1251584020.html</t>
+          <t>/news,002812,1251605230.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>恩捷股份11月25日获深股通增持54.16万股</t>
+          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>11-27 15:13</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1251434379.html</t>
+          <t>/news,002812,1251591816.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
+          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-25 08:55</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1250952319.html</t>
+          <t>/news,002812,1251584020.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>768</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
+          <t>恩捷股份11月25日获深股通增持54.16万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1250949905.html</t>
+          <t>/news,002812,1251434379.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>679</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>恩捷股份11月24日获深股通增持125.48万股</t>
+          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-25 08:55</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1250943693.html</t>
+          <t>/news,002812,1250952319.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5158</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
+          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-24 15:20</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1250743411.html</t>
+          <t>/news,002812,1250949905.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>14850</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
+          <t>恩捷股份11月24日获深股通增持125.48万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-24 11:55</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1250617763.html</t>
+          <t>/news,002812,1250943693.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>5166</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
+          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-24 09:02</t>
+          <t>11-24 15:20</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1250431988.html</t>
+          <t>/news,002812,1250743411.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3780</t>
+          <t>14853</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-24 08:12</t>
+          <t>11-24 11:55</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1250423751.html</t>
+          <t>/news,002812,1250617763.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>541</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
+          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-24 07:48</t>
+          <t>11-24 09:02</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1250419509.html</t>
+          <t>/news,002812,1250431988.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>42021</t>
+          <t>3786</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-24 00:03</t>
+          <t>11-24 08:12</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1250362443.html</t>
+          <t>/news,002812,1250423751.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4461</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
+          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-23 23:53</t>
+          <t>11-24 07:48</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1250360642.html</t>
+          <t>/news,002812,1250419509.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7959</t>
+          <t>42022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
+          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-24 00:03</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1250253514.html</t>
+          <t>/news,002812,1250362443.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8636</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
+          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,51 +2237,51 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-23 16:24</t>
+          <t>11-23 23:53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1250233233.html</t>
+          <t>/news,002812,1250360642.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>7961</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-23 15:37</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1250219804.html</t>
+          <t>/news,002812,1250253514.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5755</t>
+          <t>8637</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
+          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-23 15:35</t>
+          <t>11-23 16:24</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1250219714.html</t>
+          <t>/news,002812,1250233233.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6336</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-23 15:13</t>
+          <t>11-23 15:37</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1250212927.html</t>
+          <t>/news,002812,1250219804.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>39942</t>
+          <t>5756</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
+          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-23 13:49</t>
+          <t>11-23 15:35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1250148155.html</t>
+          <t>/news,002812,1250219714.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4742</t>
+          <t>6337</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
+          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-23 13:12</t>
+          <t>11-23 15:13</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1250115946.html</t>
+          <t>/news,002812,1250212927.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2564</t>
+          <t>39946</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
+          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-23 11:10</t>
+          <t>11-23 13:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1250060834.html</t>
+          <t>/news,002812,1250148155.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>11671</t>
+          <t>4746</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
+          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 13:12</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1249948430.html</t>
+          <t>/news,002812,1250115946.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>2565</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
+          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 11:10</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1249945562.html</t>
+          <t>/news,002812,1250060834.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>11678</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-23 09:39</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1249949175.html</t>
+          <t>/news,002812,1249948430.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>916</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份连续第二个交易日跌停</t>
+          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-23 09:34</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1249919541.html</t>
+          <t>/news,002812,1249945562.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
+          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-23 09:13</t>
+          <t>11-23 09:39</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1250105732.html</t>
+          <t>/news,002812,1249949175.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>5732</t>
+          <t>2895</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
+          <t>恩捷股份连续第二个交易日跌停</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-23 08:52</t>
+          <t>11-23 09:34</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1249884669.html</t>
+          <t>/news,002812,1249919541.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
+          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-23 08:45</t>
+          <t>11-23 09:13</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1249883367.html</t>
+          <t>/news,002812,1250105732.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2767</t>
+          <t>5732</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份：接受贝莱德基金等机构调研</t>
+          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-23 05:45</t>
+          <t>11-23 08:52</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1249863455.html</t>
+          <t>/news,002812,1249884669.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3663</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
+          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-22 23:10</t>
+          <t>11-23 08:45</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1249814227.html</t>
+          <t>/news,002812,1249883367.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>10584</t>
+          <t>2767</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
+          <t>恩捷股份：接受贝莱德基金等机构调研</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-22 18:37</t>
+          <t>11-23 05:45</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1249737387.html</t>
+          <t>/news,002812,1249863455.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7008</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
+          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-22 16:57</t>
+          <t>11-22 23:10</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1249712465.html</t>
+          <t>/news,002812,1249814227.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>9518</t>
+          <t>10589</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
+          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-22 16:03</t>
+          <t>11-22 18:37</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1249697654.html</t>
+          <t>/news,002812,1249737387.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7261</t>
+          <t>7011</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
+          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-22 15:42</t>
+          <t>11-22 16:57</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1249691067.html</t>
+          <t>/news,002812,1249712465.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>9528</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-22 15:37</t>
+          <t>11-22 16:03</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1249689323.html</t>
+          <t>/news,002812,1249697654.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3621</t>
+          <t>7261</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
+          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-22 14:52</t>
+          <t>11-22 15:42</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1249672010.html</t>
+          <t>/news,002812,1249691067.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>8038</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
+          <t>恩捷股份股价创近1年半新低</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-22 13:08</t>
+          <t>11-22 15:37</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1249585440.html</t>
+          <t>/news,002812,1249689323.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>15460</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长、副董事长被监视居住不会对控制权稳定性产生不利影响 目前公司运转正常</t>
+          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-22 12:02</t>
+          <t>11-22 14:52</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1249535718.html</t>
+          <t>/news,002812,1249672010.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>12555</t>
+          <t>8038</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>董事长、总经理被监视居住 千亿锂电隔膜龙头大单封跌停</t>
+          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-22 11:02</t>
+          <t>11-22 13:08</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1249497857.html</t>
+          <t>/news,002812,1249585440.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还4711.8万元，融资余额10.32亿元（12-13）</t>
+          <t>恩捷股份：融资净买入627.68万元，融资余额10.35亿元（12-19）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,61 +477,61 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 08:59</t>
+          <t>12-20 08:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1259356327.html</t>
+          <t>/news,002812,1261731423.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰君安维持恩捷股份增持评级 目标价198元</t>
+          <t>恩捷股份12月19日被深股通减持84.1万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 23:08</t>
+          <t>12-20 07:46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1259267906.html</t>
+          <t>/news,002812,1261723673.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>1121</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2601.74万元，融资余额10.79亿元（12-12）</t>
+          <t>恩捷股份子公司与国轩高科签订锂电池隔离膜产品年度采购合同</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-13 08:57</t>
+          <t>12-19 20:22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1258770450.html</t>
+          <t>/news,002812,1261612199.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>631</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份12月12日被深股通减持24.92万股</t>
+          <t>恩捷股份：控股子公司与国轩高科签订锂电池隔离膜产品年度采购合同</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-13 07:55</t>
+          <t>12-19 20:10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1258762053.html</t>
+          <t>/news,002812,1261606595.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入56.93万元，融资余额11.05亿元（12-09）</t>
+          <t>恩捷股份：子公司与国轩高科签订约23亿元锂电池隔离膜产品年度采购合同</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,51 +605,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-12 08:56</t>
+          <t>12-19 20:09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1258214626.html</t>
+          <t>/news,002812,1261614637.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>3069</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还2878.64万元，居电池板块第七</t>
+          <t>恩捷股份：与国轩高科签订锂电池隔离膜产品年度采购合同</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-11 15:07</t>
+          <t>12-19 19:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1258089283.html</t>
+          <t>/news,002812,1261601701.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,61 +659,61 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持20.44亿元，周内减持市值两市排名第一</t>
+          <t>恩捷股份：融资净买入849.23万元，融资余额10.29亿元（12-16）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-11 14:04</t>
+          <t>12-19 08:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1258080934.html</t>
+          <t>/news,002812,1261207058.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>26370</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>北向资金大调仓！大幅减仓这一爆雷股 重点增持这些股票（附名单）</t>
+          <t>恩捷股份本周融资净偿还8466.66万元，居电池板块第一</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-11 12:56</t>
+          <t>12-18 15:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1258076777.html</t>
+          <t>/news,002812,1261087429.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份12月09日被深股通减持210.44万股</t>
+          <t>恩捷股份本周被深股通减持3.93亿元，周内减持市值两市排名第八</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-10 07:59</t>
+          <t>12-18 14:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1257966491.html</t>
+          <t>/news,002812,1261080597.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>829</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交1.92亿元，成交价139.95元（12-09）</t>
+          <t>恩捷股份12月16日被深股通减持23.31万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-09 18:00</t>
+          <t>12-17 07:53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1257814232.html</t>
+          <t>/news,002812,1260976083.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>997</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1416.34万元，融资余额11.04亿元（12-08）</t>
+          <t>恩捷股份：公司生产的BOPP膜广泛应用于多种产品包装领域</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-09 09:06</t>
+          <t>12-16 19:35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1257406267.html</t>
+          <t>/news,002812,1260872505.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份12月08日被深股通减持214.55万股</t>
+          <t>恩捷股份：融资净偿还1379.67万元，融资余额10.2亿元（12-15）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-09 07:47</t>
+          <t>12-16 09:09</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1257392701.html</t>
+          <t>/news,002812,1260490505.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入101.49万元，融资余额11.19亿元（12-07）</t>
+          <t>恩捷股份12月15日被深股通减持194.47万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-08 08:50</t>
+          <t>12-16 07:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1256766350.html</t>
+          <t>/news,002812,1260477124.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份12月07日被深股通减持748.02万股</t>
+          <t>恩捷股份：融资净买入226.55万元，融资余额10.34亿元（12-14）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-08 07:56</t>
+          <t>12-15 08:55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1256757338.html</t>
+          <t>/news,002812,1259943444.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计7839.99万元（12-06）</t>
+          <t>恩捷股份12月14日被深股通减持43.18万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-07 08:55</t>
+          <t>12-15 07:48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1256100295.html</t>
+          <t>/news,002812,1259933004.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份12月06日被深股通减持272.41万股</t>
+          <t>恩捷股份：融资净偿还4711.8万元，融资余额10.32亿元（12-13）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,51 +957,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-07 07:55</t>
+          <t>12-14 08:59</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1256092180.html</t>
+          <t>/news,002812,1259356327.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
+          <t>国泰君安维持恩捷股份增持评级 目标价198元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-06 08:48</t>
+          <t>12-13 23:08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1255457024.html</t>
+          <t>/news,002812,1259267906.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份12月05日被深股通减持22.81万股</t>
+          <t>恩捷股份：融资净偿还2601.74万元，融资余额10.79亿元（12-12）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-06 08:00</t>
+          <t>12-13 08:57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1255450220.html</t>
+          <t>/news,002812,1258770450.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2244</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
+          <t>恩捷股份12月12日被深股通减持24.92万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-05 11:20</t>
+          <t>12-13 07:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1255013567.html</t>
+          <t>/news,002812,1258762053.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份：融资净买入56.93万元，融资余额11.05亿元（12-09）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-05 08:59</t>
+          <t>12-12 08:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1254804248.html</t>
+          <t>/news,002812,1258214626.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份本周融资净偿还2878.64万元，居电池板块第七</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-05 08:50</t>
+          <t>12-11 15:07</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1254802546.html</t>
+          <t>/news,002812,1258089283.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,71 +1139,71 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
+          <t>恩捷股份本周被深股通减持20.44亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-11 14:04</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1254649632.html</t>
+          <t>/news,002812,1258080934.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>26884</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
+          <t>北向资金大调仓！大幅减仓这一爆雷股 重点增持这些股票（附名单）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-11 12:56</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1254643123.html</t>
+          <t>/news,002812,1258076777.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1344</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份12月02日被深股通减持37.08万股</t>
+          <t>恩捷股份12月09日被深股通减持210.44万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-03 08:00</t>
+          <t>12-10 07:59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1254513718.html</t>
+          <t>/news,002812,1257966491.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>883</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
+          <t>大宗交易：恩捷股份成交1.92亿元，成交价139.95元（12-09）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-09 18:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1253919730.html</t>
+          <t>/news,002812,1257814232.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份12月01日获深股通增持121.27万股</t>
+          <t>恩捷股份：融资净偿还1416.34万元，融资余额11.04亿元（12-08）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-09 09:06</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1253914514.html</t>
+          <t>/news,002812,1257406267.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2918</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
+          <t>恩捷股份12月08日被深股通减持214.55万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-01 21:00</t>
+          <t>12-09 07:47</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1253820141.html</t>
+          <t>/news,002812,1257392701.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3494</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份：融资净买入101.49万元，融资余额11.19亿元（12-07）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-01 20:46</t>
+          <t>12-08 08:50</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1253813619.html</t>
+          <t>/news,002812,1256766350.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份12月07日被深股通减持748.02万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-01 20:43</t>
+          <t>12-08 07:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1253814104.html</t>
+          <t>/news,002812,1256757338.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
+          <t>恩捷股份：连续3日融资净偿还累计7839.99万元（12-06）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-01 08:44</t>
+          <t>12-07 08:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1253309241.html</t>
+          <t>/news,002812,1256100295.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份11月30日被深股通减持18.29万股</t>
+          <t>恩捷股份12月06日被深股通减持272.41万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-07 07:55</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1253302755.html</t>
+          <t>/news,002812,1256092180.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2915</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
+          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,61 +1469,61 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-30 23:48</t>
+          <t>12-06 08:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1253269026.html</t>
+          <t>/news,002812,1255457024.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创逾19个月新低</t>
+          <t>恩捷股份12月05日被深股通减持22.81万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-30 15:36</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1253120758.html</t>
+          <t>/news,002812,1255450220.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2347</t>
+          <t>2304</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
+          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-30 14:10</t>
+          <t>12-05 11:20</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1253055817.html</t>
+          <t>/news,002812,1255013567.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>12-05 08:59</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1252786196.html</t>
+          <t>/news,002812,1254804248.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>恩捷股份11月29日被深股通减持441.85万股</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>12-05 08:50</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1252779544.html</t>
+          <t>/news,002812,1254802546.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾19个月新低</t>
+          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-29 15:37</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1252561522.html</t>
+          <t>/news,002812,1254649632.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
+          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1252223271.html</t>
+          <t>/news,002812,1254643123.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>15129</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
+          <t>恩捷股份12月02日被深股通减持37.08万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-29 08:14</t>
+          <t>12-03 08:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1252217077.html</t>
+          <t>/news,002812,1254513718.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>恩捷股份11月28日被深股通减持83.27万股</t>
+          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-29 07:52</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1252213406.html</t>
+          <t>/news,002812,1253919730.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,39 +1747,39 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾19个月新低</t>
+          <t>恩捷股份12月01日获深股通增持121.27万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1252040949.html</t>
+          <t>/news,002812,1253914514.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>2962</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
+          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>12-01 21:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1251734845.html</t>
+          <t>/news,002812,1253820141.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>17704</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
+          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-27 17:26</t>
+          <t>12-01 20:46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1251605230.html</t>
+          <t>/news,002812,1253813619.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>833</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,29 +1843,29 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
+          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-27 15:13</t>
+          <t>12-01 20:43</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1251591816.html</t>
+          <t>/news,002812,1253814104.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
+          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>12-01 08:44</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1251584020.html</t>
+          <t>/news,002812,1253309241.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>恩捷股份11月25日获深股通增持54.16万股</t>
+          <t>恩捷股份11月30日被深股通减持18.29万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1251434379.html</t>
+          <t>/news,002812,1253302755.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>2939</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
+          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-25 08:55</t>
+          <t>11-30 23:48</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1250952319.html</t>
+          <t>/news,002812,1253269026.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>941</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
+          <t>恩捷股份股价连续3日创逾19个月新低</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-30 15:36</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1250949905.html</t>
+          <t>/news,002812,1253120758.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>2363</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>恩捷股份11月24日获深股通增持125.48万股</t>
+          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-30 14:10</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1250943693.html</t>
+          <t>/news,002812,1253055817.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5166</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
+          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-24 15:20</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1250743411.html</t>
+          <t>/news,002812,1252786196.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>14853</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
+          <t>恩捷股份11月29日被深股通减持441.85万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-24 11:55</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1250617763.html</t>
+          <t>/news,002812,1252779544.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
+          <t>恩捷股份股价连续2日创逾19个月新低</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-24 09:02</t>
+          <t>11-29 15:37</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1250431988.html</t>
+          <t>/news,002812,1252561522.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3786</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-24 08:12</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1250423751.html</t>
+          <t>/news,002812,1252223271.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>15218</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
+          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-24 07:48</t>
+          <t>11-29 08:14</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1250419509.html</t>
+          <t>/news,002812,1252217077.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>42022</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>恩捷股份11月28日被深股通减持83.27万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,61 +2205,61 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-24 00:03</t>
+          <t>11-29 07:52</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1250362443.html</t>
+          <t>/news,002812,1252213406.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4461</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
+          <t>恩捷股份股价创逾19个月新低</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-23 23:53</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1250360642.html</t>
+          <t>/news,002812,1252040949.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7961</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
+          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1250253514.html</t>
+          <t>/news,002812,1251734845.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>8637</t>
+          <t>17736</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
+          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-23 16:24</t>
+          <t>11-27 17:26</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1250233233.html</t>
+          <t>/news,002812,1251605230.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,71 +2323,71 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-23 15:37</t>
+          <t>11-27 15:13</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1250219804.html</t>
+          <t>/news,002812,1251591816.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5756</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
+          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-23 15:35</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1250219714.html</t>
+          <t>/news,002812,1251584020.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6337</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
+          <t>恩捷股份11月25日获深股通增持54.16万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-23 15:13</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1250212927.html</t>
+          <t>/news,002812,1251434379.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>39946</t>
+          <t>680</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
+          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-23 13:49</t>
+          <t>11-25 08:55</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1250148155.html</t>
+          <t>/news,002812,1250952319.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4746</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
+          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-23 13:12</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1250115946.html</t>
+          <t>/news,002812,1250949905.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2565</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
+          <t>恩捷股份11月24日获深股通增持125.48万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-23 11:10</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1250060834.html</t>
+          <t>/news,002812,1250943693.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>11678</t>
+          <t>5273</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
+          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-24 15:20</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1249948430.html</t>
+          <t>/news,002812,1250743411.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>14888</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>恩捷股份：公司及下属各子公司的生产经营活动均在正常进行中</t>
+          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-24 11:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1249945562.html</t>
+          <t>/news,002812,1250617763.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>542</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份再度跌停，董事长和副董事长因相关事项被公安机关指定居所监视居住</t>
+          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-23 09:39</t>
+          <t>11-24 09:02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1249949175.html</t>
+          <t>/news,002812,1250431988.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2895</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>恩捷股份连续第二个交易日跌停</t>
+          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-23 09:34</t>
+          <t>11-24 08:12</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1249919541.html</t>
+          <t>/news,002812,1250423751.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>【调研快报】恩捷股份接待贝莱德基金等多家机构调研</t>
+          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-23 09:13</t>
+          <t>11-24 07:48</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1250105732.html</t>
+          <t>/news,002812,1250419509.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>5732</t>
+          <t>42036</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>恩捷股份：今年最后两个月订单充足 客户需求稳健</t>
+          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-23 08:52</t>
+          <t>11-24 00:03</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1249884669.html</t>
+          <t>/news,002812,1250362443.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>恩捷股份：连续5日融资净偿还累计1.38亿元（11-22）</t>
+          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-23 08:45</t>
+          <t>11-23 23:53</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1249883367.html</t>
+          <t>/news,002812,1250360642.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2767</t>
+          <t>7969</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份：接受贝莱德基金等机构调研</t>
+          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-23 05:45</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1249863455.html</t>
+          <t>/news,002812,1250253514.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3664</t>
+          <t>8644</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>手握765亿的云南首富 恩捷股份正副董事长被监视居住</t>
+          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,61 +2781,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-22 23:10</t>
+          <t>11-23 16:24</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1249814227.html</t>
+          <t>/news,002812,1250233233.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>10589</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份实控人被公安机关监视居住 股价一字跌停市值蒸发近140亿元 公司董秘办独家回复</t>
+          <t>恩捷股份股价连续2日创近1年半新低</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-22 18:37</t>
+          <t>11-23 15:37</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1249737387.html</t>
+          <t>/news,002812,1250219804.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7011</t>
+          <t>5769</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前由董事兼高级副总裁程跃主持日常工作</t>
+          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-22 16:57</t>
+          <t>11-23 15:35</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1249712465.html</t>
+          <t>/news,002812,1250219714.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>9528</t>
+          <t>6343</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>765亿身家“云南首富”兄弟被监视居住 1000亿龙头“一字板”跌停 公司紧急回应</t>
+          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-22 16:03</t>
+          <t>11-23 15:13</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1249697654.html</t>
+          <t>/news,002812,1250212927.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7261</t>
+          <t>39984</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>恩捷股份：生产及交付均在正常进行中 董事会和监事会正常运作</t>
+          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-22 15:42</t>
+          <t>11-23 13:49</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1249691067.html</t>
+          <t>/news,002812,1250148155.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>4752</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>恩捷股份股价创近1年半新低</t>
+          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-22 15:37</t>
+          <t>11-23 13:12</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1249689323.html</t>
+          <t>/news,002812,1250115946.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3623</t>
+          <t>2569</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>云南首富兄弟被监视居住 旗下企业称生产经营正常</t>
+          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-22 14:52</t>
+          <t>11-23 11:10</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1249672010.html</t>
+          <t>/news,002812,1250060834.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>8038</t>
+          <t>11684</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>股价一字跌停 正副董事长被监视居住对恩捷股份有哪些影响？</t>
+          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-22 13:08</t>
+          <t>11-23 09:47</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1249585440.html</t>
+          <t>/news,002812,1249948430.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002812.xlsx
+++ b/news_ann/news/tmp/002812.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入627.68万元，融资余额10.35亿元（12-19）</t>
+          <t>恩捷股份：融资净偿还1168.28万元，融资余额10.38亿元（12-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-20 08:47</t>
+          <t>12-23 08:42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002812,1261731423.html</t>
+          <t>/news,002812,1263198663.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恩捷股份12月19日被深股通减持84.1万股</t>
+          <t>恩捷股份12月22日被深股通减持56.54万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-20 07:46</t>
+          <t>12-23 07:33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002812,1261723673.html</t>
+          <t>/news,002812,1263188994.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>710</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恩捷股份子公司与国轩高科签订锂电池隔离膜产品年度采购合同</t>
+          <t>恩捷股份：目前金桥国培地块项目正在有序建设中</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-19 20:22</t>
+          <t>12-22 17:45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002812,1261612199.html</t>
+          <t>/news,002812,1263042584.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩捷股份：控股子公司与国轩高科签订锂电池隔离膜产品年度采购合同</t>
+          <t>恩捷股份：连续4日融资净买入累计2937.96万元（12-21）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-19 20:10</t>
+          <t>12-22 08:40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002812,1261606595.html</t>
+          <t>/news,002812,1262677168.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩捷股份：子公司与国轩高科签订约23亿元锂电池隔离膜产品年度采购合同</t>
+          <t>恩捷股份12月21日被深股通减持21.38万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-19 20:09</t>
+          <t>12-22 07:36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002812,1261614637.html</t>
+          <t>/news,002812,1262669101.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3069</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩捷股份：与国轩高科签订锂电池隔离膜产品年度采购合同</t>
+          <t>恩捷股份：连续3日融资净买入累计2533.09万元（12-20）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-19 19:58</t>
+          <t>12-21 08:59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002812,1261601701.html</t>
+          <t>/news,002812,1262206176.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,61 +659,61 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入849.23万元，融资余额10.29亿元（12-16）</t>
+          <t>国泰君安维持恩捷股份增持评级 目标价198元</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-19 08:50</t>
+          <t>12-21 08:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002812,1261207058.html</t>
+          <t>/news,002812,1262202993.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还8466.66万元，居电池板块第一</t>
+          <t>恩捷股份12月20日被深股通减持182.83万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-18 15:08</t>
+          <t>12-21 07:32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002812,1261087429.html</t>
+          <t>/news,002812,1262195241.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持3.93亿元，周内减持市值两市排名第八</t>
+          <t>恩捷股份：融资净买入627.68万元，融资余额10.35亿元（12-19）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-18 14:05</t>
+          <t>12-20 08:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002812,1261080597.html</t>
+          <t>/news,002812,1261731423.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>恩捷股份12月16日被深股通减持23.31万股</t>
+          <t>恩捷股份12月19日被深股通减持84.1万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-17 07:53</t>
+          <t>12-20 07:46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002812,1260976083.html</t>
+          <t>/news,002812,1261723673.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>997</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>恩捷股份：公司生产的BOPP膜广泛应用于多种产品包装领域</t>
+          <t>恩捷股份子公司与国轩高科签订锂电池隔离膜产品年度采购合同</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-16 19:35</t>
+          <t>12-19 20:22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002812,1260872505.html</t>
+          <t>/news,002812,1261612199.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>800</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1379.67万元，融资余额10.2亿元（12-15）</t>
+          <t>恩捷股份：控股子公司与国轩高科签订锂电池隔离膜产品年度采购合同</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-16 09:09</t>
+          <t>12-19 20:10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002812,1260490505.html</t>
+          <t>/news,002812,1261606595.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>恩捷股份12月15日被深股通减持194.47万股</t>
+          <t>恩捷股份：子公司与国轩高科签订约23亿元锂电池隔离膜产品年度采购合同</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-16 07:50</t>
+          <t>12-19 20:09</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002812,1260477124.html</t>
+          <t>/news,002812,1261614637.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入226.55万元，融资余额10.34亿元（12-14）</t>
+          <t>恩捷股份：与国轩高科签订锂电池隔离膜产品年度采购合同</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-15 08:55</t>
+          <t>12-19 19:58</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002812,1259943444.html</t>
+          <t>/news,002812,1261601701.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>恩捷股份12月14日被深股通减持43.18万股</t>
+          <t>恩捷股份：融资净买入849.23万元，融资余额10.29亿元（12-16）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-15 07:48</t>
+          <t>12-19 08:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002812,1259933004.html</t>
+          <t>/news,002812,1261207058.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>331</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,61 +947,61 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还4711.8万元，融资余额10.32亿元（12-13）</t>
+          <t>恩捷股份本周融资净偿还8466.66万元，居电池板块第一</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-14 08:59</t>
+          <t>12-18 15:08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002812,1259356327.html</t>
+          <t>/news,002812,1261087429.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国泰君安维持恩捷股份增持评级 目标价198元</t>
+          <t>恩捷股份本周被深股通减持3.93亿元，周内减持市值两市排名第八</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-13 23:08</t>
+          <t>12-18 14:05</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002812,1259267906.html</t>
+          <t>/news,002812,1261080597.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2601.74万元，融资余额10.79亿元（12-12）</t>
+          <t>恩捷股份12月16日被深股通减持23.31万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-13 08:57</t>
+          <t>12-17 07:53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002812,1258770450.html</t>
+          <t>/news,002812,1260976083.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恩捷股份12月12日被深股通减持24.92万股</t>
+          <t>恩捷股份：公司生产的BOPP膜广泛应用于多种产品包装领域</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-13 07:55</t>
+          <t>12-16 19:35</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002812,1258762053.html</t>
+          <t>/news,002812,1260872505.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入56.93万元，融资余额11.05亿元（12-09）</t>
+          <t>恩捷股份：融资净偿还1379.67万元，融资余额10.2亿元（12-15）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-12 08:56</t>
+          <t>12-16 09:09</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002812,1258214626.html</t>
+          <t>/news,002812,1260490505.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净偿还2878.64万元，居电池板块第七</t>
+          <t>恩捷股份12月15日被深股通减持194.47万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-11 15:07</t>
+          <t>12-16 07:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002812,1258089283.html</t>
+          <t>/news,002812,1260477124.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持20.44亿元，周内减持市值两市排名第一</t>
+          <t>恩捷股份：融资净买入226.55万元，融资余额10.34亿元（12-14）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-11 14:04</t>
+          <t>12-15 08:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002812,1258080934.html</t>
+          <t>/news,002812,1259943444.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>26884</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>北向资金大调仓！大幅减仓这一爆雷股 重点增持这些股票（附名单）</t>
+          <t>恩捷股份12月14日被深股通减持43.18万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-11 12:56</t>
+          <t>12-15 07:48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002812,1258076777.html</t>
+          <t>/news,002812,1259933004.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>恩捷股份12月09日被深股通减持210.44万股</t>
+          <t>恩捷股份：融资净偿还4711.8万元，融资余额10.32亿元（12-13）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-10 07:59</t>
+          <t>12-14 08:59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002812,1257966491.html</t>
+          <t>/news,002812,1259356327.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>大宗交易：恩捷股份成交1.92亿元，成交价139.95元（12-09）</t>
+          <t>国泰君安维持恩捷股份增持评级 目标价198元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-09 18:00</t>
+          <t>12-13 23:08</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002812,1257814232.html</t>
+          <t>/news,002812,1259267906.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1416.34万元，融资余额11.04亿元（12-08）</t>
+          <t>恩捷股份：融资净偿还2601.74万元，融资余额10.79亿元（12-12）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-09 09:06</t>
+          <t>12-13 08:57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002812,1257406267.html</t>
+          <t>/news,002812,1258770450.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>恩捷股份12月08日被深股通减持214.55万股</t>
+          <t>恩捷股份12月12日被深股通减持24.92万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-09 07:47</t>
+          <t>12-13 07:55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002812,1257392701.html</t>
+          <t>/news,002812,1258762053.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入101.49万元，融资余额11.19亿元（12-07）</t>
+          <t>恩捷股份：融资净买入56.93万元，融资余额11.05亿元（12-09）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-08 08:50</t>
+          <t>12-12 08:56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002812,1256766350.html</t>
+          <t>/news,002812,1258214626.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>恩捷股份12月07日被深股通减持748.02万股</t>
+          <t>恩捷股份本周融资净偿还2878.64万元，居电池板块第七</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-08 07:56</t>
+          <t>12-11 15:07</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002812,1256757338.html</t>
+          <t>/news,002812,1258089283.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计7839.99万元（12-06）</t>
+          <t>恩捷股份本周被深股通减持20.44亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-07 08:55</t>
+          <t>12-11 14:04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002812,1256100295.html</t>
+          <t>/news,002812,1258080934.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>26986</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>恩捷股份12月06日被深股通减持272.41万股</t>
+          <t>北向资金大调仓！大幅减仓这一爆雷股 重点增持这些股票（附名单）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-07 07:55</t>
+          <t>12-11 12:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002812,1256092180.html</t>
+          <t>/news,002812,1258076777.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>507</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
+          <t>恩捷股份12月09日被深股通减持210.44万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-06 08:48</t>
+          <t>12-10 07:59</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002812,1255457024.html</t>
+          <t>/news,002812,1257966491.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>899</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>恩捷股份12月05日被深股通减持22.81万股</t>
+          <t>大宗交易：恩捷股份成交1.92亿元，成交价139.95元（12-09）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-06 08:00</t>
+          <t>12-09 18:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002812,1255450220.html</t>
+          <t>/news,002812,1257814232.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2304</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
+          <t>恩捷股份：融资净偿还1416.34万元，融资余额11.04亿元（12-08）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-05 11:20</t>
+          <t>12-09 09:06</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002812,1255013567.html</t>
+          <t>/news,002812,1257406267.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份12月08日被深股通减持214.55万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-05 08:59</t>
+          <t>12-09 07:47</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002812,1254804248.html</t>
+          <t>/news,002812,1257392701.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
+          <t>恩捷股份：融资净买入101.49万元，融资余额11.19亿元（12-07）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,51 +1597,51 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-05 08:50</t>
+          <t>12-08 08:50</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002812,1254802546.html</t>
+          <t>/news,002812,1256766350.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
+          <t>恩捷股份12月07日被深股通减持748.02万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-04 15:06</t>
+          <t>12-08 07:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002812,1254649632.html</t>
+          <t>/news,002812,1256757338.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
+          <t>恩捷股份：连续3日融资净偿还累计7839.99万元（12-06）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12-04 14:06</t>
+          <t>12-07 08:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002812,1254643123.html</t>
+          <t>/news,002812,1256100295.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>恩捷股份12月02日被深股通减持37.08万股</t>
+          <t>恩捷股份12月06日被深股通减持272.41万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12-03 08:00</t>
+          <t>12-07 07:55</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002812,1254513718.html</t>
+          <t>/news,002812,1256092180.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
+          <t>恩捷股份：融资净偿还875.68万元，融资余额11.24亿元（12-05）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>12-02 08:45</t>
+          <t>12-06 08:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002812,1253919730.html</t>
+          <t>/news,002812,1255457024.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>恩捷股份12月01日获深股通增持121.27万股</t>
+          <t>恩捷股份12月05日被深股通减持22.81万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12-02 07:57</t>
+          <t>12-06 08:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002812,1253914514.html</t>
+          <t>/news,002812,1255450220.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2962</t>
+          <t>2314</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
+          <t>恩捷股份：公司隔膜产品可以应用于钠离子电池</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12-01 21:00</t>
+          <t>12-05 11:20</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002812,1253820141.html</t>
+          <t>/news,002812,1255013567.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3517</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>12-01 20:46</t>
+          <t>12-05 08:59</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002812,1253813619.html</t>
+          <t>/news,002812,1254804248.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
+          <t>恩捷股份：融资净偿还6276.2万元，两市排名第14（12-02）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>12-01 20:43</t>
+          <t>12-05 08:50</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002812,1253814104.html</t>
+          <t>/news,002812,1254802546.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,29 +1875,29 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
+          <t>恩捷股份本周融资净买入6316.03万元，居电池板块第一</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>12-01 08:44</t>
+          <t>12-04 15:06</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002812,1253309241.html</t>
+          <t>/news,002812,1254649632.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,39 +1907,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>恩捷股份11月30日被深股通减持18.29万股</t>
+          <t>恩捷股份本周被深股通减持5.66亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>12-01 07:56</t>
+          <t>12-04 14:06</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002812,1253302755.html</t>
+          <t>/news,002812,1254643123.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2939</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
+          <t>恩捷股份12月02日被深股通减持37.08万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-30 23:48</t>
+          <t>12-03 08:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002812,1253269026.html</t>
+          <t>/news,002812,1254513718.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续3日创逾19个月新低</t>
+          <t>恩捷股份：融资净买入4016.2万元，融资余额11.96亿元（12-01）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-30 15:36</t>
+          <t>12-02 08:45</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002812,1253120758.html</t>
+          <t>/news,002812,1253919730.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2363</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
+          <t>恩捷股份12月01日获深股通增持121.27万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-30 14:10</t>
+          <t>12-02 07:57</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002812,1253055817.html</t>
+          <t>/news,002812,1253914514.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>2993</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
+          <t>恩捷股份：与中创新航就隔离膜产品签订2023年保供框架合作协议</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-30 08:48</t>
+          <t>12-01 21:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002812,1252786196.html</t>
+          <t>/news,002812,1253820141.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>恩捷股份11月29日被深股通减持441.85万股</t>
+          <t>恩捷股份：与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-30 07:55</t>
+          <t>12-01 20:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002812,1252779544.html</t>
+          <t>/news,002812,1253813619.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>845</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创逾19个月新低</t>
+          <t>恩捷股份：控股子公司与中创新航签订2023年保供框架协议</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-29 15:37</t>
+          <t>12-01 20:43</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002812,1252561522.html</t>
+          <t>/news,002812,1253814104.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
+          <t>恩捷股份：融资净偿还1950.09万元，融资余额11.56亿元（11-30）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-29 08:52</t>
+          <t>12-01 08:44</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002812,1252223271.html</t>
+          <t>/news,002812,1253309241.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>15218</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
+          <t>恩捷股份11月30日被深股通减持18.29万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-29 08:14</t>
+          <t>12-01 07:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002812,1252217077.html</t>
+          <t>/news,002812,1253302755.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>2947</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>恩捷股份11月28日被深股通减持83.27万股</t>
+          <t>七个交易日股价累计跌20.11% 恩捷股份股东合益投资连续补充质押</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-29 07:52</t>
+          <t>11-30 23:48</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002812,1252213406.html</t>
+          <t>/news,002812,1253269026.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>恩捷股份股价创逾19个月新低</t>
+          <t>恩捷股份股价连续3日创逾19个月新低</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>11-30 15:36</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002812,1252040949.html</t>
+          <t>/news,002812,1253120758.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>2370</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
+          <t>恩捷股份：公司位于江西高安的各子公司生产运营均正常</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-28 08:50</t>
+          <t>11-30 14:10</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002812,1251734845.html</t>
+          <t>/news,002812,1253055817.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>17736</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
+          <t>恩捷股份：融资净买入6165.89万元，融资余额11.75亿元（11-29）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,51 +2301,51 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-27 17:26</t>
+          <t>11-30 08:48</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002812,1251605230.html</t>
+          <t>/news,002812,1252786196.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
+          <t>恩捷股份11月29日被深股通减持441.85万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-27 15:13</t>
+          <t>11-30 07:55</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002812,1251591816.html</t>
+          <t>/news,002812,1252779544.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,39 +2355,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
+          <t>恩捷股份股价连续2日创逾19个月新低</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-29 15:37</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002812,1251584020.html</t>
+          <t>/news,002812,1252561522.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>626</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>恩捷股份11月25日获深股通增持54.16万股</t>
+          <t>恩捷股份：连续3日融资净偿还累计1.7亿元（11-28）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-26 07:53</t>
+          <t>11-29 08:52</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002812,1251434379.html</t>
+          <t>/news,002812,1252223271.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>15252</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
+          <t>资金链紧张 融资路生变 千亿恩捷股份会否跌落神坛？</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-25 08:55</t>
+          <t>11-29 08:14</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002812,1250952319.html</t>
+          <t>/news,002812,1252217077.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
+          <t>恩捷股份11月28日被深股通减持83.27万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-25 08:44</t>
+          <t>11-29 07:52</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002812,1250949905.html</t>
+          <t>/news,002812,1252213406.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>恩捷股份11月24日获深股通增持125.48万股</t>
+          <t>恩捷股份股价创逾19个月新低</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>股友0y31623e66</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-25 07:52</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002812,1250943693.html</t>
+          <t>/news,002812,1252040949.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>5273</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
+          <t>恩捷股份：融资净偿还2742.63万元，融资余额11.33亿元（11-25）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-24 15:20</t>
+          <t>11-28 08:50</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002812,1250743411.html</t>
+          <t>/news,002812,1251734845.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>14888</t>
+          <t>17749</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
+          <t>北向资金大调仓！“爆雷”股被减仓超18亿元 加仓泸州老窖超7亿元（附名单）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,83 +2557,83 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-24 11:55</t>
+          <t>11-27 17:26</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002812,1250617763.html</t>
+          <t>/news,002812,1251605230.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
+          <t>恩捷股份本周融资净买入3366.16万元，居电池板块第九</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-24 09:02</t>
+          <t>11-27 15:13</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002812,1250431988.html</t>
+          <t>/news,002812,1251591816.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3802</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>恩捷股份本周被深股通减持18.15亿元，周内减持市值两市排名第一</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>恩捷股份资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-24 08:12</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002812,1250423751.html</t>
+          <t>/news,002812,1251584020.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>774</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
+          <t>恩捷股份11月25日获深股通增持54.16万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-24 07:48</t>
+          <t>11-26 07:53</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002812,1250419509.html</t>
+          <t>/news,002812,1251434379.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>42036</t>
+          <t>683</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
+          <t>恩捷股份：融资净偿还1.24亿元，两市排名第一（11-24）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-24 00:03</t>
+          <t>11-25 08:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002812,1250362443.html</t>
+          <t>/news,002812,1250952319.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4472</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
+          <t>恩捷股份：融资净偿还1.24亿元，融资余额11.6亿元（11-24）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-23 23:53</t>
+          <t>11-25 08:44</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002812,1250360642.html</t>
+          <t>/news,002812,1250949905.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7969</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
+          <t>恩捷股份11月24日获深股通增持125.48万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-23 17:53</t>
+          <t>11-25 07:52</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002812,1250253514.html</t>
+          <t>/news,002812,1250943693.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>8644</t>
+          <t>5293</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>“云南首富”兄弟被监视居住，千亿龙头市值蒸发226亿！公司紧急开会，多家顶级机构出席，凌晨2点还在发信息</t>
+          <t>起底云南首富财富神话：搭上锂电池东风成百亿富豪 今被监视居住</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,61 +2781,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-23 16:24</t>
+          <t>11-24 15:20</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002812,1250233233.html</t>
+          <t>/news,002812,1250743411.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>14914</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>恩捷股份股价连续2日创近1年半新低</t>
+          <t>公开表态尚难安抚投资者？恩捷股份“高管涉案”或累及江西基地、定增项目</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>股友0y31623e66</t>
+          <t>恩捷股份资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-23 15:37</t>
+          <t>11-24 11:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002812,1250219804.html</t>
+          <t>/news,002812,1250617763.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5769</t>
+          <t>544</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>恩捷股份：董事长与副董事长被公安监视居住原因暂不明</t>
+          <t>恩捷股份：融资净买入1.94亿元，两市排名第三（11-23）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-23 15:35</t>
+          <t>11-24 09:02</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002812,1250219714.html</t>
+          <t>/news,002812,1250431988.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6343</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>沪深两市今日成交额8305亿元 恩捷股份成交额居首</t>
+          <t>60亿资金疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-23 15:13</t>
+          <t>11-24 08:12</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002812,1250212927.html</t>
+          <t>/news,002812,1250423751.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>39984</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>卷入江西被查官员案件 恩捷股份“首富”兄弟被监视居住</t>
+          <t>恩捷股份11月23日被深股通减持1563.71万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-23 13:49</t>
+          <t>11-24 07:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002812,1250148155.html</t>
+          <t>/news,002812,1250419509.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>4752</t>
+          <t>42045</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>紧急召开机构电话会 恩捷股份“稳住”投资者</t>
+          <t>连续跌停、60亿疯狂出逃！千亿巨头紧急开会 128亿定增悬了？</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-23 13:12</t>
+          <t>11-24 00:03</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002812,1250115946.html</t>
+          <t>/news,002812,1250362443.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>4483</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>恩捷股份：定增项目将根据监管要求并结合公司自身情况有序推进</t>
+          <t>锂电隔膜龙头恩捷股份两高管被监视居住 多家机构、客户紧急连线</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-23 11:10</t>
+          <t>11-23 23:53</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002812,1250060834.html</t>
+          <t>/news,002812,1250360642.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>11684</t>
+          <t>7975</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>恩捷股份：公司目前不清楚董事长与副董事长所涉事项的具体内容</t>
+          <t>恩捷股份今日遭北向资金净卖出19.85亿元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-23 09:47</t>
+          <t>11-23 17:53</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002812,1249948430.html</t>
+          <t>/news,002812,1250253514.html</t>
         </is>
       </c>
     </row>
